--- a/public/excel/temp_hsd.xlsx
+++ b/public/excel/temp_hsd.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I730"/>
+  <dimension ref="A1:I778"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -17039,6 +17039,1110 @@
         <v>120000</v>
       </c>
       <c r="G730" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731">
+        <v>723</v>
+      </c>
+      <c r="B731" t="str">
+        <v/>
+      </c>
+      <c r="C731" t="str">
+        <v/>
+      </c>
+      <c r="D731" t="str">
+        <v>Peralatan potong  pipa T1/manual  (gergaji) /saw</v>
+      </c>
+      <c r="E731" t="str">
+        <v>hari</v>
+      </c>
+      <c r="F731">
+        <v>0</v>
+      </c>
+      <c r="G731" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732">
+        <v>724</v>
+      </c>
+      <c r="B732" t="str">
+        <v/>
+      </c>
+      <c r="C732" t="str">
+        <v/>
+      </c>
+      <c r="D732" t="str">
+        <v>Peralatan potong  pipa T2/mekanik /  cilinder saw</v>
+      </c>
+      <c r="E732" t="str">
+        <v>hari</v>
+      </c>
+      <c r="F732">
+        <v>0</v>
+      </c>
+      <c r="G732" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733">
+        <v>725</v>
+      </c>
+      <c r="B733" t="str">
+        <v/>
+      </c>
+      <c r="C733" t="str">
+        <v/>
+      </c>
+      <c r="D733" t="str">
+        <v>Pipa GIP Ø 250 mm</v>
+      </c>
+      <c r="E733" t="str">
+        <v>m</v>
+      </c>
+      <c r="F733">
+        <v>0</v>
+      </c>
+      <c r="G733" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734">
+        <v>726</v>
+      </c>
+      <c r="B734" t="str">
+        <v/>
+      </c>
+      <c r="C734" t="str">
+        <v/>
+      </c>
+      <c r="D734" t="str">
+        <v>Valve Ø 150 mm</v>
+      </c>
+      <c r="E734" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F734">
+        <v>0</v>
+      </c>
+      <c r="G734" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735">
+        <v>727</v>
+      </c>
+      <c r="B735" t="str">
+        <v/>
+      </c>
+      <c r="C735" t="str">
+        <v/>
+      </c>
+      <c r="D735" t="str">
+        <v>Valve Ø 200 mm</v>
+      </c>
+      <c r="E735" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F735">
+        <v>0</v>
+      </c>
+      <c r="G735" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736">
+        <v>728</v>
+      </c>
+      <c r="B736" t="str">
+        <v/>
+      </c>
+      <c r="C736" t="str">
+        <v/>
+      </c>
+      <c r="D736" t="str">
+        <v>Valve Ø 250 mm</v>
+      </c>
+      <c r="E736" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F736">
+        <v>0</v>
+      </c>
+      <c r="G736" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737">
+        <v>729</v>
+      </c>
+      <c r="B737" t="str">
+        <v/>
+      </c>
+      <c r="C737" t="str">
+        <v/>
+      </c>
+      <c r="D737" t="str">
+        <v>Valve Ø 300 mm</v>
+      </c>
+      <c r="E737" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F737">
+        <v>0</v>
+      </c>
+      <c r="G737" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738">
+        <v>730</v>
+      </c>
+      <c r="B738" t="str">
+        <v/>
+      </c>
+      <c r="C738" t="str">
+        <v/>
+      </c>
+      <c r="D738" t="str">
+        <v>Valve Ø 400 mm</v>
+      </c>
+      <c r="E738" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F738">
+        <v>0</v>
+      </c>
+      <c r="G738" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739">
+        <v>731</v>
+      </c>
+      <c r="B739" t="str">
+        <v/>
+      </c>
+      <c r="C739" t="str">
+        <v/>
+      </c>
+      <c r="D739" t="str">
+        <v>Valve Ø 450 mm</v>
+      </c>
+      <c r="E739" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F739">
+        <v>0</v>
+      </c>
+      <c r="G739" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740">
+        <v>732</v>
+      </c>
+      <c r="B740" t="str">
+        <v/>
+      </c>
+      <c r="C740" t="str">
+        <v/>
+      </c>
+      <c r="D740" t="str">
+        <v>Valve Ø 500 mm</v>
+      </c>
+      <c r="E740" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F740">
+        <v>0</v>
+      </c>
+      <c r="G740" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741">
+        <v>733</v>
+      </c>
+      <c r="B741" t="str">
+        <v/>
+      </c>
+      <c r="C741" t="str">
+        <v/>
+      </c>
+      <c r="D741" t="str">
+        <v>Valve Ø 600 mm</v>
+      </c>
+      <c r="E741" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F741">
+        <v>0</v>
+      </c>
+      <c r="G741" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742">
+        <v>734</v>
+      </c>
+      <c r="B742" t="str">
+        <v/>
+      </c>
+      <c r="C742" t="str">
+        <v/>
+      </c>
+      <c r="D742" t="str">
+        <v>Valve Ø 700 mm</v>
+      </c>
+      <c r="E742" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F742">
+        <v>0</v>
+      </c>
+      <c r="G742" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743">
+        <v>735</v>
+      </c>
+      <c r="B743" t="str">
+        <v/>
+      </c>
+      <c r="C743" t="str">
+        <v/>
+      </c>
+      <c r="D743" t="str">
+        <v>Mobile crane &lt;=3 ton</v>
+      </c>
+      <c r="E743" t="str">
+        <v>hari</v>
+      </c>
+      <c r="F743">
+        <v>0</v>
+      </c>
+      <c r="G743" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744">
+        <v>736</v>
+      </c>
+      <c r="B744" t="str">
+        <v/>
+      </c>
+      <c r="C744" t="str">
+        <v/>
+      </c>
+      <c r="D744" t="str">
+        <v>Valve Ø 800 mm</v>
+      </c>
+      <c r="E744" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F744">
+        <v>0</v>
+      </c>
+      <c r="G744" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745">
+        <v>737</v>
+      </c>
+      <c r="B745" t="str">
+        <v/>
+      </c>
+      <c r="C745" t="str">
+        <v/>
+      </c>
+      <c r="D745" t="str">
+        <v>Valve Ø 900 mm</v>
+      </c>
+      <c r="E745" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F745">
+        <v>0</v>
+      </c>
+      <c r="G745" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746">
+        <v>738</v>
+      </c>
+      <c r="B746" t="str">
+        <v/>
+      </c>
+      <c r="C746" t="str">
+        <v/>
+      </c>
+      <c r="D746" t="str">
+        <v>Valve Ø 1000 mm</v>
+      </c>
+      <c r="E746" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F746">
+        <v>0</v>
+      </c>
+      <c r="G746" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747">
+        <v>739</v>
+      </c>
+      <c r="B747" t="str">
+        <v/>
+      </c>
+      <c r="C747" t="str">
+        <v/>
+      </c>
+      <c r="D747" t="str">
+        <v>Valve Ø 1100 mm</v>
+      </c>
+      <c r="E747" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F747">
+        <v>0</v>
+      </c>
+      <c r="G747" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748">
+        <v>740</v>
+      </c>
+      <c r="B748" t="str">
+        <v/>
+      </c>
+      <c r="C748" t="str">
+        <v/>
+      </c>
+      <c r="D748" t="str">
+        <v>Valve Ø 1200 mm</v>
+      </c>
+      <c r="E748" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F748">
+        <v>0</v>
+      </c>
+      <c r="G748" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749">
+        <v>741</v>
+      </c>
+      <c r="B749" t="str">
+        <v/>
+      </c>
+      <c r="C749" t="str">
+        <v/>
+      </c>
+      <c r="D749" t="str">
+        <v>Tee Ø 150 mm</v>
+      </c>
+      <c r="E749" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F749">
+        <v>0</v>
+      </c>
+      <c r="G749" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750">
+        <v>742</v>
+      </c>
+      <c r="B750" t="str">
+        <v/>
+      </c>
+      <c r="C750" t="str">
+        <v/>
+      </c>
+      <c r="D750" t="str">
+        <v>Tee Ø 200 mm</v>
+      </c>
+      <c r="E750" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F750">
+        <v>0</v>
+      </c>
+      <c r="G750" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751">
+        <v>743</v>
+      </c>
+      <c r="B751" t="str">
+        <v/>
+      </c>
+      <c r="C751" t="str">
+        <v/>
+      </c>
+      <c r="D751" t="str">
+        <v>Tee Ø 250 mm</v>
+      </c>
+      <c r="E751" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F751">
+        <v>0</v>
+      </c>
+      <c r="G751" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752">
+        <v>744</v>
+      </c>
+      <c r="B752" t="str">
+        <v/>
+      </c>
+      <c r="C752" t="str">
+        <v/>
+      </c>
+      <c r="D752" t="str">
+        <v>Tee Ø 300 mm</v>
+      </c>
+      <c r="E752" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F752">
+        <v>0</v>
+      </c>
+      <c r="G752" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753">
+        <v>745</v>
+      </c>
+      <c r="B753" t="str">
+        <v/>
+      </c>
+      <c r="C753" t="str">
+        <v/>
+      </c>
+      <c r="D753" t="str">
+        <v>Tee Ø 400 mm</v>
+      </c>
+      <c r="E753" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F753">
+        <v>0</v>
+      </c>
+      <c r="G753" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754">
+        <v>746</v>
+      </c>
+      <c r="B754" t="str">
+        <v/>
+      </c>
+      <c r="C754" t="str">
+        <v/>
+      </c>
+      <c r="D754" t="str">
+        <v>Tee Ø 450 mm</v>
+      </c>
+      <c r="E754" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F754">
+        <v>0</v>
+      </c>
+      <c r="G754" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755">
+        <v>747</v>
+      </c>
+      <c r="B755" t="str">
+        <v/>
+      </c>
+      <c r="C755" t="str">
+        <v/>
+      </c>
+      <c r="D755" t="str">
+        <v>Tee Ø 500 mm</v>
+      </c>
+      <c r="E755" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F755">
+        <v>0</v>
+      </c>
+      <c r="G755" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756">
+        <v>748</v>
+      </c>
+      <c r="B756" t="str">
+        <v/>
+      </c>
+      <c r="C756" t="str">
+        <v/>
+      </c>
+      <c r="D756" t="str">
+        <v>Tee Ø 600 mm</v>
+      </c>
+      <c r="E756" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F756">
+        <v>0</v>
+      </c>
+      <c r="G756" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757">
+        <v>749</v>
+      </c>
+      <c r="B757" t="str">
+        <v/>
+      </c>
+      <c r="C757" t="str">
+        <v/>
+      </c>
+      <c r="D757" t="str">
+        <v>Tee Ø 700 mm</v>
+      </c>
+      <c r="E757" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F757">
+        <v>0</v>
+      </c>
+      <c r="G757" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758">
+        <v>750</v>
+      </c>
+      <c r="B758" t="str">
+        <v/>
+      </c>
+      <c r="C758" t="str">
+        <v/>
+      </c>
+      <c r="D758" t="str">
+        <v>Tee Ø 800 mm</v>
+      </c>
+      <c r="E758" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F758">
+        <v>0</v>
+      </c>
+      <c r="G758" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759">
+        <v>751</v>
+      </c>
+      <c r="B759" t="str">
+        <v/>
+      </c>
+      <c r="C759" t="str">
+        <v/>
+      </c>
+      <c r="D759" t="str">
+        <v>Tee Ø 900 mm</v>
+      </c>
+      <c r="E759" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F759">
+        <v>0</v>
+      </c>
+      <c r="G759" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760">
+        <v>752</v>
+      </c>
+      <c r="B760" t="str">
+        <v/>
+      </c>
+      <c r="C760" t="str">
+        <v/>
+      </c>
+      <c r="D760" t="str">
+        <v>Tee Ø 1000 mm</v>
+      </c>
+      <c r="E760" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F760">
+        <v>0</v>
+      </c>
+      <c r="G760" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761">
+        <v>753</v>
+      </c>
+      <c r="B761" t="str">
+        <v/>
+      </c>
+      <c r="C761" t="str">
+        <v/>
+      </c>
+      <c r="D761" t="str">
+        <v>Tee Ø 1100 mm</v>
+      </c>
+      <c r="E761" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F761">
+        <v>0</v>
+      </c>
+      <c r="G761" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762">
+        <v>754</v>
+      </c>
+      <c r="B762" t="str">
+        <v/>
+      </c>
+      <c r="C762" t="str">
+        <v/>
+      </c>
+      <c r="D762" t="str">
+        <v>Tee Ø 1200 mm</v>
+      </c>
+      <c r="E762" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F762">
+        <v>0</v>
+      </c>
+      <c r="G762" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763">
+        <v>755</v>
+      </c>
+      <c r="B763" t="str">
+        <v/>
+      </c>
+      <c r="C763" t="str">
+        <v/>
+      </c>
+      <c r="D763" t="str">
+        <v>Genset 1500  watt</v>
+      </c>
+      <c r="E763" t="str">
+        <v>hari</v>
+      </c>
+      <c r="F763">
+        <v>0</v>
+      </c>
+      <c r="G763" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764">
+        <v>756</v>
+      </c>
+      <c r="B764" t="str">
+        <v/>
+      </c>
+      <c r="C764" t="str">
+        <v/>
+      </c>
+      <c r="D764" t="str">
+        <v>Pompa  Submersible 3m3/h</v>
+      </c>
+      <c r="E764" t="str">
+        <v>hari</v>
+      </c>
+      <c r="F764">
+        <v>0</v>
+      </c>
+      <c r="G764" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765">
+        <v>757</v>
+      </c>
+      <c r="B765" t="str">
+        <v/>
+      </c>
+      <c r="C765" t="str">
+        <v/>
+      </c>
+      <c r="D765" t="str">
+        <v>Pipa Ø 80 mm</v>
+      </c>
+      <c r="E765" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F765">
+        <v>0</v>
+      </c>
+      <c r="G765" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766">
+        <v>758</v>
+      </c>
+      <c r="B766" t="str">
+        <v/>
+      </c>
+      <c r="C766" t="str">
+        <v/>
+      </c>
+      <c r="D766" t="str">
+        <v>Pipa Ø 100 mm</v>
+      </c>
+      <c r="E766" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F766">
+        <v>0</v>
+      </c>
+      <c r="G766" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767">
+        <v>759</v>
+      </c>
+      <c r="B767" t="str">
+        <v/>
+      </c>
+      <c r="C767" t="str">
+        <v/>
+      </c>
+      <c r="D767" t="str">
+        <v>Pipa Ø 150 mm</v>
+      </c>
+      <c r="E767" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F767">
+        <v>0</v>
+      </c>
+      <c r="G767" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768">
+        <v>760</v>
+      </c>
+      <c r="B768" t="str">
+        <v/>
+      </c>
+      <c r="C768" t="str">
+        <v/>
+      </c>
+      <c r="D768" t="str">
+        <v>Pipa Ø 200 mm</v>
+      </c>
+      <c r="E768" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F768">
+        <v>0</v>
+      </c>
+      <c r="G768" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769">
+        <v>761</v>
+      </c>
+      <c r="B769" t="str">
+        <v/>
+      </c>
+      <c r="C769" t="str">
+        <v/>
+      </c>
+      <c r="D769" t="str">
+        <v>Pipa Ø 250 mm</v>
+      </c>
+      <c r="E769" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F769">
+        <v>0</v>
+      </c>
+      <c r="G769" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770">
+        <v>762</v>
+      </c>
+      <c r="B770" t="str">
+        <v/>
+      </c>
+      <c r="C770" t="str">
+        <v/>
+      </c>
+      <c r="D770" t="str">
+        <v>Pipa Ø 300 mm</v>
+      </c>
+      <c r="E770" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F770">
+        <v>0</v>
+      </c>
+      <c r="G770" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771">
+        <v>763</v>
+      </c>
+      <c r="B771" t="str">
+        <v/>
+      </c>
+      <c r="C771" t="str">
+        <v/>
+      </c>
+      <c r="D771" t="str">
+        <v>Pipa Ø 400 mm</v>
+      </c>
+      <c r="E771" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F771">
+        <v>0</v>
+      </c>
+      <c r="G771" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772">
+        <v>764</v>
+      </c>
+      <c r="B772" t="str">
+        <v/>
+      </c>
+      <c r="C772" t="str">
+        <v/>
+      </c>
+      <c r="D772" t="str">
+        <v>Pipa Ø 450 mm</v>
+      </c>
+      <c r="E772" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F772">
+        <v>0</v>
+      </c>
+      <c r="G772" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773">
+        <v>765</v>
+      </c>
+      <c r="B773" t="str">
+        <v/>
+      </c>
+      <c r="C773" t="str">
+        <v/>
+      </c>
+      <c r="D773" t="str">
+        <v>Pipa Ø 500 mm</v>
+      </c>
+      <c r="E773" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F773">
+        <v>0</v>
+      </c>
+      <c r="G773" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774">
+        <v>766</v>
+      </c>
+      <c r="B774" t="str">
+        <v/>
+      </c>
+      <c r="C774" t="str">
+        <v/>
+      </c>
+      <c r="D774" t="str">
+        <v>Pipa Ø 600 mm</v>
+      </c>
+      <c r="E774" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F774">
+        <v>0</v>
+      </c>
+      <c r="G774" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775">
+        <v>767</v>
+      </c>
+      <c r="B775" t="str">
+        <v/>
+      </c>
+      <c r="C775" t="str">
+        <v/>
+      </c>
+      <c r="D775" t="str">
+        <v>Pipa Ø 700 mm</v>
+      </c>
+      <c r="E775" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F775">
+        <v>0</v>
+      </c>
+      <c r="G775" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776">
+        <v>768</v>
+      </c>
+      <c r="B776" t="str">
+        <v/>
+      </c>
+      <c r="C776" t="str">
+        <v/>
+      </c>
+      <c r="D776" t="str">
+        <v>Pipa Ø 800 mm</v>
+      </c>
+      <c r="E776" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F776">
+        <v>0</v>
+      </c>
+      <c r="G776" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777">
+        <v>769</v>
+      </c>
+      <c r="B777" t="str">
+        <v/>
+      </c>
+      <c r="C777" t="str">
+        <v/>
+      </c>
+      <c r="D777" t="str">
+        <v>Bahan bakar</v>
+      </c>
+      <c r="E777" t="str">
+        <v>ltr</v>
+      </c>
+      <c r="F777">
+        <v>0</v>
+      </c>
+      <c r="G777" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778">
+        <v>770</v>
+      </c>
+      <c r="B778" t="str">
+        <v/>
+      </c>
+      <c r="C778" t="str">
+        <v/>
+      </c>
+      <c r="D778" t="str">
+        <v>Oli</v>
+      </c>
+      <c r="E778" t="str">
+        <v>ltr</v>
+      </c>
+      <c r="F778">
+        <v>0</v>
+      </c>
+      <c r="G778" t="str">
         <v/>
       </c>
     </row>
@@ -17061,7 +18165,7 @@
   </mergeCells>
   <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.31496062992125984" footer="0.31496062992125984"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I730"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I778"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/excel/temp_hsd.xlsx
+++ b/public/excel/temp_hsd.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I778"/>
+  <dimension ref="A1:I786"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -400,17 +400,17 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>DAERAH : Kab. Cilacap</v>
+        <v>DAERAH : Kab. Klaten</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>NAMA TOKO : TB Makmur</v>
+        <v>NAMA TOKO : TB Marajaya</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>ALAMAT : Jalan Tunjungsari No. 9B Cilacap</v>
+        <v>ALAMAT : Jl. Solo Yogya KM 18 Klaten</v>
       </c>
     </row>
     <row r="8">
@@ -453,7 +453,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F9">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G9" t="str">
         <v/>
@@ -476,7 +476,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F10">
-        <v>120000</v>
+        <v>1500000</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -499,7 +499,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F11">
-        <v>120000</v>
+        <v>1500000</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -522,7 +522,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F12">
-        <v>120000</v>
+        <v>1500000</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -545,7 +545,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F13">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G13" t="str">
         <v/>
@@ -568,7 +568,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F14">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G14" t="str">
         <v/>
@@ -591,7 +591,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F15">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -614,7 +614,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F16">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -637,7 +637,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F17">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G17" t="str">
         <v/>
@@ -660,7 +660,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F18">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G18" t="str">
         <v/>
@@ -683,7 +683,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F19">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G19" t="str">
         <v/>
@@ -706,7 +706,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F20">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G20" t="str">
         <v/>
@@ -729,7 +729,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F21">
-        <v>120000</v>
+        <v>750</v>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -752,7 +752,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F22">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G22" t="str">
         <v/>
@@ -775,7 +775,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F23">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G23" t="str">
         <v/>
@@ -798,7 +798,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F24">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -821,7 +821,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F25">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G25" t="str">
         <v/>
@@ -844,7 +844,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F26">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G26" t="str">
         <v/>
@@ -867,7 +867,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F27">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G27" t="str">
         <v/>
@@ -890,7 +890,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F28">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G28" t="str">
         <v/>
@@ -913,7 +913,7 @@
         <v xml:space="preserve">zak </v>
       </c>
       <c r="F29">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -936,7 +936,7 @@
         <v xml:space="preserve">zak </v>
       </c>
       <c r="F30">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G30" t="str">
         <v/>
@@ -959,7 +959,7 @@
         <v xml:space="preserve">zak </v>
       </c>
       <c r="F31">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G31" t="str">
         <v/>
@@ -982,7 +982,7 @@
         <v xml:space="preserve">zak </v>
       </c>
       <c r="F32">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="str">
         <v/>
@@ -1005,7 +1005,7 @@
         <v xml:space="preserve">zak </v>
       </c>
       <c r="F33">
-        <v>120000</v>
+        <v>15000</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -1028,7 +1028,7 @@
         <v xml:space="preserve">zak </v>
       </c>
       <c r="F34">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G34" t="str">
         <v/>
@@ -1051,7 +1051,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F35">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G35" t="str">
         <v/>
@@ -1074,7 +1074,7 @@
         <v xml:space="preserve">pak </v>
       </c>
       <c r="F36">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G36" t="str">
         <v/>
@@ -1097,7 +1097,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F37">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G37" t="str">
         <v/>
@@ -1120,7 +1120,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F38">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G38" t="str">
         <v/>
@@ -1143,7 +1143,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F39">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -1166,7 +1166,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F40">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G40" t="str">
         <v/>
@@ -1189,7 +1189,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F41">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G41" t="str">
         <v/>
@@ -1212,7 +1212,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F42">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G42" t="str">
         <v/>
@@ -1235,7 +1235,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F43">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G43" t="str">
         <v/>
@@ -1258,7 +1258,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F44">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G44" t="str">
         <v/>
@@ -1281,7 +1281,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F45">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G45" t="str">
         <v/>
@@ -1304,7 +1304,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F46">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G46" t="str">
         <v/>
@@ -1327,7 +1327,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F47">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G47" t="str">
         <v/>
@@ -1350,7 +1350,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F48">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G48" t="str">
         <v/>
@@ -1373,7 +1373,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F49">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G49" t="str">
         <v/>
@@ -1396,7 +1396,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F50">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G50" t="str">
         <v/>
@@ -1419,7 +1419,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F51">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G51" t="str">
         <v/>
@@ -1442,7 +1442,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F52">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G52" t="str">
         <v/>
@@ -1465,7 +1465,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F53">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G53" t="str">
         <v/>
@@ -1488,7 +1488,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F54">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G54" t="str">
         <v/>
@@ -1511,7 +1511,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F55">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G55" t="str">
         <v/>
@@ -1534,7 +1534,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F56">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G56" t="str">
         <v/>
@@ -1557,7 +1557,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F57">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G57" t="str">
         <v/>
@@ -1580,7 +1580,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F58">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G58" t="str">
         <v/>
@@ -1603,7 +1603,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F59">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G59" t="str">
         <v/>
@@ -1626,7 +1626,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F60">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="str">
         <v/>
@@ -1649,7 +1649,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F61">
-        <v>120000</v>
+        <v>52800</v>
       </c>
       <c r="G61" t="str">
         <v/>
@@ -1672,7 +1672,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F62">
-        <v>120000</v>
+        <v>61600</v>
       </c>
       <c r="G62" t="str">
         <v/>
@@ -1695,7 +1695,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F63">
-        <v>120000</v>
+        <v>70400</v>
       </c>
       <c r="G63" t="str">
         <v/>
@@ -1718,7 +1718,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F64">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G64" t="str">
         <v/>
@@ -1741,7 +1741,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F65">
-        <v>120000</v>
+        <v>88000</v>
       </c>
       <c r="G65" t="str">
         <v/>
@@ -1764,7 +1764,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F66">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G66" t="str">
         <v/>
@@ -1787,7 +1787,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F67">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G67" t="str">
         <v/>
@@ -1810,7 +1810,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F68">
-        <v>120000</v>
+        <v>5500</v>
       </c>
       <c r="G68" t="str">
         <v/>
@@ -1833,7 +1833,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F69">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="str">
         <v/>
@@ -1856,7 +1856,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F70">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G70" t="str">
         <v/>
@@ -1879,7 +1879,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F71">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G71" t="str">
         <v/>
@@ -1902,7 +1902,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F72">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G72" t="str">
         <v/>
@@ -1925,7 +1925,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F73">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G73" t="str">
         <v/>
@@ -1948,7 +1948,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F74">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G74" t="str">
         <v/>
@@ -1971,7 +1971,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F75">
-        <v>120000</v>
+        <v>15500</v>
       </c>
       <c r="G75" t="str">
         <v/>
@@ -1994,7 +1994,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F76">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G76" t="str">
         <v/>
@@ -2017,7 +2017,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F77">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G77" t="str">
         <v/>
@@ -2040,7 +2040,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F78">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G78" t="str">
         <v/>
@@ -2063,7 +2063,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F79">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G79" t="str">
         <v/>
@@ -2086,7 +2086,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F80">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G80" t="str">
         <v/>
@@ -2109,7 +2109,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F81">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G81" t="str">
         <v/>
@@ -2132,7 +2132,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F82">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="G82" t="str">
         <v/>
@@ -2155,7 +2155,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F83">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G83" t="str">
         <v/>
@@ -2178,7 +2178,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F84">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G84" t="str">
         <v/>
@@ -2201,7 +2201,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F85">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G85" t="str">
         <v/>
@@ -2224,7 +2224,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F86">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G86" t="str">
         <v/>
@@ -2247,7 +2247,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F87">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G87" t="str">
         <v/>
@@ -2270,7 +2270,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F88">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G88" t="str">
         <v/>
@@ -2293,7 +2293,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F89">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G89" t="str">
         <v/>
@@ -2316,7 +2316,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F90">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G90" t="str">
         <v/>
@@ -2339,7 +2339,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F91">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G91" t="str">
         <v/>
@@ -2362,7 +2362,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F92">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G92" t="str">
         <v/>
@@ -2385,7 +2385,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F93">
-        <v>120000</v>
+        <v>19000</v>
       </c>
       <c r="G93" t="str">
         <v/>
@@ -2408,7 +2408,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F94">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G94" t="str">
         <v/>
@@ -2431,7 +2431,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F95">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G95" t="str">
         <v/>
@@ -2454,7 +2454,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F96">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G96" t="str">
         <v/>
@@ -2477,7 +2477,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F97">
-        <v>120000</v>
+        <v>54600</v>
       </c>
       <c r="G97" t="str">
         <v/>
@@ -2500,7 +2500,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F98">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G98" t="str">
         <v/>
@@ -2523,7 +2523,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F99">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G99" t="str">
         <v/>
@@ -2546,7 +2546,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F100">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G100" t="str">
         <v/>
@@ -2569,7 +2569,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F101">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G101" t="str">
         <v/>
@@ -2592,7 +2592,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F102">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G102" t="str">
         <v/>
@@ -2615,7 +2615,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F103">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G103" t="str">
         <v/>
@@ -2638,7 +2638,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F104">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G104" t="str">
         <v/>
@@ -2661,7 +2661,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F105">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G105" t="str">
         <v/>
@@ -2684,7 +2684,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F106">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G106" t="str">
         <v/>
@@ -2707,7 +2707,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F107">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G107" t="str">
         <v/>
@@ -2730,7 +2730,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F108">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G108" t="str">
         <v/>
@@ -2753,7 +2753,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F109">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G109" t="str">
         <v/>
@@ -2776,7 +2776,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F110">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G110" t="str">
         <v/>
@@ -2799,7 +2799,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F111">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G111" t="str">
         <v/>
@@ -2822,7 +2822,7 @@
         <v xml:space="preserve">bt </v>
       </c>
       <c r="F112">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G112" t="str">
         <v/>
@@ -2845,7 +2845,7 @@
         <v xml:space="preserve">bt </v>
       </c>
       <c r="F113">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G113" t="str">
         <v/>
@@ -2868,7 +2868,7 @@
         <v xml:space="preserve">bt </v>
       </c>
       <c r="F114">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G114" t="str">
         <v/>
@@ -2891,7 +2891,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F115">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G115" t="str">
         <v/>
@@ -2914,7 +2914,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F116">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G116" t="str">
         <v/>
@@ -2937,7 +2937,7 @@
         <v xml:space="preserve">bt </v>
       </c>
       <c r="F117">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G117" t="str">
         <v/>
@@ -2960,7 +2960,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F118">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G118" t="str">
         <v/>
@@ -2983,7 +2983,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F119">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G119" t="str">
         <v/>
@@ -3006,7 +3006,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F120">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G120" t="str">
         <v/>
@@ -3029,7 +3029,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F121">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G121" t="str">
         <v/>
@@ -3052,7 +3052,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F122">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G122" t="str">
         <v/>
@@ -3075,7 +3075,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F123">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G123" t="str">
         <v/>
@@ -3098,7 +3098,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F124">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G124" t="str">
         <v/>
@@ -3121,7 +3121,7 @@
         <v xml:space="preserve">dos </v>
       </c>
       <c r="F125">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G125" t="str">
         <v/>
@@ -3144,7 +3144,7 @@
         <v xml:space="preserve">dos </v>
       </c>
       <c r="F126">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G126" t="str">
         <v/>
@@ -3167,7 +3167,7 @@
         <v xml:space="preserve">dos </v>
       </c>
       <c r="F127">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G127" t="str">
         <v/>
@@ -3190,7 +3190,7 @@
         <v xml:space="preserve">dos </v>
       </c>
       <c r="F128">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G128" t="str">
         <v/>
@@ -3213,7 +3213,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F129">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G129" t="str">
         <v/>
@@ -3236,7 +3236,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F130">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G130" t="str">
         <v/>
@@ -3259,7 +3259,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F131">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G131" t="str">
         <v/>
@@ -3282,7 +3282,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F132">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G132" t="str">
         <v/>
@@ -3305,7 +3305,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F133">
-        <v>120000</v>
+        <v>41000</v>
       </c>
       <c r="G133" t="str">
         <v/>
@@ -3328,7 +3328,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F134">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="G134" t="str">
         <v/>
@@ -3351,7 +3351,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F135">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G135" t="str">
         <v/>
@@ -3374,7 +3374,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F136">
-        <v>120000</v>
+        <v>55000</v>
       </c>
       <c r="G136" t="str">
         <v/>
@@ -3397,7 +3397,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F137">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G137" t="str">
         <v/>
@@ -3420,7 +3420,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F138">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G138" t="str">
         <v/>
@@ -3443,7 +3443,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F139">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G139" t="str">
         <v/>
@@ -3466,7 +3466,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F140">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G140" t="str">
         <v/>
@@ -3489,7 +3489,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F141">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G141" t="str">
         <v/>
@@ -3512,7 +3512,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F142">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G142" t="str">
         <v/>
@@ -3535,7 +3535,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F143">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G143" t="str">
         <v/>
@@ -3558,7 +3558,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F144">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="str">
         <v/>
@@ -3581,7 +3581,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F145">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G145" t="str">
         <v/>
@@ -3604,7 +3604,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F146">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G146" t="str">
         <v/>
@@ -3627,7 +3627,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F147">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G147" t="str">
         <v/>
@@ -3650,7 +3650,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F148">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G148" t="str">
         <v/>
@@ -3673,7 +3673,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F149">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="str">
         <v/>
@@ -3696,7 +3696,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F150">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G150" t="str">
         <v/>
@@ -3719,7 +3719,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F151">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G151" t="str">
         <v/>
@@ -3742,7 +3742,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F152">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G152" t="str">
         <v/>
@@ -3765,7 +3765,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F153">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G153" t="str">
         <v/>
@@ -3788,7 +3788,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F154">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G154" t="str">
         <v/>
@@ -3811,7 +3811,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F155">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G155" t="str">
         <v/>
@@ -3834,7 +3834,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F156">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="str">
         <v/>
@@ -3857,7 +3857,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F157">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="str">
         <v/>
@@ -3880,7 +3880,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F158">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G158" t="str">
         <v/>
@@ -3903,7 +3903,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F159">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G159" t="str">
         <v/>
@@ -3926,7 +3926,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F160">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G160" t="str">
         <v/>
@@ -3949,7 +3949,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F161">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G161" t="str">
         <v/>
@@ -3972,7 +3972,7 @@
         <v xml:space="preserve">btg/lonjor </v>
       </c>
       <c r="F162">
-        <v>120000</v>
+        <v>54000</v>
       </c>
       <c r="G162" t="str">
         <v/>
@@ -3995,7 +3995,7 @@
         <v xml:space="preserve">btg/lonjor </v>
       </c>
       <c r="F163">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="G163" t="str">
         <v/>
@@ -4018,7 +4018,7 @@
         <v xml:space="preserve">btg/lonjor </v>
       </c>
       <c r="F164">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G164" t="str">
         <v/>
@@ -4041,7 +4041,7 @@
         <v xml:space="preserve">btg/lonjor </v>
       </c>
       <c r="F165">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G165" t="str">
         <v/>
@@ -4064,7 +4064,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F166">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G166" t="str">
         <v/>
@@ -4087,7 +4087,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F167">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G167" t="str">
         <v/>
@@ -4110,7 +4110,7 @@
         <v>kg</v>
       </c>
       <c r="F168">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G168" t="str">
         <v/>
@@ -4133,7 +4133,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F169">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G169" t="str">
         <v/>
@@ -4156,7 +4156,7 @@
         <v>btg</v>
       </c>
       <c r="F170">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G170" t="str">
         <v/>
@@ -4179,7 +4179,7 @@
         <v>btg</v>
       </c>
       <c r="F171">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G171" t="str">
         <v/>
@@ -4202,7 +4202,7 @@
         <v>btg</v>
       </c>
       <c r="F172">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G172" t="str">
         <v/>
@@ -4225,7 +4225,7 @@
         <v>btg</v>
       </c>
       <c r="F173">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G173" t="str">
         <v/>
@@ -4248,7 +4248,7 @@
         <v>btg</v>
       </c>
       <c r="F174">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G174" t="str">
         <v/>
@@ -4271,7 +4271,7 @@
         <v>btg</v>
       </c>
       <c r="F175">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G175" t="str">
         <v/>
@@ -4294,7 +4294,7 @@
         <v>btg</v>
       </c>
       <c r="F176">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G176" t="str">
         <v/>
@@ -4317,7 +4317,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F177">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G177" t="str">
         <v/>
@@ -4340,7 +4340,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F178">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G178" t="str">
         <v/>
@@ -4363,7 +4363,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F179">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G179" t="str">
         <v/>
@@ -4386,7 +4386,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F180">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G180" t="str">
         <v/>
@@ -4409,7 +4409,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F181">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G181" t="str">
         <v/>
@@ -4432,7 +4432,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F182">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G182" t="str">
         <v/>
@@ -4455,7 +4455,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F183">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G183" t="str">
         <v/>
@@ -4478,7 +4478,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F184">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G184" t="str">
         <v/>
@@ -4501,7 +4501,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F185">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G185" t="str">
         <v/>
@@ -4524,7 +4524,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F186">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G186" t="str">
         <v/>
@@ -4547,7 +4547,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F187">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G187" t="str">
         <v/>
@@ -4570,7 +4570,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F188">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G188" t="str">
         <v/>
@@ -4593,7 +4593,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F189">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G189" t="str">
         <v/>
@@ -4616,7 +4616,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F190">
-        <v>120000</v>
+        <v>15000</v>
       </c>
       <c r="G190" t="str">
         <v/>
@@ -4639,7 +4639,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F191">
-        <v>120000</v>
+        <v>13000</v>
       </c>
       <c r="G191" t="str">
         <v/>
@@ -4662,7 +4662,7 @@
         <v xml:space="preserve">rol </v>
       </c>
       <c r="F192">
-        <v>120000</v>
+        <v>70000</v>
       </c>
       <c r="G192" t="str">
         <v/>
@@ -4685,7 +4685,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F193">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G193" t="str">
         <v/>
@@ -4708,7 +4708,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F194">
-        <v>120000</v>
+        <v>23000</v>
       </c>
       <c r="G194" t="str">
         <v/>
@@ -4731,7 +4731,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F195">
-        <v>120000</v>
+        <v>31000</v>
       </c>
       <c r="G195" t="str">
         <v/>
@@ -4754,7 +4754,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F196">
-        <v>120000</v>
+        <v>45000</v>
       </c>
       <c r="G196" t="str">
         <v/>
@@ -4777,7 +4777,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F197">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G197" t="str">
         <v/>
@@ -4800,7 +4800,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F198">
-        <v>120000</v>
+        <v>62000</v>
       </c>
       <c r="G198" t="str">
         <v/>
@@ -4823,7 +4823,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F199">
-        <v>120000</v>
+        <v>79000</v>
       </c>
       <c r="G199" t="str">
         <v/>
@@ -4846,7 +4846,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F200">
-        <v>120000</v>
+        <v>108000</v>
       </c>
       <c r="G200" t="str">
         <v/>
@@ -4869,7 +4869,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F201">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G201" t="str">
         <v/>
@@ -4892,7 +4892,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F202">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G202" t="str">
         <v/>
@@ -4915,7 +4915,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F203">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G203" t="str">
         <v/>
@@ -4938,7 +4938,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F204">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G204" t="str">
         <v/>
@@ -4961,7 +4961,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F205">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G205" t="str">
         <v/>
@@ -4984,7 +4984,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F206">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G206" t="str">
         <v/>
@@ -5007,7 +5007,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F207">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G207" t="str">
         <v/>
@@ -5030,7 +5030,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F208">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G208" t="str">
         <v/>
@@ -5053,7 +5053,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F209">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G209" t="str">
         <v/>
@@ -5076,7 +5076,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F210">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G210" t="str">
         <v/>
@@ -5099,7 +5099,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F211">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G211" t="str">
         <v/>
@@ -5122,7 +5122,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F212">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G212" t="str">
         <v/>
@@ -5145,7 +5145,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F213">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G213" t="str">
         <v/>
@@ -5168,7 +5168,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F214">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G214" t="str">
         <v/>
@@ -5191,7 +5191,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F215">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G215" t="str">
         <v/>
@@ -5214,7 +5214,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F216">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G216" t="str">
         <v/>
@@ -5237,7 +5237,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F217">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G217" t="str">
         <v/>
@@ -5260,7 +5260,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F218">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G218" t="str">
         <v/>
@@ -5283,7 +5283,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F219">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G219" t="str">
         <v/>
@@ -5306,7 +5306,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F220">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G220" t="str">
         <v/>
@@ -5329,7 +5329,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F221">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G221" t="str">
         <v/>
@@ -5352,7 +5352,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F222">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G222" t="str">
         <v/>
@@ -5375,7 +5375,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F223">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G223" t="str">
         <v/>
@@ -5398,7 +5398,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F224">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G224" t="str">
         <v/>
@@ -5421,7 +5421,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F225">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G225" t="str">
         <v/>
@@ -5444,7 +5444,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F226">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G226" t="str">
         <v/>
@@ -5467,7 +5467,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F227">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G227" t="str">
         <v/>
@@ -5490,7 +5490,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F228">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G228" t="str">
         <v/>
@@ -5513,7 +5513,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F229">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G229" t="str">
         <v/>
@@ -5536,7 +5536,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F230">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G230" t="str">
         <v/>
@@ -5559,7 +5559,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F231">
-        <v>120000</v>
+        <v>49000</v>
       </c>
       <c r="G231" t="str">
         <v/>
@@ -5582,7 +5582,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F232">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="G232" t="str">
         <v/>
@@ -5605,7 +5605,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F233">
-        <v>120000</v>
+        <v>74000</v>
       </c>
       <c r="G233" t="str">
         <v/>
@@ -5628,7 +5628,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F234">
-        <v>120000</v>
+        <v>94000</v>
       </c>
       <c r="G234" t="str">
         <v/>
@@ -5651,7 +5651,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F235">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="G235" t="str">
         <v/>
@@ -5674,7 +5674,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F236">
-        <v>120000</v>
+        <v>225000</v>
       </c>
       <c r="G236" t="str">
         <v/>
@@ -5697,7 +5697,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F237">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="G237" t="str">
         <v/>
@@ -5720,7 +5720,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F238">
-        <v>120000</v>
+        <v>95000</v>
       </c>
       <c r="G238" t="str">
         <v/>
@@ -5743,7 +5743,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F239">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="G239" t="str">
         <v/>
@@ -5766,7 +5766,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F240">
-        <v>120000</v>
+        <v>32000</v>
       </c>
       <c r="G240" t="str">
         <v/>
@@ -5789,7 +5789,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F241">
-        <v>120000</v>
+        <v>12000</v>
       </c>
       <c r="G241" t="str">
         <v/>
@@ -5812,7 +5812,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F242">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G242" t="str">
         <v/>
@@ -5835,7 +5835,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F243">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G243" t="str">
         <v/>
@@ -5858,7 +5858,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F244">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G244" t="str">
         <v/>
@@ -5881,7 +5881,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F245">
-        <v>120000</v>
+        <v>62000</v>
       </c>
       <c r="G245" t="str">
         <v/>
@@ -5904,7 +5904,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F246">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G246" t="str">
         <v/>
@@ -5927,7 +5927,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F247">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G247" t="str">
         <v/>
@@ -5950,7 +5950,7 @@
         <v xml:space="preserve">ons </v>
       </c>
       <c r="F248">
-        <v>120000</v>
+        <v>7000</v>
       </c>
       <c r="G248" t="str">
         <v/>
@@ -5973,7 +5973,7 @@
         <v xml:space="preserve">ltr </v>
       </c>
       <c r="F249">
-        <v>120000</v>
+        <v>9000</v>
       </c>
       <c r="G249" t="str">
         <v/>
@@ -5996,7 +5996,7 @@
         <v xml:space="preserve">ltr </v>
       </c>
       <c r="F250">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="G250" t="str">
         <v/>
@@ -6019,7 +6019,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F251">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G251" t="str">
         <v/>
@@ -6042,7 +6042,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F252">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G252" t="str">
         <v/>
@@ -6065,7 +6065,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F253">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G253" t="str">
         <v/>
@@ -6088,7 +6088,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F254">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G254" t="str">
         <v/>
@@ -6111,7 +6111,7 @@
         <v xml:space="preserve">5 kg </v>
       </c>
       <c r="F255">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G255" t="str">
         <v/>
@@ -6134,7 +6134,7 @@
         <v xml:space="preserve">5 kg </v>
       </c>
       <c r="F256">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G256" t="str">
         <v/>
@@ -6157,7 +6157,7 @@
         <v xml:space="preserve">5 kg </v>
       </c>
       <c r="F257">
-        <v>120000</v>
+        <v>125000</v>
       </c>
       <c r="G257" t="str">
         <v/>
@@ -6180,7 +6180,7 @@
         <v xml:space="preserve">2,50 kg </v>
       </c>
       <c r="F258">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G258" t="str">
         <v/>
@@ -6203,7 +6203,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F259">
-        <v>120000</v>
+        <v>35000</v>
       </c>
       <c r="G259" t="str">
         <v/>
@@ -6226,7 +6226,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F260">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G260" t="str">
         <v/>
@@ -6249,7 +6249,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F261">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G261" t="str">
         <v/>
@@ -6272,7 +6272,7 @@
         <v xml:space="preserve">ltr </v>
       </c>
       <c r="F262">
-        <v>120000</v>
+        <v>10000</v>
       </c>
       <c r="G262" t="str">
         <v/>
@@ -6295,7 +6295,7 @@
         <v xml:space="preserve">ltr </v>
       </c>
       <c r="F263">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G263" t="str">
         <v/>
@@ -6318,7 +6318,7 @@
         <v xml:space="preserve">ltr </v>
       </c>
       <c r="F264">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G264" t="str">
         <v/>
@@ -6341,7 +6341,7 @@
         <v xml:space="preserve">drum </v>
       </c>
       <c r="F265">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G265" t="str">
         <v/>
@@ -6364,7 +6364,7 @@
         <v/>
       </c>
       <c r="F266">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G266" t="str">
         <v/>
@@ -6387,7 +6387,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F267">
-        <v>120000</v>
+        <v>1100000</v>
       </c>
       <c r="G267" t="str">
         <v/>
@@ -6410,7 +6410,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F268">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G268" t="str">
         <v/>
@@ -6433,7 +6433,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F269">
-        <v>120000</v>
+        <v>49000</v>
       </c>
       <c r="G269" t="str">
         <v/>
@@ -6456,7 +6456,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F270">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G270" t="str">
         <v/>
@@ -6479,7 +6479,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F271">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G271" t="str">
         <v/>
@@ -6502,7 +6502,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F272">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G272" t="str">
         <v/>
@@ -6525,7 +6525,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F273">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G273" t="str">
         <v/>
@@ -6548,7 +6548,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F274">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G274" t="str">
         <v/>
@@ -6571,7 +6571,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F275">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G275" t="str">
         <v/>
@@ -6594,7 +6594,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F276">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G276" t="str">
         <v/>
@@ -6617,7 +6617,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F277">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G277" t="str">
         <v/>
@@ -6640,7 +6640,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F278">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G278" t="str">
         <v/>
@@ -6663,7 +6663,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F279">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G279" t="str">
         <v/>
@@ -6686,7 +6686,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F280">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G280" t="str">
         <v/>
@@ -6709,7 +6709,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F281">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G281" t="str">
         <v/>
@@ -6732,7 +6732,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F282">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G282" t="str">
         <v/>
@@ -6755,7 +6755,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F283">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G283" t="str">
         <v/>
@@ -6778,7 +6778,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F284">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G284" t="str">
         <v/>
@@ -6801,7 +6801,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F285">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G285" t="str">
         <v/>
@@ -6824,7 +6824,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F286">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G286" t="str">
         <v/>
@@ -6847,7 +6847,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F287">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G287" t="str">
         <v/>
@@ -6870,7 +6870,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F288">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G288" t="str">
         <v/>
@@ -6893,7 +6893,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F289">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G289" t="str">
         <v/>
@@ -6916,7 +6916,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F290">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G290" t="str">
         <v/>
@@ -6939,7 +6939,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F291">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G291" t="str">
         <v/>
@@ -6962,7 +6962,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F292">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G292" t="str">
         <v/>
@@ -6985,7 +6985,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F293">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G293" t="str">
         <v/>
@@ -7008,7 +7008,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F294">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G294" t="str">
         <v/>
@@ -7031,7 +7031,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F295">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G295" t="str">
         <v/>
@@ -7054,7 +7054,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F296">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G296" t="str">
         <v/>
@@ -7077,7 +7077,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F297">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G297" t="str">
         <v/>
@@ -7100,7 +7100,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F298">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G298" t="str">
         <v/>
@@ -7123,7 +7123,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F299">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G299" t="str">
         <v/>
@@ -7146,7 +7146,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F300">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G300" t="str">
         <v/>
@@ -7169,7 +7169,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F301">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G301" t="str">
         <v/>
@@ -7192,7 +7192,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F302">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G302" t="str">
         <v/>
@@ -7215,7 +7215,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F303">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G303" t="str">
         <v/>
@@ -7238,7 +7238,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F304">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G304" t="str">
         <v/>
@@ -7261,7 +7261,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F305">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G305" t="str">
         <v/>
@@ -7284,7 +7284,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F306">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G306" t="str">
         <v/>
@@ -7307,7 +7307,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F307">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G307" t="str">
         <v/>
@@ -7330,7 +7330,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F308">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G308" t="str">
         <v/>
@@ -7353,7 +7353,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F309">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G309" t="str">
         <v/>
@@ -7376,7 +7376,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F310">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G310" t="str">
         <v/>
@@ -7399,7 +7399,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F311">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G311" t="str">
         <v/>
@@ -7422,7 +7422,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F312">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G312" t="str">
         <v/>
@@ -7445,7 +7445,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F313">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G313" t="str">
         <v/>
@@ -7468,7 +7468,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F314">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G314" t="str">
         <v/>
@@ -7491,7 +7491,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F315">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G315" t="str">
         <v/>
@@ -7514,7 +7514,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F316">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G316" t="str">
         <v/>
@@ -7537,7 +7537,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F317">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G317" t="str">
         <v/>
@@ -7560,7 +7560,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F318">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G318" t="str">
         <v/>
@@ -7583,7 +7583,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F319">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G319" t="str">
         <v/>
@@ -7606,7 +7606,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F320">
-        <v>120000</v>
+        <v>12000</v>
       </c>
       <c r="G320" t="str">
         <v/>
@@ -7629,7 +7629,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F321">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G321" t="str">
         <v/>
@@ -7652,7 +7652,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F322">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G322" t="str">
         <v/>
@@ -7675,7 +7675,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F323">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G323" t="str">
         <v/>
@@ -7698,7 +7698,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F324">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G324" t="str">
         <v/>
@@ -7721,7 +7721,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F325">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G325" t="str">
         <v/>
@@ -7744,7 +7744,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F326">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G326" t="str">
         <v/>
@@ -7767,7 +7767,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F327">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G327" t="str">
         <v/>
@@ -7790,7 +7790,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F328">
-        <v>120000</v>
+        <v>1250000</v>
       </c>
       <c r="G328" t="str">
         <v/>
@@ -7813,7 +7813,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F329">
-        <v>120000</v>
+        <v>210000</v>
       </c>
       <c r="G329" t="str">
         <v/>
@@ -7836,7 +7836,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F330">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G330" t="str">
         <v/>
@@ -7859,7 +7859,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F331">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G331" t="str">
         <v/>
@@ -7882,7 +7882,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F332">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G332" t="str">
         <v/>
@@ -7905,7 +7905,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F333">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G333" t="str">
         <v/>
@@ -7928,7 +7928,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F334">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G334" t="str">
         <v/>
@@ -7951,7 +7951,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F335">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G335" t="str">
         <v/>
@@ -7974,7 +7974,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F336">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G336" t="str">
         <v/>
@@ -7997,7 +7997,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F337">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G337" t="str">
         <v/>
@@ -8020,7 +8020,7 @@
         <v>bh</v>
       </c>
       <c r="F338">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G338" t="str">
         <v/>
@@ -8043,7 +8043,7 @@
         <v>bh</v>
       </c>
       <c r="F339">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G339" t="str">
         <v/>
@@ -8066,7 +8066,7 @@
         <v>bh</v>
       </c>
       <c r="F340">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G340" t="str">
         <v/>
@@ -8089,7 +8089,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F341">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G341" t="str">
         <v/>
@@ -8112,7 +8112,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F342">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G342" t="str">
         <v/>
@@ -8135,7 +8135,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F343">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G343" t="str">
         <v/>
@@ -8158,7 +8158,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F344">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G344" t="str">
         <v/>
@@ -8181,7 +8181,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F345">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G345" t="str">
         <v/>
@@ -8204,7 +8204,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F346">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G346" t="str">
         <v/>
@@ -8227,7 +8227,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F347">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G347" t="str">
         <v/>
@@ -8250,7 +8250,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F348">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G348" t="str">
         <v/>
@@ -8273,7 +8273,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F349">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G349" t="str">
         <v/>
@@ -8296,7 +8296,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F350">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G350" t="str">
         <v/>
@@ -8319,7 +8319,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F351">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G351" t="str">
         <v/>
@@ -8342,7 +8342,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F352">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G352" t="str">
         <v/>
@@ -8365,7 +8365,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F353">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G353" t="str">
         <v/>
@@ -8388,7 +8388,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F354">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G354" t="str">
         <v/>
@@ -8411,7 +8411,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F355">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G355" t="str">
         <v/>
@@ -8434,7 +8434,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F356">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G356" t="str">
         <v/>
@@ -8457,7 +8457,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F357">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G357" t="str">
         <v/>
@@ -8480,7 +8480,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F358">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G358" t="str">
         <v/>
@@ -8503,7 +8503,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F359">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G359" t="str">
         <v/>
@@ -8526,7 +8526,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F360">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G360" t="str">
         <v/>
@@ -8549,7 +8549,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F361">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G361" t="str">
         <v/>
@@ -8572,7 +8572,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F362">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G362" t="str">
         <v/>
@@ -8595,7 +8595,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F363">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G363" t="str">
         <v/>
@@ -8618,7 +8618,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F364">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G364" t="str">
         <v/>
@@ -8641,7 +8641,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F365">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G365" t="str">
         <v/>
@@ -8664,7 +8664,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F366">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G366" t="str">
         <v/>
@@ -8687,7 +8687,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F367">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G367" t="str">
         <v/>
@@ -8710,7 +8710,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F368">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G368" t="str">
         <v/>
@@ -8733,7 +8733,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F369">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G369" t="str">
         <v/>
@@ -8756,7 +8756,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F370">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G370" t="str">
         <v/>
@@ -8779,7 +8779,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F371">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G371" t="str">
         <v/>
@@ -8802,7 +8802,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F372">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G372" t="str">
         <v/>
@@ -8825,7 +8825,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F373">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G373" t="str">
         <v/>
@@ -8848,7 +8848,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F374">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G374" t="str">
         <v/>
@@ -8871,7 +8871,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F375">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G375" t="str">
         <v/>
@@ -8894,7 +8894,7 @@
         <v xml:space="preserve">drum </v>
       </c>
       <c r="F376">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G376" t="str">
         <v/>
@@ -8917,7 +8917,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F377">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G377" t="str">
         <v/>
@@ -8940,7 +8940,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F378">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G378" t="str">
         <v/>
@@ -8963,7 +8963,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F379">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G379" t="str">
         <v/>
@@ -8986,7 +8986,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F380">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G380" t="str">
         <v/>
@@ -9009,7 +9009,7 @@
         <v xml:space="preserve">ton </v>
       </c>
       <c r="F381">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G381" t="str">
         <v/>
@@ -9032,7 +9032,7 @@
         <v xml:space="preserve">ton </v>
       </c>
       <c r="F382">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G382" t="str">
         <v/>
@@ -9055,7 +9055,7 @@
         <v xml:space="preserve">ton </v>
       </c>
       <c r="F383">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G383" t="str">
         <v/>
@@ -9078,7 +9078,7 @@
         <v xml:space="preserve">ton </v>
       </c>
       <c r="F384">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G384" t="str">
         <v/>
@@ -9101,7 +9101,7 @@
         <v xml:space="preserve">ton </v>
       </c>
       <c r="F385">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G385" t="str">
         <v/>
@@ -9124,7 +9124,7 @@
         <v xml:space="preserve">ton </v>
       </c>
       <c r="F386">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G386" t="str">
         <v/>
@@ -9147,7 +9147,7 @@
         <v xml:space="preserve">liter </v>
       </c>
       <c r="F387">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G387" t="str">
         <v/>
@@ -9170,7 +9170,7 @@
         <v xml:space="preserve">liter </v>
       </c>
       <c r="F388">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G388" t="str">
         <v/>
@@ -9193,7 +9193,7 @@
         <v xml:space="preserve">liter </v>
       </c>
       <c r="F389">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G389" t="str">
         <v/>
@@ -9216,7 +9216,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F390">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G390" t="str">
         <v/>
@@ -9239,7 +9239,7 @@
         <v xml:space="preserve">/lb </v>
       </c>
       <c r="F391">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G391" t="str">
         <v/>
@@ -9262,7 +9262,7 @@
         <v xml:space="preserve">/lb </v>
       </c>
       <c r="F392">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G392" t="str">
         <v/>
@@ -9285,7 +9285,7 @@
         <v xml:space="preserve">ltr </v>
       </c>
       <c r="F393">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G393" t="str">
         <v/>
@@ -9308,7 +9308,7 @@
         <v>m2</v>
       </c>
       <c r="F394">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G394" t="str">
         <v/>
@@ -9331,7 +9331,7 @@
         <v>m2</v>
       </c>
       <c r="F395">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G395" t="str">
         <v/>
@@ -9354,7 +9354,7 @@
         <v>m2</v>
       </c>
       <c r="F396">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G396" t="str">
         <v/>
@@ -9377,7 +9377,7 @@
         <v>kg</v>
       </c>
       <c r="F397">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G397" t="str">
         <v/>
@@ -9400,7 +9400,7 @@
         <v>kg</v>
       </c>
       <c r="F398">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G398" t="str">
         <v/>
@@ -9423,7 +9423,7 @@
         <v>m3</v>
       </c>
       <c r="F399">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G399" t="str">
         <v/>
@@ -9446,7 +9446,7 @@
         <v>ikat</v>
       </c>
       <c r="F400">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G400" t="str">
         <v/>
@@ -9469,7 +9469,7 @@
         <v xml:space="preserve">ltr </v>
       </c>
       <c r="F401">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G401" t="str">
         <v/>
@@ -9492,7 +9492,7 @@
         <v xml:space="preserve">ltr </v>
       </c>
       <c r="F402">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G402" t="str">
         <v/>
@@ -9515,7 +9515,7 @@
         <v xml:space="preserve">ltr </v>
       </c>
       <c r="F403">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G403" t="str">
         <v/>
@@ -9538,7 +9538,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F404">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G404" t="str">
         <v/>
@@ -9561,7 +9561,7 @@
         <v>OH</v>
       </c>
       <c r="F405">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="G405" t="str">
         <v/>
@@ -9584,7 +9584,7 @@
         <v>OH</v>
       </c>
       <c r="F406">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="G406" t="str">
         <v/>
@@ -9607,7 +9607,7 @@
         <v>OH</v>
       </c>
       <c r="F407">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="G407" t="str">
         <v/>
@@ -9630,7 +9630,7 @@
         <v>OH</v>
       </c>
       <c r="F408">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="G408" t="str">
         <v/>
@@ -9653,7 +9653,7 @@
         <v>OH</v>
       </c>
       <c r="F409">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="G409" t="str">
         <v/>
@@ -9676,7 +9676,7 @@
         <v>OH</v>
       </c>
       <c r="F410">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="G410" t="str">
         <v/>
@@ -9699,7 +9699,7 @@
         <v>OH</v>
       </c>
       <c r="F411">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="G411" t="str">
         <v/>
@@ -9722,7 +9722,7 @@
         <v>OH</v>
       </c>
       <c r="F412">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="G412" t="str">
         <v/>
@@ -9745,7 +9745,7 @@
         <v>OH</v>
       </c>
       <c r="F413">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G413" t="str">
         <v/>
@@ -9768,7 +9768,7 @@
         <v>OH</v>
       </c>
       <c r="F414">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G414" t="str">
         <v/>
@@ -9791,7 +9791,7 @@
         <v>OH</v>
       </c>
       <c r="F415">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G415" t="str">
         <v/>
@@ -9814,7 +9814,7 @@
         <v>OH</v>
       </c>
       <c r="F416">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G416" t="str">
         <v/>
@@ -9837,7 +9837,7 @@
         <v>OH</v>
       </c>
       <c r="F417">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G417" t="str">
         <v/>
@@ -9860,7 +9860,7 @@
         <v>OH</v>
       </c>
       <c r="F418">
-        <v>120000</v>
+        <v>75000</v>
       </c>
       <c r="G418" t="str">
         <v/>
@@ -9883,7 +9883,7 @@
         <v>OH</v>
       </c>
       <c r="F419">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G419" t="str">
         <v/>
@@ -9906,7 +9906,7 @@
         <v>OH</v>
       </c>
       <c r="F420">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G420" t="str">
         <v/>
@@ -9929,7 +9929,7 @@
         <v>OH</v>
       </c>
       <c r="F421">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G421" t="str">
         <v/>
@@ -9952,7 +9952,7 @@
         <v>OH</v>
       </c>
       <c r="F422">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G422" t="str">
         <v/>
@@ -9975,7 +9975,7 @@
         <v>OH</v>
       </c>
       <c r="F423">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G423" t="str">
         <v/>
@@ -9998,7 +9998,7 @@
         <v>OH</v>
       </c>
       <c r="F424">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G424" t="str">
         <v/>
@@ -10021,7 +10021,7 @@
         <v>OH</v>
       </c>
       <c r="F425">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G425" t="str">
         <v/>
@@ -10044,7 +10044,7 @@
         <v>OH</v>
       </c>
       <c r="F426">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G426" t="str">
         <v/>
@@ -10067,7 +10067,7 @@
         <v>OH</v>
       </c>
       <c r="F427">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G427" t="str">
         <v/>
@@ -10090,7 +10090,7 @@
         <v>OH</v>
       </c>
       <c r="F428">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G428" t="str">
         <v/>
@@ -10113,7 +10113,7 @@
         <v>OH</v>
       </c>
       <c r="F429">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G429" t="str">
         <v/>
@@ -10136,7 +10136,7 @@
         <v>OH</v>
       </c>
       <c r="F430">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G430" t="str">
         <v/>
@@ -10159,7 +10159,7 @@
         <v>OH</v>
       </c>
       <c r="F431">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G431" t="str">
         <v/>
@@ -10182,7 +10182,7 @@
         <v>OH</v>
       </c>
       <c r="F432">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G432" t="str">
         <v/>
@@ -10205,7 +10205,7 @@
         <v>OH</v>
       </c>
       <c r="F433">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G433" t="str">
         <v/>
@@ -10228,7 +10228,7 @@
         <v>Jam</v>
       </c>
       <c r="F434">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G434" t="str">
         <v/>
@@ -10251,7 +10251,7 @@
         <v>Jam</v>
       </c>
       <c r="F435">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G435" t="str">
         <v/>
@@ -10274,7 +10274,7 @@
         <v>Jam</v>
       </c>
       <c r="F436">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G436" t="str">
         <v/>
@@ -10297,7 +10297,7 @@
         <v>Jam</v>
       </c>
       <c r="F437">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G437" t="str">
         <v/>
@@ -10320,7 +10320,7 @@
         <v>Jam</v>
       </c>
       <c r="F438">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G438" t="str">
         <v/>
@@ -10343,7 +10343,7 @@
         <v>Jam</v>
       </c>
       <c r="F439">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G439" t="str">
         <v/>
@@ -10366,7 +10366,7 @@
         <v>Jam</v>
       </c>
       <c r="F440">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G440" t="str">
         <v/>
@@ -10389,7 +10389,7 @@
         <v>Jam</v>
       </c>
       <c r="F441">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G441" t="str">
         <v/>
@@ -10412,7 +10412,7 @@
         <v>Jam</v>
       </c>
       <c r="F442">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G442" t="str">
         <v/>
@@ -10435,7 +10435,7 @@
         <v>jam</v>
       </c>
       <c r="F443">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G443" t="str">
         <v/>
@@ -10458,7 +10458,7 @@
         <v>Jam</v>
       </c>
       <c r="F444">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G444" t="str">
         <v/>
@@ -10481,7 +10481,7 @@
         <v>Jam</v>
       </c>
       <c r="F445">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G445" t="str">
         <v/>
@@ -10504,7 +10504,7 @@
         <v>jam</v>
       </c>
       <c r="F446">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G446" t="str">
         <v/>
@@ -10527,7 +10527,7 @@
         <v>Jam</v>
       </c>
       <c r="F447">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G447" t="str">
         <v/>
@@ -10550,7 +10550,7 @@
         <v>jam</v>
       </c>
       <c r="F448">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G448" t="str">
         <v/>
@@ -10573,7 +10573,7 @@
         <v>Jam</v>
       </c>
       <c r="F449">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G449" t="str">
         <v/>
@@ -10596,7 +10596,7 @@
         <v>Jam</v>
       </c>
       <c r="F450">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G450" t="str">
         <v/>
@@ -10619,7 +10619,7 @@
         <v>Jam</v>
       </c>
       <c r="F451">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G451" t="str">
         <v/>
@@ -10642,7 +10642,7 @@
         <v>Jam</v>
       </c>
       <c r="F452">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G452" t="str">
         <v/>
@@ -10665,7 +10665,7 @@
         <v>Jam</v>
       </c>
       <c r="F453">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G453" t="str">
         <v/>
@@ -10688,7 +10688,7 @@
         <v>Jam</v>
       </c>
       <c r="F454">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G454" t="str">
         <v/>
@@ -10711,7 +10711,7 @@
         <v>Jam</v>
       </c>
       <c r="F455">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G455" t="str">
         <v/>
@@ -10734,7 +10734,7 @@
         <v>Jam</v>
       </c>
       <c r="F456">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G456" t="str">
         <v/>
@@ -10757,7 +10757,7 @@
         <v>jam</v>
       </c>
       <c r="F457">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G457" t="str">
         <v/>
@@ -10780,7 +10780,7 @@
         <v>Jam</v>
       </c>
       <c r="F458">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G458" t="str">
         <v/>
@@ -10803,7 +10803,7 @@
         <v>Jam</v>
       </c>
       <c r="F459">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G459" t="str">
         <v/>
@@ -10826,7 +10826,7 @@
         <v>Jam</v>
       </c>
       <c r="F460">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G460" t="str">
         <v/>
@@ -10849,7 +10849,7 @@
         <v>jam</v>
       </c>
       <c r="F461">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G461" t="str">
         <v/>
@@ -10872,7 +10872,7 @@
         <v>jam</v>
       </c>
       <c r="F462">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G462" t="str">
         <v/>
@@ -10895,7 +10895,7 @@
         <v xml:space="preserve">trip </v>
       </c>
       <c r="F463">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G463" t="str">
         <v/>
@@ -10918,7 +10918,7 @@
         <v>OH</v>
       </c>
       <c r="F464">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G464" t="str">
         <v/>
@@ -10941,7 +10941,7 @@
         <v>btg</v>
       </c>
       <c r="F465">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G465" t="str">
         <v/>
@@ -10964,7 +10964,7 @@
         <v>lbr</v>
       </c>
       <c r="F466">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G466" t="str">
         <v/>
@@ -10987,7 +10987,7 @@
         <v>m3</v>
       </c>
       <c r="F467">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G467" t="str">
         <v/>
@@ -11010,7 +11010,7 @@
         <v>m3</v>
       </c>
       <c r="F468">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G468" t="str">
         <v/>
@@ -11033,7 +11033,7 @@
         <v>m3</v>
       </c>
       <c r="F469">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G469" t="str">
         <v/>
@@ -11056,7 +11056,7 @@
         <v>kg</v>
       </c>
       <c r="F470">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G470" t="str">
         <v/>
@@ -11079,7 +11079,7 @@
         <v>m</v>
       </c>
       <c r="F471">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G471" t="str">
         <v/>
@@ -11102,7 +11102,7 @@
         <v>m</v>
       </c>
       <c r="F472">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G472" t="str">
         <v/>
@@ -11125,7 +11125,7 @@
         <v>m</v>
       </c>
       <c r="F473">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G473" t="str">
         <v/>
@@ -11148,7 +11148,7 @@
         <v>OH</v>
       </c>
       <c r="F474">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G474" t="str">
         <v/>
@@ -11171,7 +11171,7 @@
         <v>OH</v>
       </c>
       <c r="F475">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G475" t="str">
         <v/>
@@ -11194,7 +11194,7 @@
         <v>bh/hr</v>
       </c>
       <c r="F476">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G476" t="str">
         <v/>
@@ -11217,7 +11217,7 @@
         <v>Jam</v>
       </c>
       <c r="F477">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G477" t="str">
         <v/>
@@ -11240,7 +11240,7 @@
         <v>kg</v>
       </c>
       <c r="F478">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G478" t="str">
         <v/>
@@ -11263,7 +11263,7 @@
         <v>kg</v>
       </c>
       <c r="F479">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G479" t="str">
         <v/>
@@ -11286,7 +11286,7 @@
         <v>m3</v>
       </c>
       <c r="F480">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G480" t="str">
         <v/>
@@ -11309,7 +11309,7 @@
         <v>kg</v>
       </c>
       <c r="F481">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G481" t="str">
         <v/>
@@ -11332,7 +11332,7 @@
         <v>ltr</v>
       </c>
       <c r="F482">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G482" t="str">
         <v/>
@@ -11355,7 +11355,7 @@
         <v>m2</v>
       </c>
       <c r="F483">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G483" t="str">
         <v/>
@@ -11378,7 +11378,7 @@
         <v>m</v>
       </c>
       <c r="F484">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G484" t="str">
         <v/>
@@ -11401,7 +11401,7 @@
         <v>bh</v>
       </c>
       <c r="F485">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G485" t="str">
         <v/>
@@ -11424,7 +11424,7 @@
         <v>tube</v>
       </c>
       <c r="F486">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G486" t="str">
         <v/>
@@ -11447,7 +11447,7 @@
         <v>m</v>
       </c>
       <c r="F487">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G487" t="str">
         <v/>
@@ -11470,7 +11470,7 @@
         <v>m</v>
       </c>
       <c r="F488">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G488" t="str">
         <v/>
@@ -11493,7 +11493,7 @@
         <v>m</v>
       </c>
       <c r="F489">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G489" t="str">
         <v/>
@@ -11516,7 +11516,7 @@
         <v>m3</v>
       </c>
       <c r="F490">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G490" t="str">
         <v/>
@@ -11539,7 +11539,7 @@
         <v>m3</v>
       </c>
       <c r="F491">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G491" t="str">
         <v/>
@@ -11562,7 +11562,7 @@
         <v>m3</v>
       </c>
       <c r="F492">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G492" t="str">
         <v/>
@@ -11585,7 +11585,7 @@
         <v>m3</v>
       </c>
       <c r="F493">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G493" t="str">
         <v/>
@@ -11608,7 +11608,7 @@
         <v>m3</v>
       </c>
       <c r="F494">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G494" t="str">
         <v/>
@@ -11631,7 +11631,7 @@
         <v>m2</v>
       </c>
       <c r="F495">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G495" t="str">
         <v/>
@@ -11654,7 +11654,7 @@
         <v>m2</v>
       </c>
       <c r="F496">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G496" t="str">
         <v/>
@@ -11677,7 +11677,7 @@
         <v>m2</v>
       </c>
       <c r="F497">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G497" t="str">
         <v/>
@@ -11700,7 +11700,7 @@
         <v>kg</v>
       </c>
       <c r="F498">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G498" t="str">
         <v/>
@@ -11723,7 +11723,7 @@
         <v>bh</v>
       </c>
       <c r="F499">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G499" t="str">
         <v/>
@@ -11746,7 +11746,7 @@
         <v>bh</v>
       </c>
       <c r="F500">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G500" t="str">
         <v/>
@@ -11769,7 +11769,7 @@
         <v>lbr</v>
       </c>
       <c r="F501">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G501" t="str">
         <v/>
@@ -11792,7 +11792,7 @@
         <v>kg</v>
       </c>
       <c r="F502">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G502" t="str">
         <v/>
@@ -11815,7 +11815,7 @@
         <v>m3</v>
       </c>
       <c r="F503">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G503" t="str">
         <v/>
@@ -11838,7 +11838,7 @@
         <v>Jam</v>
       </c>
       <c r="F504">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G504" t="str">
         <v/>
@@ -11861,7 +11861,7 @@
         <v>kg</v>
       </c>
       <c r="F505">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G505" t="str">
         <v/>
@@ -11884,7 +11884,7 @@
         <v>cm</v>
       </c>
       <c r="F506">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G506" t="str">
         <v/>
@@ -11907,7 +11907,7 @@
         <v>m</v>
       </c>
       <c r="F507">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G507" t="str">
         <v/>
@@ -11930,7 +11930,7 @@
         <v>m</v>
       </c>
       <c r="F508">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G508" t="str">
         <v/>
@@ -11953,7 +11953,7 @@
         <v>m2</v>
       </c>
       <c r="F509">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G509" t="str">
         <v/>
@@ -11976,7 +11976,7 @@
         <v>m</v>
       </c>
       <c r="F510">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G510" t="str">
         <v/>
@@ -11999,7 +11999,7 @@
         <v>Ls</v>
       </c>
       <c r="F511">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G511" t="str">
         <v/>
@@ -12022,7 +12022,7 @@
         <v>%</v>
       </c>
       <c r="F512">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G512" t="str">
         <v/>
@@ -12045,7 +12045,7 @@
         <v>m3</v>
       </c>
       <c r="F513">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G513" t="str">
         <v/>
@@ -12068,7 +12068,7 @@
         <v>kg</v>
       </c>
       <c r="F514">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G514" t="str">
         <v/>
@@ -12091,7 +12091,7 @@
         <v>m3</v>
       </c>
       <c r="F515">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G515" t="str">
         <v/>
@@ -12114,7 +12114,7 @@
         <v>kg</v>
       </c>
       <c r="F516">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G516" t="str">
         <v/>
@@ -12137,7 +12137,7 @@
         <v>kg</v>
       </c>
       <c r="F517">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G517" t="str">
         <v/>
@@ -12160,7 +12160,7 @@
         <v>bh</v>
       </c>
       <c r="F518">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G518" t="str">
         <v/>
@@ -12183,7 +12183,7 @@
         <v>bh</v>
       </c>
       <c r="F519">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G519" t="str">
         <v/>
@@ -12206,7 +12206,7 @@
         <v>bh</v>
       </c>
       <c r="F520">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G520" t="str">
         <v/>
@@ -12229,7 +12229,7 @@
         <v>bh</v>
       </c>
       <c r="F521">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G521" t="str">
         <v/>
@@ -12252,7 +12252,7 @@
         <v>bh</v>
       </c>
       <c r="F522">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G522" t="str">
         <v/>
@@ -12275,7 +12275,7 @@
         <v>bh</v>
       </c>
       <c r="F523">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G523" t="str">
         <v/>
@@ -12298,7 +12298,7 @@
         <v>bh</v>
       </c>
       <c r="F524">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G524" t="str">
         <v/>
@@ -12321,7 +12321,7 @@
         <v/>
       </c>
       <c r="F525">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G525" t="str">
         <v/>
@@ -12344,7 +12344,7 @@
         <v>bh</v>
       </c>
       <c r="F526">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G526" t="str">
         <v/>
@@ -12367,7 +12367,7 @@
         <v>bh</v>
       </c>
       <c r="F527">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G527" t="str">
         <v/>
@@ -12390,7 +12390,7 @@
         <v>bh</v>
       </c>
       <c r="F528">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G528" t="str">
         <v/>
@@ -12413,7 +12413,7 @@
         <v>bh</v>
       </c>
       <c r="F529">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G529" t="str">
         <v/>
@@ -12436,7 +12436,7 @@
         <v>m</v>
       </c>
       <c r="F530">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G530" t="str">
         <v/>
@@ -12459,7 +12459,7 @@
         <v>m</v>
       </c>
       <c r="F531">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G531" t="str">
         <v/>
@@ -12482,7 +12482,7 @@
         <v>bh</v>
       </c>
       <c r="F532">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G532" t="str">
         <v/>
@@ -12505,7 +12505,7 @@
         <v>bh</v>
       </c>
       <c r="F533">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G533" t="str">
         <v/>
@@ -12528,7 +12528,7 @@
         <v>bh</v>
       </c>
       <c r="F534">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G534" t="str">
         <v/>
@@ -12551,7 +12551,7 @@
         <v>bh</v>
       </c>
       <c r="F535">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G535" t="str">
         <v/>
@@ -12574,7 +12574,7 @@
         <v>bh</v>
       </c>
       <c r="F536">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G536" t="str">
         <v/>
@@ -12597,7 +12597,7 @@
         <v>bh</v>
       </c>
       <c r="F537">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G537" t="str">
         <v/>
@@ -12620,7 +12620,7 @@
         <v>bh</v>
       </c>
       <c r="F538">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G538" t="str">
         <v/>
@@ -12643,7 +12643,7 @@
         <v>bh</v>
       </c>
       <c r="F539">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G539" t="str">
         <v/>
@@ -12666,7 +12666,7 @@
         <v>bh</v>
       </c>
       <c r="F540">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G540" t="str">
         <v/>
@@ -12689,7 +12689,7 @@
         <v>m3</v>
       </c>
       <c r="F541">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G541" t="str">
         <v/>
@@ -12712,7 +12712,7 @@
         <v>bh</v>
       </c>
       <c r="F542">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G542" t="str">
         <v/>
@@ -12735,7 +12735,7 @@
         <v>bh</v>
       </c>
       <c r="F543">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G543" t="str">
         <v/>
@@ -12758,7 +12758,7 @@
         <v>bh</v>
       </c>
       <c r="F544">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G544" t="str">
         <v/>
@@ -12781,7 +12781,7 @@
         <v>bh</v>
       </c>
       <c r="F545">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G545" t="str">
         <v/>
@@ -12804,7 +12804,7 @@
         <v>bh</v>
       </c>
       <c r="F546">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G546" t="str">
         <v/>
@@ -12827,7 +12827,7 @@
         <v>bh</v>
       </c>
       <c r="F547">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G547" t="str">
         <v/>
@@ -12850,7 +12850,7 @@
         <v>bh</v>
       </c>
       <c r="F548">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G548" t="str">
         <v/>
@@ -12873,7 +12873,7 @@
         <v>bh</v>
       </c>
       <c r="F549">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G549" t="str">
         <v/>
@@ -12896,7 +12896,7 @@
         <v>bh</v>
       </c>
       <c r="F550">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G550" t="str">
         <v/>
@@ -12919,7 +12919,7 @@
         <v>m</v>
       </c>
       <c r="F551">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G551" t="str">
         <v/>
@@ -12942,7 +12942,7 @@
         <v>m2</v>
       </c>
       <c r="F552">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G552" t="str">
         <v/>
@@ -12965,7 +12965,7 @@
         <v>m2</v>
       </c>
       <c r="F553">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G553" t="str">
         <v/>
@@ -12988,7 +12988,7 @@
         <v>m2</v>
       </c>
       <c r="F554">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G554" t="str">
         <v/>
@@ -13011,7 +13011,7 @@
         <v>kg</v>
       </c>
       <c r="F555">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G555" t="str">
         <v/>
@@ -13034,7 +13034,7 @@
         <v>bh</v>
       </c>
       <c r="F556">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G556" t="str">
         <v/>
@@ -13057,7 +13057,7 @@
         <v>lbr</v>
       </c>
       <c r="F557">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G557" t="str">
         <v/>
@@ -13080,7 +13080,7 @@
         <v>lbr</v>
       </c>
       <c r="F558">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G558" t="str">
         <v/>
@@ -13103,7 +13103,7 @@
         <v>kg</v>
       </c>
       <c r="F559">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G559" t="str">
         <v/>
@@ -13126,7 +13126,7 @@
         <v>lbr</v>
       </c>
       <c r="F560">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G560" t="str">
         <v/>
@@ -13149,7 +13149,7 @@
         <v>lbr</v>
       </c>
       <c r="F561">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G561" t="str">
         <v/>
@@ -13172,7 +13172,7 @@
         <v>bh</v>
       </c>
       <c r="F562">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G562" t="str">
         <v/>
@@ -13195,7 +13195,7 @@
         <v>bh</v>
       </c>
       <c r="F563">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G563" t="str">
         <v/>
@@ -13218,7 +13218,7 @@
         <v>bh</v>
       </c>
       <c r="F564">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G564" t="str">
         <v/>
@@ -13241,7 +13241,7 @@
         <v>bh</v>
       </c>
       <c r="F565">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G565" t="str">
         <v/>
@@ -13264,7 +13264,7 @@
         <v>bh</v>
       </c>
       <c r="F566">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G566" t="str">
         <v/>
@@ -13287,7 +13287,7 @@
         <v>lbr</v>
       </c>
       <c r="F567">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G567" t="str">
         <v/>
@@ -13310,7 +13310,7 @@
         <v>kg</v>
       </c>
       <c r="F568">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G568" t="str">
         <v/>
@@ -13333,7 +13333,7 @@
         <v>bh</v>
       </c>
       <c r="F569">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G569" t="str">
         <v/>
@@ -13356,7 +13356,7 @@
         <v>m2</v>
       </c>
       <c r="F570">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G570" t="str">
         <v/>
@@ -13379,7 +13379,7 @@
         <v>bh</v>
       </c>
       <c r="F571">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G571" t="str">
         <v/>
@@ -13402,7 +13402,7 @@
         <v>bh</v>
       </c>
       <c r="F572">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G572" t="str">
         <v/>
@@ -13425,7 +13425,7 @@
         <v>set</v>
       </c>
       <c r="F573">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G573" t="str">
         <v/>
@@ -13448,7 +13448,7 @@
         <v>bh</v>
       </c>
       <c r="F574">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G574" t="str">
         <v/>
@@ -13471,7 +13471,7 @@
         <v>set</v>
       </c>
       <c r="F575">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G575" t="str">
         <v/>
@@ -13494,7 +13494,7 @@
         <v>m2</v>
       </c>
       <c r="F576">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G576" t="str">
         <v/>
@@ -13517,7 +13517,7 @@
         <v>m2</v>
       </c>
       <c r="F577">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G577" t="str">
         <v/>
@@ -13540,7 +13540,7 @@
         <v>m2</v>
       </c>
       <c r="F578">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G578" t="str">
         <v/>
@@ -13563,7 +13563,7 @@
         <v>m2</v>
       </c>
       <c r="F579">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G579" t="str">
         <v/>
@@ -13586,7 +13586,7 @@
         <v>ltr</v>
       </c>
       <c r="F580">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G580" t="str">
         <v/>
@@ -13609,7 +13609,7 @@
         <v>ltr</v>
       </c>
       <c r="F581">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G581" t="str">
         <v/>
@@ -13632,7 +13632,7 @@
         <v>kg</v>
       </c>
       <c r="F582">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G582" t="str">
         <v/>
@@ -13655,7 +13655,7 @@
         <v>kg</v>
       </c>
       <c r="F583">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G583" t="str">
         <v/>
@@ -13678,7 +13678,7 @@
         <v>bh</v>
       </c>
       <c r="F584">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G584" t="str">
         <v/>
@@ -13701,7 +13701,7 @@
         <v>kg</v>
       </c>
       <c r="F585">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G585" t="str">
         <v/>
@@ -13724,7 +13724,7 @@
         <v>kg</v>
       </c>
       <c r="F586">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G586" t="str">
         <v/>
@@ -13747,7 +13747,7 @@
         <v>kg</v>
       </c>
       <c r="F587">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G587" t="str">
         <v/>
@@ -13770,7 +13770,7 @@
         <v>kg</v>
       </c>
       <c r="F588">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G588" t="str">
         <v/>
@@ -13793,7 +13793,7 @@
         <v>kg</v>
       </c>
       <c r="F589">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G589" t="str">
         <v/>
@@ -13816,7 +13816,7 @@
         <v>Ls</v>
       </c>
       <c r="F590">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G590" t="str">
         <v/>
@@ -13839,7 +13839,7 @@
         <v>unit</v>
       </c>
       <c r="F591">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G591" t="str">
         <v/>
@@ -13862,7 +13862,7 @@
         <v>bh</v>
       </c>
       <c r="F592">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G592" t="str">
         <v/>
@@ -13885,7 +13885,7 @@
         <v>unit</v>
       </c>
       <c r="F593">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G593" t="str">
         <v/>
@@ -13908,7 +13908,7 @@
         <v>m3</v>
       </c>
       <c r="F594">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G594" t="str">
         <v/>
@@ -13931,7 +13931,7 @@
         <v>kg</v>
       </c>
       <c r="F595">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G595" t="str">
         <v/>
@@ -13954,7 +13954,7 @@
         <v>unit</v>
       </c>
       <c r="F596">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G596" t="str">
         <v/>
@@ -13977,7 +13977,7 @@
         <v>bh</v>
       </c>
       <c r="F597">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G597" t="str">
         <v/>
@@ -14000,7 +14000,7 @@
         <v>m</v>
       </c>
       <c r="F598">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G598" t="str">
         <v/>
@@ -14023,7 +14023,7 @@
         <v>m</v>
       </c>
       <c r="F599">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G599" t="str">
         <v/>
@@ -14046,7 +14046,7 @@
         <v>m</v>
       </c>
       <c r="F600">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G600" t="str">
         <v/>
@@ -14069,7 +14069,7 @@
         <v>m</v>
       </c>
       <c r="F601">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G601" t="str">
         <v/>
@@ -14092,7 +14092,7 @@
         <v>m</v>
       </c>
       <c r="F602">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G602" t="str">
         <v/>
@@ -14115,7 +14115,7 @@
         <v>m</v>
       </c>
       <c r="F603">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G603" t="str">
         <v/>
@@ -14138,7 +14138,7 @@
         <v>m</v>
       </c>
       <c r="F604">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G604" t="str">
         <v/>
@@ -14161,7 +14161,7 @@
         <v>bh</v>
       </c>
       <c r="F605">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G605" t="str">
         <v/>
@@ -14184,7 +14184,7 @@
         <v>bh</v>
       </c>
       <c r="F606">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G606" t="str">
         <v/>
@@ -14207,7 +14207,7 @@
         <v>hari</v>
       </c>
       <c r="F607">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G607" t="str">
         <v/>
@@ -14230,7 +14230,7 @@
         <v>m</v>
       </c>
       <c r="F608">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G608" t="str">
         <v/>
@@ -14253,7 +14253,7 @@
         <v>m</v>
       </c>
       <c r="F609">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G609" t="str">
         <v/>
@@ -14276,7 +14276,7 @@
         <v>m</v>
       </c>
       <c r="F610">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G610" t="str">
         <v/>
@@ -14299,7 +14299,7 @@
         <v>m</v>
       </c>
       <c r="F611">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G611" t="str">
         <v/>
@@ -14322,7 +14322,7 @@
         <v>m</v>
       </c>
       <c r="F612">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G612" t="str">
         <v/>
@@ -14345,7 +14345,7 @@
         <v>m</v>
       </c>
       <c r="F613">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G613" t="str">
         <v/>
@@ -14368,7 +14368,7 @@
         <v>m</v>
       </c>
       <c r="F614">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G614" t="str">
         <v/>
@@ -14391,7 +14391,7 @@
         <v>m</v>
       </c>
       <c r="F615">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G615" t="str">
         <v/>
@@ -14414,7 +14414,7 @@
         <v>m</v>
       </c>
       <c r="F616">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G616" t="str">
         <v/>
@@ -14437,7 +14437,7 @@
         <v>m</v>
       </c>
       <c r="F617">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G617" t="str">
         <v/>
@@ -14460,7 +14460,7 @@
         <v>m</v>
       </c>
       <c r="F618">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G618" t="str">
         <v/>
@@ -14483,7 +14483,7 @@
         <v>m</v>
       </c>
       <c r="F619">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G619" t="str">
         <v/>
@@ -14506,7 +14506,7 @@
         <v>m</v>
       </c>
       <c r="F620">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G620" t="str">
         <v/>
@@ -14529,7 +14529,7 @@
         <v>m</v>
       </c>
       <c r="F621">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G621" t="str">
         <v/>
@@ -14552,7 +14552,7 @@
         <v>m</v>
       </c>
       <c r="F622">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G622" t="str">
         <v/>
@@ -14575,7 +14575,7 @@
         <v>m</v>
       </c>
       <c r="F623">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G623" t="str">
         <v/>
@@ -14598,7 +14598,7 @@
         <v>m</v>
       </c>
       <c r="F624">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G624" t="str">
         <v/>
@@ -14621,7 +14621,7 @@
         <v>m</v>
       </c>
       <c r="F625">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G625" t="str">
         <v/>
@@ -14644,7 +14644,7 @@
         <v>m</v>
       </c>
       <c r="F626">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G626" t="str">
         <v/>
@@ -14667,7 +14667,7 @@
         <v>m</v>
       </c>
       <c r="F627">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G627" t="str">
         <v/>
@@ -14690,7 +14690,7 @@
         <v>m</v>
       </c>
       <c r="F628">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G628" t="str">
         <v/>
@@ -14713,7 +14713,7 @@
         <v>m</v>
       </c>
       <c r="F629">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G629" t="str">
         <v/>
@@ -14736,7 +14736,7 @@
         <v>m</v>
       </c>
       <c r="F630">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G630" t="str">
         <v/>
@@ -14759,7 +14759,7 @@
         <v>m</v>
       </c>
       <c r="F631">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G631" t="str">
         <v/>
@@ -14782,7 +14782,7 @@
         <v>m</v>
       </c>
       <c r="F632">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G632" t="str">
         <v/>
@@ -14805,7 +14805,7 @@
         <v>m</v>
       </c>
       <c r="F633">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G633" t="str">
         <v/>
@@ -14828,7 +14828,7 @@
         <v>m</v>
       </c>
       <c r="F634">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G634" t="str">
         <v/>
@@ -14851,7 +14851,7 @@
         <v>m</v>
       </c>
       <c r="F635">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G635" t="str">
         <v/>
@@ -14874,7 +14874,7 @@
         <v>1.000</v>
       </c>
       <c r="F636">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G636" t="str">
         <v/>
@@ -14897,7 +14897,7 @@
         <v>m</v>
       </c>
       <c r="F637">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G637" t="str">
         <v/>
@@ -14920,7 +14920,7 @@
         <v>m</v>
       </c>
       <c r="F638">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G638" t="str">
         <v/>
@@ -14943,7 +14943,7 @@
         <v>m</v>
       </c>
       <c r="F639">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G639" t="str">
         <v/>
@@ -14966,7 +14966,7 @@
         <v>m</v>
       </c>
       <c r="F640">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G640" t="str">
         <v/>
@@ -14989,7 +14989,7 @@
         <v>m</v>
       </c>
       <c r="F641">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G641" t="str">
         <v/>
@@ -15012,7 +15012,7 @@
         <v>m</v>
       </c>
       <c r="F642">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G642" t="str">
         <v/>
@@ -15035,7 +15035,7 @@
         <v>m</v>
       </c>
       <c r="F643">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G643" t="str">
         <v/>
@@ -15058,7 +15058,7 @@
         <v>m</v>
       </c>
       <c r="F644">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G644" t="str">
         <v/>
@@ -15081,7 +15081,7 @@
         <v>m</v>
       </c>
       <c r="F645">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G645" t="str">
         <v/>
@@ -15104,7 +15104,7 @@
         <v>m</v>
       </c>
       <c r="F646">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G646" t="str">
         <v/>
@@ -15127,7 +15127,7 @@
         <v>m</v>
       </c>
       <c r="F647">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G647" t="str">
         <v/>
@@ -15150,7 +15150,7 @@
         <v>m</v>
       </c>
       <c r="F648">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G648" t="str">
         <v/>
@@ -15173,7 +15173,7 @@
         <v>m</v>
       </c>
       <c r="F649">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G649" t="str">
         <v/>
@@ -15196,7 +15196,7 @@
         <v>m</v>
       </c>
       <c r="F650">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G650" t="str">
         <v/>
@@ -15219,7 +15219,7 @@
         <v>m</v>
       </c>
       <c r="F651">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G651" t="str">
         <v/>
@@ -15242,7 +15242,7 @@
         <v>m</v>
       </c>
       <c r="F652">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G652" t="str">
         <v/>
@@ -15265,7 +15265,7 @@
         <v>m</v>
       </c>
       <c r="F653">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G653" t="str">
         <v/>
@@ -15288,7 +15288,7 @@
         <v>m</v>
       </c>
       <c r="F654">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G654" t="str">
         <v/>
@@ -15311,7 +15311,7 @@
         <v>m</v>
       </c>
       <c r="F655">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G655" t="str">
         <v/>
@@ -15334,7 +15334,7 @@
         <v>m</v>
       </c>
       <c r="F656">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G656" t="str">
         <v/>
@@ -15357,7 +15357,7 @@
         <v>m</v>
       </c>
       <c r="F657">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G657" t="str">
         <v/>
@@ -15380,7 +15380,7 @@
         <v>m</v>
       </c>
       <c r="F658">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G658" t="str">
         <v/>
@@ -15403,7 +15403,7 @@
         <v>m</v>
       </c>
       <c r="F659">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G659" t="str">
         <v/>
@@ -15426,7 +15426,7 @@
         <v>m</v>
       </c>
       <c r="F660">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G660" t="str">
         <v/>
@@ -15449,7 +15449,7 @@
         <v>m</v>
       </c>
       <c r="F661">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G661" t="str">
         <v/>
@@ -15472,7 +15472,7 @@
         <v>m</v>
       </c>
       <c r="F662">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G662" t="str">
         <v/>
@@ -15495,7 +15495,7 @@
         <v>m</v>
       </c>
       <c r="F663">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G663" t="str">
         <v/>
@@ -15518,7 +15518,7 @@
         <v>m</v>
       </c>
       <c r="F664">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G664" t="str">
         <v/>
@@ -15541,7 +15541,7 @@
         <v>m</v>
       </c>
       <c r="F665">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G665" t="str">
         <v/>
@@ -15564,7 +15564,7 @@
         <v>m</v>
       </c>
       <c r="F666">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G666" t="str">
         <v/>
@@ -15587,7 +15587,7 @@
         <v>m</v>
       </c>
       <c r="F667">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G667" t="str">
         <v/>
@@ -15610,7 +15610,7 @@
         <v>m</v>
       </c>
       <c r="F668">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G668" t="str">
         <v/>
@@ -15633,7 +15633,7 @@
         <v>m</v>
       </c>
       <c r="F669">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G669" t="str">
         <v/>
@@ -15656,7 +15656,7 @@
         <v>m</v>
       </c>
       <c r="F670">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G670" t="str">
         <v/>
@@ -15679,7 +15679,7 @@
         <v>m</v>
       </c>
       <c r="F671">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G671" t="str">
         <v/>
@@ -15702,7 +15702,7 @@
         <v>m</v>
       </c>
       <c r="F672">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G672" t="str">
         <v/>
@@ -15725,7 +15725,7 @@
         <v>m</v>
       </c>
       <c r="F673">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G673" t="str">
         <v/>
@@ -15748,7 +15748,7 @@
         <v>m</v>
       </c>
       <c r="F674">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G674" t="str">
         <v/>
@@ -15771,7 +15771,7 @@
         <v>m</v>
       </c>
       <c r="F675">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G675" t="str">
         <v/>
@@ -15794,7 +15794,7 @@
         <v>m</v>
       </c>
       <c r="F676">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G676" t="str">
         <v/>
@@ -15817,7 +15817,7 @@
         <v>m</v>
       </c>
       <c r="F677">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G677" t="str">
         <v/>
@@ -15840,7 +15840,7 @@
         <v>m</v>
       </c>
       <c r="F678">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G678" t="str">
         <v/>
@@ -15863,7 +15863,7 @@
         <v>m</v>
       </c>
       <c r="F679">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G679" t="str">
         <v/>
@@ -15886,7 +15886,7 @@
         <v>m</v>
       </c>
       <c r="F680">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G680" t="str">
         <v/>
@@ -15909,7 +15909,7 @@
         <v>m</v>
       </c>
       <c r="F681">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G681" t="str">
         <v/>
@@ -15932,7 +15932,7 @@
         <v>m</v>
       </c>
       <c r="F682">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G682" t="str">
         <v/>
@@ -15955,7 +15955,7 @@
         <v>m</v>
       </c>
       <c r="F683">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G683" t="str">
         <v/>
@@ -15978,7 +15978,7 @@
         <v>m3</v>
       </c>
       <c r="F684">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G684" t="str">
         <v/>
@@ -16001,7 +16001,7 @@
         <v>m3</v>
       </c>
       <c r="F685">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G685" t="str">
         <v/>
@@ -16024,7 +16024,7 @@
         <v>kg</v>
       </c>
       <c r="F686">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G686" t="str">
         <v/>
@@ -16047,7 +16047,7 @@
         <v>kg</v>
       </c>
       <c r="F687">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G687" t="str">
         <v/>
@@ -16070,7 +16070,7 @@
         <v>m2</v>
       </c>
       <c r="F688">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G688" t="str">
         <v/>
@@ -16093,7 +16093,7 @@
         <v>m3</v>
       </c>
       <c r="F689">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G689" t="str">
         <v/>
@@ -16116,7 +16116,7 @@
         <v>m3</v>
       </c>
       <c r="F690">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G690" t="str">
         <v/>
@@ -16139,7 +16139,7 @@
         <v>m</v>
       </c>
       <c r="F691">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G691" t="str">
         <v/>
@@ -16162,7 +16162,7 @@
         <v>m</v>
       </c>
       <c r="F692">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G692" t="str">
         <v/>
@@ -16185,7 +16185,7 @@
         <v>unit</v>
       </c>
       <c r="F693">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G693" t="str">
         <v/>
@@ -16208,7 +16208,7 @@
         <v>bh</v>
       </c>
       <c r="F694">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G694" t="str">
         <v/>
@@ -16231,7 +16231,7 @@
         <v>bh</v>
       </c>
       <c r="F695">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G695" t="str">
         <v/>
@@ -16254,7 +16254,7 @@
         <v>bn</v>
       </c>
       <c r="F696">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G696" t="str">
         <v/>
@@ -16277,7 +16277,7 @@
         <v>lbr</v>
       </c>
       <c r="F697">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G697" t="str">
         <v/>
@@ -16300,7 +16300,7 @@
         <v>m</v>
       </c>
       <c r="F698">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G698" t="str">
         <v/>
@@ -16323,7 +16323,7 @@
         <v>m2</v>
       </c>
       <c r="F699">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G699" t="str">
         <v/>
@@ -16346,7 +16346,7 @@
         <v>unit</v>
       </c>
       <c r="F700">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G700" t="str">
         <v/>
@@ -16369,7 +16369,7 @@
         <v>unit</v>
       </c>
       <c r="F701">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G701" t="str">
         <v/>
@@ -16392,7 +16392,7 @@
         <v>bh</v>
       </c>
       <c r="F702">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G702" t="str">
         <v/>
@@ -16415,7 +16415,7 @@
         <v>unit</v>
       </c>
       <c r="F703">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G703" t="str">
         <v/>
@@ -16438,7 +16438,7 @@
         <v>bh</v>
       </c>
       <c r="F704">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G704" t="str">
         <v/>
@@ -16461,7 +16461,7 @@
         <v>m</v>
       </c>
       <c r="F705">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G705" t="str">
         <v/>
@@ -16484,7 +16484,7 @@
         <v>m2</v>
       </c>
       <c r="F706">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G706" t="str">
         <v/>
@@ -16507,7 +16507,7 @@
         <v>bh</v>
       </c>
       <c r="F707">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G707" t="str">
         <v/>
@@ -16530,7 +16530,7 @@
         <v>bh</v>
       </c>
       <c r="F708">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G708" t="str">
         <v/>
@@ -16553,7 +16553,7 @@
         <v>bh</v>
       </c>
       <c r="F709">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G709" t="str">
         <v/>
@@ -16576,7 +16576,7 @@
         <v>bh</v>
       </c>
       <c r="F710">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G710" t="str">
         <v/>
@@ -16599,7 +16599,7 @@
         <v>bh</v>
       </c>
       <c r="F711">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G711" t="str">
         <v/>
@@ -16622,7 +16622,7 @@
         <v>bh</v>
       </c>
       <c r="F712">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G712" t="str">
         <v/>
@@ -16645,7 +16645,7 @@
         <v>unit</v>
       </c>
       <c r="F713">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G713" t="str">
         <v/>
@@ -16668,7 +16668,7 @@
         <v>bh</v>
       </c>
       <c r="F714">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G714" t="str">
         <v/>
@@ -16691,7 +16691,7 @@
         <v>bh</v>
       </c>
       <c r="F715">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G715" t="str">
         <v/>
@@ -16714,7 +16714,7 @@
         <v>bh</v>
       </c>
       <c r="F716">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G716" t="str">
         <v/>
@@ -16737,7 +16737,7 @@
         <v>m</v>
       </c>
       <c r="F717">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G717" t="str">
         <v/>
@@ -16760,7 +16760,7 @@
         <v>m</v>
       </c>
       <c r="F718">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G718" t="str">
         <v/>
@@ -16783,7 +16783,7 @@
         <v>m</v>
       </c>
       <c r="F719">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G719" t="str">
         <v/>
@@ -16806,7 +16806,7 @@
         <v>bh</v>
       </c>
       <c r="F720">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G720" t="str">
         <v/>
@@ -16829,7 +16829,7 @@
         <v>bh</v>
       </c>
       <c r="F721">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G721" t="str">
         <v/>
@@ -16852,7 +16852,7 @@
         <v>bh</v>
       </c>
       <c r="F722">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G722" t="str">
         <v/>
@@ -16875,7 +16875,7 @@
         <v>bh</v>
       </c>
       <c r="F723">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G723" t="str">
         <v/>
@@ -16898,7 +16898,7 @@
         <v>bh</v>
       </c>
       <c r="F724">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G724" t="str">
         <v/>
@@ -16921,7 +16921,7 @@
         <v>bh</v>
       </c>
       <c r="F725">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G725" t="str">
         <v/>
@@ -16944,7 +16944,7 @@
         <v>bh</v>
       </c>
       <c r="F726">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G726" t="str">
         <v/>
@@ -16967,7 +16967,7 @@
         <v>bh</v>
       </c>
       <c r="F727">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G727" t="str">
         <v/>
@@ -16990,7 +16990,7 @@
         <v>bh</v>
       </c>
       <c r="F728">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G728" t="str">
         <v/>
@@ -17013,7 +17013,7 @@
         <v>m2</v>
       </c>
       <c r="F729">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G729" t="str">
         <v/>
@@ -17036,7 +17036,7 @@
         <v>m2</v>
       </c>
       <c r="F730">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="G730" t="str">
         <v/>
@@ -18143,6 +18143,190 @@
         <v>0</v>
       </c>
       <c r="G778" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779">
+        <v>771</v>
+      </c>
+      <c r="B779" t="str">
+        <v/>
+      </c>
+      <c r="C779" t="str">
+        <v/>
+      </c>
+      <c r="D779" t="str">
+        <v>Pipa listrik 5/8</v>
+      </c>
+      <c r="E779" t="str">
+        <v>btg</v>
+      </c>
+      <c r="F779">
+        <v>0</v>
+      </c>
+      <c r="G779" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780">
+        <v>772</v>
+      </c>
+      <c r="B780" t="str">
+        <v/>
+      </c>
+      <c r="C780" t="str">
+        <v/>
+      </c>
+      <c r="D780" t="str">
+        <v>T Dus</v>
+      </c>
+      <c r="E780" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F780">
+        <v>0</v>
+      </c>
+      <c r="G780" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781">
+        <v>773</v>
+      </c>
+      <c r="B781" t="str">
+        <v/>
+      </c>
+      <c r="C781" t="str">
+        <v/>
+      </c>
+      <c r="D781" t="str">
+        <v>L Bow</v>
+      </c>
+      <c r="E781" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F781">
+        <v>0</v>
+      </c>
+      <c r="G781" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782">
+        <v>774</v>
+      </c>
+      <c r="B782" t="str">
+        <v/>
+      </c>
+      <c r="C782" t="str">
+        <v/>
+      </c>
+      <c r="D782" t="str">
+        <v>Las Dop</v>
+      </c>
+      <c r="E782" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F782">
+        <v>0</v>
+      </c>
+      <c r="G782" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783">
+        <v>775</v>
+      </c>
+      <c r="B783" t="str">
+        <v/>
+      </c>
+      <c r="C783" t="str">
+        <v/>
+      </c>
+      <c r="D783" t="str">
+        <v>Klem</v>
+      </c>
+      <c r="E783" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F783">
+        <v>0</v>
+      </c>
+      <c r="G783" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784">
+        <v>776</v>
+      </c>
+      <c r="B784" t="str">
+        <v/>
+      </c>
+      <c r="C784" t="str">
+        <v/>
+      </c>
+      <c r="D784" t="str">
+        <v>Mongkok</v>
+      </c>
+      <c r="E784" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F784">
+        <v>0</v>
+      </c>
+      <c r="G784" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785">
+        <v>777</v>
+      </c>
+      <c r="B785" t="str">
+        <v/>
+      </c>
+      <c r="C785" t="str">
+        <v/>
+      </c>
+      <c r="D785" t="str">
+        <v>Fitting</v>
+      </c>
+      <c r="E785" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F785">
+        <v>0</v>
+      </c>
+      <c r="G785" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786">
+        <v>778</v>
+      </c>
+      <c r="B786" t="str">
+        <v/>
+      </c>
+      <c r="C786" t="str">
+        <v/>
+      </c>
+      <c r="D786" t="str">
+        <v>MCB</v>
+      </c>
+      <c r="E786" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F786">
+        <v>0</v>
+      </c>
+      <c r="G786" t="str">
         <v/>
       </c>
     </row>
@@ -18165,7 +18349,7 @@
   </mergeCells>
   <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.31496062992125984" footer="0.31496062992125984"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I778"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I786"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/excel/temp_hsd.xlsx
+++ b/public/excel/temp_hsd.xlsx
@@ -1,13 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Harga Dasar" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Harga Dasar'!$A$1:$I$463</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -378,21 +375,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I864"/>
+  <dimension ref="A1:G1071"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="str">
-        <v xml:space="preserve">FORM SURVEY HARGA SATUAN BAHAN BANGUNAN </v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v xml:space="preserve">     SUMBER DATA      :    PASARAN BEBAS</v>
-      </c>
-    </row>
     <row r="4">
       <c r="A4" t="str">
         <v>TAHUN : 2021</v>
@@ -400,17 +387,17 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>DAERAH : Kab. Klaten</v>
+        <v>DAERAH : Kota Semarang</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>NAMA TOKO : TB Marajaya</v>
+        <v>NAMA TOKO : HSD 2020_BBPJN Jateng-DIY</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>ALAMAT : Jl. Solo Yogya KM 18 Klaten</v>
+        <v xml:space="preserve">ALAMAT : </v>
       </c>
     </row>
     <row r="8">
@@ -470,13 +457,13 @@
         <v>BATU KALI</v>
       </c>
       <c r="D10" t="str">
-        <v xml:space="preserve">BATU KALI Bulat Belah </v>
+        <v xml:space="preserve">Batu Belah </v>
       </c>
       <c r="E10" t="str">
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F10">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G10" t="str">
         <v/>
@@ -499,7 +486,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F11">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G11" t="str">
         <v/>
@@ -522,7 +509,7 @@
         <v xml:space="preserve">m3 </v>
       </c>
       <c r="F12">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G12" t="str">
         <v/>
@@ -585,7 +572,7 @@
         <v>KERIKIL</v>
       </c>
       <c r="D15" t="str">
-        <v xml:space="preserve">KERIKIL Sawur / Koral </v>
+        <v xml:space="preserve">Koral </v>
       </c>
       <c r="E15" t="str">
         <v xml:space="preserve">m3 </v>
@@ -608,7 +595,7 @@
         <v>KERIKIL</v>
       </c>
       <c r="D16" t="str">
-        <v xml:space="preserve">KERIKIL Beton </v>
+        <v>KERIKIL Beton  0.5/1</v>
       </c>
       <c r="E16" t="str">
         <v>Kg</v>
@@ -631,7 +618,7 @@
         <v>KERIKIL</v>
       </c>
       <c r="D17" t="str">
-        <v xml:space="preserve">KERIKIL Beton </v>
+        <v>KERIKIL Beton 1/2</v>
       </c>
       <c r="E17" t="str">
         <v xml:space="preserve">Kg </v>
@@ -654,7 +641,7 @@
         <v>KERIKIL</v>
       </c>
       <c r="D18" t="str">
-        <v xml:space="preserve">KERIKIL Beton </v>
+        <v>KERIKIL Beton 2/3</v>
       </c>
       <c r="E18" t="str">
         <v xml:space="preserve">m3 </v>
@@ -677,7 +664,7 @@
         <v>KERIKIL</v>
       </c>
       <c r="D19" t="str">
-        <v xml:space="preserve">KERIKIL Biasa </v>
+        <v>Kerikil</v>
       </c>
       <c r="E19" t="str">
         <v xml:space="preserve">m3 </v>
@@ -723,13 +710,13 @@
         <v>BATU BATA</v>
       </c>
       <c r="D21" t="str">
-        <v xml:space="preserve">BATU BATA ex lokal </v>
+        <v>Bata merah</v>
       </c>
       <c r="E21" t="str">
-        <v xml:space="preserve">bh </v>
+        <v>Buah</v>
       </c>
       <c r="F21">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="G21" t="str">
         <v/>
@@ -749,7 +736,7 @@
         <v xml:space="preserve">PASIR Urug  </v>
       </c>
       <c r="E22" t="str">
-        <v xml:space="preserve">m3 </v>
+        <v>Kg</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -772,7 +759,7 @@
         <v xml:space="preserve">PASIR Pasang </v>
       </c>
       <c r="E23" t="str">
-        <v xml:space="preserve">m3 </v>
+        <v>Kg</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -795,7 +782,7 @@
         <v xml:space="preserve">PASIR Beton </v>
       </c>
       <c r="E24" t="str">
-        <v xml:space="preserve">m3 </v>
+        <v>kg</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -884,10 +871,10 @@
         <v>KAPUR</v>
       </c>
       <c r="D28" t="str">
-        <v xml:space="preserve">KAPUR Semen Merah </v>
+        <v xml:space="preserve">Semen Merah </v>
       </c>
       <c r="E28" t="str">
-        <v xml:space="preserve">m3 </v>
+        <v>kg</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -907,7 +894,7 @@
         <v>PORTLAND CEMENT</v>
       </c>
       <c r="D29" t="str">
-        <v xml:space="preserve">PORTLAND CEMENT Merk I 1 kg </v>
+        <v>Semen Portland</v>
       </c>
       <c r="E29" t="str">
         <v>kg</v>
@@ -1005,7 +992,7 @@
         <v xml:space="preserve">zak </v>
       </c>
       <c r="F33">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -1045,7 +1032,7 @@
         <v>PORTLAND CEMENT</v>
       </c>
       <c r="D35" t="str">
-        <v xml:space="preserve">PORTLAND CEMENT Semen warna </v>
+        <v xml:space="preserve">Semen warna </v>
       </c>
       <c r="E35" t="str">
         <v xml:space="preserve">kg </v>
@@ -1062,7 +1049,7 @@
         <v>28</v>
       </c>
       <c r="B36" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C36" t="str">
         <v>SIRAP</v>
@@ -1085,7 +1072,7 @@
         <v>29</v>
       </c>
       <c r="B37" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C37" t="str">
         <v>GENTENG BETON</v>
@@ -1108,7 +1095,7 @@
         <v>30</v>
       </c>
       <c r="B38" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C38" t="str">
         <v>GENTENG BETON</v>
@@ -1131,7 +1118,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C39" t="str">
         <v>GENTENG BETON</v>
@@ -1154,10 +1141,10 @@
         <v>32</v>
       </c>
       <c r="B40" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C40" t="str">
-        <v>GENTENG BETON</v>
+        <v>KERPUS</v>
       </c>
       <c r="D40" t="str">
         <v xml:space="preserve">Kerpus Beton Warna Standard </v>
@@ -1177,7 +1164,7 @@
         <v>33</v>
       </c>
       <c r="B41" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C41" t="str">
         <v>GENTENG BETON</v>
@@ -1200,10 +1187,10 @@
         <v>34</v>
       </c>
       <c r="B42" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C42" t="str">
-        <v>GENTENG BETON</v>
+        <v>KERPUS</v>
       </c>
       <c r="D42" t="str">
         <v xml:space="preserve">Kerpus Beton Warna Khusus </v>
@@ -1223,7 +1210,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C43" t="str">
         <v>GENTENG TANAH LIAT</v>
@@ -1269,7 +1256,7 @@
         <v>37</v>
       </c>
       <c r="B45" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C45" t="str">
         <v>GENTENG TANAH LIAT</v>
@@ -1338,7 +1325,7 @@
         <v>40</v>
       </c>
       <c r="B48" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C48" t="str">
         <v>GENTENG TANAH LIAT</v>
@@ -1361,7 +1348,7 @@
         <v>41</v>
       </c>
       <c r="B49" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C49" t="str">
         <v>GENTENG TANAH LIAT</v>
@@ -1384,7 +1371,7 @@
         <v>42</v>
       </c>
       <c r="B50" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C50" t="str">
         <v>GENTENG KACA</v>
@@ -1407,7 +1394,7 @@
         <v>43</v>
       </c>
       <c r="B51" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C51" t="str">
         <v>GENTENG KACA</v>
@@ -1430,7 +1417,7 @@
         <v>44</v>
       </c>
       <c r="B52" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C52" t="str">
         <v>GENTENG KACA</v>
@@ -1453,7 +1440,7 @@
         <v>45</v>
       </c>
       <c r="B53" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C53" t="str">
         <v>GENTENG KACA</v>
@@ -1476,7 +1463,7 @@
         <v>46</v>
       </c>
       <c r="B54" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C54" t="str">
         <v>ASBES GELOMBANG BESAR</v>
@@ -1499,7 +1486,7 @@
         <v>47</v>
       </c>
       <c r="B55" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C55" t="str">
         <v>ASBES GELOMBANG BESAR</v>
@@ -1522,7 +1509,7 @@
         <v>48</v>
       </c>
       <c r="B56" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C56" t="str">
         <v>ASBES GELOMBANG BESAR</v>
@@ -1545,7 +1532,7 @@
         <v>49</v>
       </c>
       <c r="B57" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C57" t="str">
         <v>ASBES GELOMBANG BESAR</v>
@@ -1568,7 +1555,7 @@
         <v>50</v>
       </c>
       <c r="B58" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C58" t="str">
         <v>ASBES GELOMBANG BESAR</v>
@@ -1591,7 +1578,7 @@
         <v>51</v>
       </c>
       <c r="B59" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C59" t="str">
         <v>ASBES GELOMBANG BESAR</v>
@@ -1614,7 +1601,7 @@
         <v>52</v>
       </c>
       <c r="B60" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C60" t="str">
         <v>ASBES GELOMBANG KECIL</v>
@@ -1637,7 +1624,7 @@
         <v>53</v>
       </c>
       <c r="B61" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C61" t="str">
         <v>ASBES GELOMBANG KECIL</v>
@@ -1649,7 +1636,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F61">
-        <v>52800</v>
+        <v>0</v>
       </c>
       <c r="G61" t="str">
         <v/>
@@ -1660,7 +1647,7 @@
         <v>54</v>
       </c>
       <c r="B62" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C62" t="str">
         <v>ASBES GELOMBANG KECIL</v>
@@ -1672,7 +1659,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F62">
-        <v>61600</v>
+        <v>0</v>
       </c>
       <c r="G62" t="str">
         <v/>
@@ -1683,7 +1670,7 @@
         <v>55</v>
       </c>
       <c r="B63" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C63" t="str">
         <v>ASBES GELOMBANG KECIL</v>
@@ -1695,7 +1682,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F63">
-        <v>70400</v>
+        <v>0</v>
       </c>
       <c r="G63" t="str">
         <v/>
@@ -1706,7 +1693,7 @@
         <v>56</v>
       </c>
       <c r="B64" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C64" t="str">
         <v>ASBES GELOMBANG KECIL</v>
@@ -1729,7 +1716,7 @@
         <v>57</v>
       </c>
       <c r="B65" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C65" t="str">
         <v>ASBES GELOMBANG KECIL</v>
@@ -1741,7 +1728,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F65">
-        <v>88000</v>
+        <v>0</v>
       </c>
       <c r="G65" t="str">
         <v/>
@@ -1752,7 +1739,7 @@
         <v>58</v>
       </c>
       <c r="B66" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C66" t="str">
         <v>ONDULINE</v>
@@ -1775,7 +1762,7 @@
         <v>59</v>
       </c>
       <c r="B67" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C67" t="str">
         <v>ONDUVILLA</v>
@@ -1798,7 +1785,7 @@
         <v>60</v>
       </c>
       <c r="B68" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C68" t="str">
         <v>NOK</v>
@@ -1810,7 +1797,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F68">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="G68" t="str">
         <v/>
@@ -1821,7 +1808,7 @@
         <v>61</v>
       </c>
       <c r="B69" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C69" t="str">
         <v>NOK</v>
@@ -1844,7 +1831,7 @@
         <v>62</v>
       </c>
       <c r="B70" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C70" t="str">
         <v>NOK</v>
@@ -1867,7 +1854,7 @@
         <v>63</v>
       </c>
       <c r="B71" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C71" t="str">
         <v>NOK</v>
@@ -1913,7 +1900,7 @@
         <v>65</v>
       </c>
       <c r="B73" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C73" t="str">
         <v>NOK</v>
@@ -1936,7 +1923,7 @@
         <v>66</v>
       </c>
       <c r="B74" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C74" t="str">
         <v xml:space="preserve">NOK UNT ONDULINE &amp; ONDUVILLA </v>
@@ -1971,7 +1958,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F75">
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="G75" t="str">
         <v/>
@@ -1982,7 +1969,7 @@
         <v>68</v>
       </c>
       <c r="B76" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C76" t="str">
         <v>ASBES PLAT</v>
@@ -2005,7 +1992,7 @@
         <v>69</v>
       </c>
       <c r="B77" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C77" t="str">
         <v>ASBES PLAT</v>
@@ -2028,7 +2015,7 @@
         <v>70</v>
       </c>
       <c r="B78" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C78" t="str">
         <v>ASBES PLAT</v>
@@ -2051,7 +2038,7 @@
         <v>71</v>
       </c>
       <c r="B79" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C79" t="str">
         <v>FIBER PLAT</v>
@@ -2074,7 +2061,7 @@
         <v>72</v>
       </c>
       <c r="B80" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C80" t="str">
         <v>ASBES PLAT UNTUK PLAFOND</v>
@@ -2097,7 +2084,7 @@
         <v>73</v>
       </c>
       <c r="B81" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C81" t="str">
         <v>ASBES PLAT UNTUK PLAFOND</v>
@@ -2120,7 +2107,7 @@
         <v>74</v>
       </c>
       <c r="B82" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C82" t="str">
         <v>GRC BOARD</v>
@@ -2132,7 +2119,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F82">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G82" t="str">
         <v/>
@@ -2143,7 +2130,7 @@
         <v>75</v>
       </c>
       <c r="B83" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C83" t="str">
         <v>GRC BOARD</v>
@@ -2166,7 +2153,7 @@
         <v>76</v>
       </c>
       <c r="B84" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C84" t="str">
         <v>GRC BOARD</v>
@@ -2189,7 +2176,7 @@
         <v>77</v>
       </c>
       <c r="B85" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C85" t="str">
         <v>GRC BOARD</v>
@@ -2212,7 +2199,7 @@
         <v>78</v>
       </c>
       <c r="B86" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C86" t="str">
         <v>FIBER GLASS (JABES)</v>
@@ -2235,7 +2222,7 @@
         <v>79</v>
       </c>
       <c r="B87" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C87" t="str">
         <v>FIBER GLASS (JABES)</v>
@@ -2258,7 +2245,7 @@
         <v>80</v>
       </c>
       <c r="B88" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C88" t="str">
         <v>FIBER GLASS (JABES)</v>
@@ -2281,7 +2268,7 @@
         <v>81</v>
       </c>
       <c r="B89" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C89" t="str">
         <v>FIBER GLASS (JABES)</v>
@@ -2304,7 +2291,7 @@
         <v>82</v>
       </c>
       <c r="B90" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C90" t="str">
         <v>FIBER GLASS (JABES)</v>
@@ -2327,7 +2314,7 @@
         <v>83</v>
       </c>
       <c r="B91" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C91" t="str">
         <v>FIBER GLASS (JABES)</v>
@@ -2350,16 +2337,16 @@
         <v>84</v>
       </c>
       <c r="B92" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C92" t="str">
         <v>SENG PLAT</v>
       </c>
       <c r="D92" t="str">
-        <v xml:space="preserve">SENG PLAT BJLS 0,18 lebar 55 cm </v>
+        <v>Seng plat</v>
       </c>
       <c r="E92" t="str">
-        <v xml:space="preserve">m' </v>
+        <v>Lbr</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -2373,7 +2360,7 @@
         <v>85</v>
       </c>
       <c r="B93" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C93" t="str">
         <v>SENG PLAT</v>
@@ -2385,7 +2372,7 @@
         <v xml:space="preserve">m' </v>
       </c>
       <c r="F93">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="G93" t="str">
         <v/>
@@ -2396,7 +2383,7 @@
         <v>86</v>
       </c>
       <c r="B94" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C94" t="str">
         <v>SENG PLAT</v>
@@ -2419,7 +2406,7 @@
         <v>87</v>
       </c>
       <c r="B95" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C95" t="str">
         <v>SENG PLAT</v>
@@ -2442,7 +2429,7 @@
         <v>88</v>
       </c>
       <c r="B96" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C96" t="str">
         <v>SENG GELOMBANG</v>
@@ -2465,19 +2452,19 @@
         <v>89</v>
       </c>
       <c r="B97" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C97" t="str">
         <v>SENG GELOMBANG</v>
       </c>
       <c r="D97" t="str">
-        <v xml:space="preserve">SENG GELOMBANG BJLS 0,20 panjang 180 cm </v>
+        <v>Seng gelombang</v>
       </c>
       <c r="E97" t="str">
-        <v xml:space="preserve">lbr </v>
+        <v xml:space="preserve">Lbr </v>
       </c>
       <c r="F97">
-        <v>54600</v>
+        <v>0</v>
       </c>
       <c r="G97" t="str">
         <v/>
@@ -2488,7 +2475,7 @@
         <v>90</v>
       </c>
       <c r="B98" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C98" t="str">
         <v>SENG GELOMBANG</v>
@@ -2511,7 +2498,7 @@
         <v>91</v>
       </c>
       <c r="B99" t="str">
-        <v>BAHAN DASAR</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C99" t="str">
         <v>SENG GELOMBANG</v>
@@ -2632,7 +2619,7 @@
         <v>KRUING</v>
       </c>
       <c r="D104" t="str">
-        <v xml:space="preserve">KRUING Papan </v>
+        <v>Kayu Papan 3/20</v>
       </c>
       <c r="E104" t="str">
         <v xml:space="preserve">m3 </v>
@@ -2655,7 +2642,7 @@
         <v>KRUING</v>
       </c>
       <c r="D105" t="str">
-        <v xml:space="preserve">KRUING Balok/pesagen </v>
+        <v>Kayu 5/7</v>
       </c>
       <c r="E105" t="str">
         <v xml:space="preserve">m3 </v>
@@ -2816,10 +2803,10 @@
         <v>DOLKEN</v>
       </c>
       <c r="D112" t="str">
-        <v xml:space="preserve">DOLKEN Sedang  8 x 10 x 400 cm </v>
+        <v xml:space="preserve">Dolken kayu  diameter 8 -10 /400 cm </v>
       </c>
       <c r="E112" t="str">
-        <v xml:space="preserve">bt </v>
+        <v xml:space="preserve">Batang </v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2931,10 +2918,10 @@
         <v>DOLKEN</v>
       </c>
       <c r="D117" t="str">
-        <v xml:space="preserve">DOLKEN Bambu </v>
+        <v>Bambu diameter 6-8/600 cm</v>
       </c>
       <c r="E117" t="str">
-        <v xml:space="preserve">bt </v>
+        <v xml:space="preserve">Batang </v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3305,7 +3292,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F133">
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="G133" t="str">
         <v/>
@@ -3328,7 +3315,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F134">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G134" t="str">
         <v/>
@@ -3374,7 +3361,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F136">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="G136" t="str">
         <v/>
@@ -3529,7 +3516,7 @@
         <v xml:space="preserve">MARMER </v>
       </c>
       <c r="D143" t="str">
-        <v xml:space="preserve">MARMER MARMER </v>
+        <v>Marmer</v>
       </c>
       <c r="E143" t="str">
         <v xml:space="preserve">m2 </v>
@@ -3972,7 +3959,7 @@
         <v xml:space="preserve">btg/lonjor </v>
       </c>
       <c r="F162">
-        <v>54000</v>
+        <v>0</v>
       </c>
       <c r="G162" t="str">
         <v/>
@@ -3995,7 +3982,7 @@
         <v xml:space="preserve">btg/lonjor </v>
       </c>
       <c r="F163">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="G163" t="str">
         <v/>
@@ -4449,7 +4436,7 @@
         <v xml:space="preserve">KAWAT  </v>
       </c>
       <c r="D183" t="str">
-        <v xml:space="preserve">KAWAT  Ikat Beton/Bendrat </v>
+        <v>Kawat beton</v>
       </c>
       <c r="E183" t="str">
         <v xml:space="preserve">kg </v>
@@ -4616,7 +4603,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F190">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G190" t="str">
         <v/>
@@ -4639,7 +4626,7 @@
         <v xml:space="preserve">m2 </v>
       </c>
       <c r="F191">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="G191" t="str">
         <v/>
@@ -4662,7 +4649,7 @@
         <v xml:space="preserve">rol </v>
       </c>
       <c r="F192">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="G192" t="str">
         <v/>
@@ -4708,7 +4695,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F194">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="G194" t="str">
         <v/>
@@ -4731,7 +4718,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F195">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="G195" t="str">
         <v/>
@@ -4754,7 +4741,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F196">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="G196" t="str">
         <v/>
@@ -4800,7 +4787,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F198">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G198" t="str">
         <v/>
@@ -4823,7 +4810,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F199">
-        <v>79000</v>
+        <v>0</v>
       </c>
       <c r="G199" t="str">
         <v/>
@@ -4846,7 +4833,7 @@
         <v xml:space="preserve">btg </v>
       </c>
       <c r="F200">
-        <v>108000</v>
+        <v>0</v>
       </c>
       <c r="G200" t="str">
         <v/>
@@ -5501,7 +5488,7 @@
         <v>221</v>
       </c>
       <c r="B229" t="str">
-        <v>BAHAN PIPA</v>
+        <v>BAHAN LANGIT-LANGIT</v>
       </c>
       <c r="C229" t="str">
         <v xml:space="preserve">PLY WOOD </v>
@@ -5524,7 +5511,7 @@
         <v>222</v>
       </c>
       <c r="B230" t="str">
-        <v>BAHAN PIPA</v>
+        <v>BAHAN LANGIT-LANGIT</v>
       </c>
       <c r="C230" t="str">
         <v xml:space="preserve">PLY WOOD </v>
@@ -5547,7 +5534,7 @@
         <v>223</v>
       </c>
       <c r="B231" t="str">
-        <v>BAHAN PIPA</v>
+        <v>BAHAN LANGIT-LANGIT</v>
       </c>
       <c r="C231" t="str">
         <v xml:space="preserve">PLY WOOD </v>
@@ -5559,7 +5546,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F231">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="G231" t="str">
         <v/>
@@ -5570,19 +5557,19 @@
         <v>224</v>
       </c>
       <c r="B232" t="str">
-        <v>BAHAN PIPA</v>
+        <v>BAHAN LANGIT-LANGIT</v>
       </c>
       <c r="C232" t="str">
         <v xml:space="preserve">PLY WOOD </v>
       </c>
       <c r="D232" t="str">
-        <v xml:space="preserve">PLY WOOD Tripleks 120 X 240 x 4 mm  </v>
+        <v>Plywood 4mm</v>
       </c>
       <c r="E232" t="str">
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F232">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G232" t="str">
         <v/>
@@ -5593,7 +5580,7 @@
         <v>225</v>
       </c>
       <c r="B233" t="str">
-        <v>BAHAN PIPA</v>
+        <v>BAHAN LANGIT-LANGIT</v>
       </c>
       <c r="C233" t="str">
         <v xml:space="preserve">PLY WOOD </v>
@@ -5605,7 +5592,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F233">
-        <v>74000</v>
+        <v>0</v>
       </c>
       <c r="G233" t="str">
         <v/>
@@ -5616,19 +5603,19 @@
         <v>226</v>
       </c>
       <c r="B234" t="str">
-        <v>BAHAN PIPA</v>
+        <v>BAHAN LANGIT-LANGIT</v>
       </c>
       <c r="C234" t="str">
         <v xml:space="preserve">PLY WOOD </v>
       </c>
       <c r="D234" t="str">
-        <v xml:space="preserve">PLY WOOD Multipleks 120 X 240 x 9 mm </v>
+        <v>Plywood 9 mm</v>
       </c>
       <c r="E234" t="str">
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F234">
-        <v>94000</v>
+        <v>0</v>
       </c>
       <c r="G234" t="str">
         <v/>
@@ -5639,7 +5626,7 @@
         <v>227</v>
       </c>
       <c r="B235" t="str">
-        <v>BAHAN PIPA</v>
+        <v>BAHAN LANGIT-LANGIT</v>
       </c>
       <c r="C235" t="str">
         <v xml:space="preserve">PLY WOOD </v>
@@ -5651,7 +5638,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F235">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="G235" t="str">
         <v/>
@@ -5662,7 +5649,7 @@
         <v>228</v>
       </c>
       <c r="B236" t="str">
-        <v>BAHAN PIPA</v>
+        <v>BAHAN LANGIT-LANGIT</v>
       </c>
       <c r="C236" t="str">
         <v xml:space="preserve">PLY WOOD </v>
@@ -5674,7 +5661,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F236">
-        <v>225000</v>
+        <v>0</v>
       </c>
       <c r="G236" t="str">
         <v/>
@@ -5685,7 +5672,7 @@
         <v>229</v>
       </c>
       <c r="B237" t="str">
-        <v>BAHAN PIPA</v>
+        <v>BAHAN LANGIT-LANGIT</v>
       </c>
       <c r="C237" t="str">
         <v xml:space="preserve">PLY WOOD </v>
@@ -5697,7 +5684,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F237">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="G237" t="str">
         <v/>
@@ -5708,7 +5695,7 @@
         <v>230</v>
       </c>
       <c r="B238" t="str">
-        <v>BAHAN PIPA</v>
+        <v>BAHAN LANGIT-LANGIT</v>
       </c>
       <c r="C238" t="str">
         <v xml:space="preserve">PLY WOOD </v>
@@ -5720,7 +5707,7 @@
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F238">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="G238" t="str">
         <v/>
@@ -5737,13 +5724,13 @@
         <v xml:space="preserve">KAYU </v>
       </c>
       <c r="D239" t="str">
-        <v xml:space="preserve">KAYU Menie  </v>
+        <v xml:space="preserve">Cat menie  </v>
       </c>
       <c r="E239" t="str">
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F239">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="G239" t="str">
         <v/>
@@ -5760,13 +5747,13 @@
         <v xml:space="preserve">KAYU </v>
       </c>
       <c r="D240" t="str">
-        <v xml:space="preserve">KAYU Dempul plamur  </v>
+        <v xml:space="preserve">Plamuur  </v>
       </c>
       <c r="E240" t="str">
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F240">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="G240" t="str">
         <v/>
@@ -5783,13 +5770,13 @@
         <v xml:space="preserve">KAYU </v>
       </c>
       <c r="D241" t="str">
-        <v xml:space="preserve">KAYU Ambril/amplas </v>
+        <v xml:space="preserve">Ampelas </v>
       </c>
       <c r="E241" t="str">
         <v xml:space="preserve">lbr </v>
       </c>
       <c r="F241">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G241" t="str">
         <v/>
@@ -5829,7 +5816,7 @@
         <v xml:space="preserve">KAYU </v>
       </c>
       <c r="D243" t="str">
-        <v xml:space="preserve">KAYU Cat dasar </v>
+        <v xml:space="preserve">Cat dasar </v>
       </c>
       <c r="E243" t="str">
         <v xml:space="preserve">kg </v>
@@ -5881,7 +5868,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F245">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="G245" t="str">
         <v/>
@@ -5898,7 +5885,7 @@
         <v xml:space="preserve">KAYU </v>
       </c>
       <c r="D246" t="str">
-        <v xml:space="preserve">KAYU Koas </v>
+        <v xml:space="preserve">Kuas </v>
       </c>
       <c r="E246" t="str">
         <v xml:space="preserve">bh </v>
@@ -5950,7 +5937,7 @@
         <v xml:space="preserve">ons </v>
       </c>
       <c r="F248">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="G248" t="str">
         <v/>
@@ -5973,7 +5960,7 @@
         <v xml:space="preserve">ltr </v>
       </c>
       <c r="F249">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G249" t="str">
         <v/>
@@ -5990,13 +5977,13 @@
         <v xml:space="preserve">KAYU </v>
       </c>
       <c r="D250" t="str">
-        <v xml:space="preserve">KAYU Plitur jadi </v>
+        <v xml:space="preserve">Politur jadi </v>
       </c>
       <c r="E250" t="str">
         <v xml:space="preserve">ltr </v>
       </c>
       <c r="F250">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="G250" t="str">
         <v/>
@@ -6013,7 +6000,7 @@
         <v>TEMBOK</v>
       </c>
       <c r="D251" t="str">
-        <v xml:space="preserve">TEMBOK Kalkarium </v>
+        <v xml:space="preserve">Kalkarium </v>
       </c>
       <c r="E251" t="str">
         <v xml:space="preserve">kg </v>
@@ -6036,7 +6023,7 @@
         <v>TEMBOK</v>
       </c>
       <c r="D252" t="str">
-        <v xml:space="preserve">TEMBOK Kapur sirih </v>
+        <v xml:space="preserve">Kapur sirih </v>
       </c>
       <c r="E252" t="str">
         <v xml:space="preserve">kg </v>
@@ -6157,7 +6144,7 @@
         <v xml:space="preserve">5 kg </v>
       </c>
       <c r="F257">
-        <v>125000</v>
+        <v>0</v>
       </c>
       <c r="G257" t="str">
         <v/>
@@ -6197,13 +6184,13 @@
         <v>BESI</v>
       </c>
       <c r="D259" t="str">
-        <v xml:space="preserve">BESI Menie </v>
+        <v>Menie Besi</v>
       </c>
       <c r="E259" t="str">
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F259">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="G259" t="str">
         <v/>
@@ -6272,7 +6259,7 @@
         <v xml:space="preserve">ltr </v>
       </c>
       <c r="F262">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G262" t="str">
         <v/>
@@ -6289,10 +6276,10 @@
         <v>BESI</v>
       </c>
       <c r="D263" t="str">
-        <v xml:space="preserve">BESI Minyak cat </v>
+        <v>Pengencer</v>
       </c>
       <c r="E263" t="str">
-        <v xml:space="preserve">ltr </v>
+        <v>Kg</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -6335,10 +6322,10 @@
         <v>BESI</v>
       </c>
       <c r="D265" t="str">
-        <v xml:space="preserve">BESI  Residu (teer/aspal) </v>
+        <v>Residu</v>
       </c>
       <c r="E265" t="str">
-        <v xml:space="preserve">drum </v>
+        <v>Liter</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -6387,7 +6374,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F267">
-        <v>1100000</v>
+        <v>0</v>
       </c>
       <c r="G267" t="str">
         <v/>
@@ -6433,7 +6420,7 @@
         <v xml:space="preserve">kg </v>
       </c>
       <c r="F269">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="G269" t="str">
         <v/>
@@ -6447,7 +6434,7 @@
         <v>BAHAN KACA</v>
       </c>
       <c r="C270" t="str">
-        <v>POLOS</v>
+        <v>KACA POLOS</v>
       </c>
       <c r="D270" t="str">
         <v xml:space="preserve">Kaca Polos 3 mm </v>
@@ -6470,7 +6457,7 @@
         <v>BAHAN KACA</v>
       </c>
       <c r="C271" t="str">
-        <v>POLOS</v>
+        <v>KACA POLOS</v>
       </c>
       <c r="D271" t="str">
         <v xml:space="preserve">Kaca Polos 5 mm </v>
@@ -7462,7 +7449,7 @@
         <v>KUNCI TANAM</v>
       </c>
       <c r="D314" t="str">
-        <v xml:space="preserve">KUNCI TANAM Union 1 X slag </v>
+        <v>Kunci tanam</v>
       </c>
       <c r="E314" t="str">
         <v xml:space="preserve">bh </v>
@@ -7508,7 +7495,7 @@
         <v>KUNCI TANAM</v>
       </c>
       <c r="D316" t="str">
-        <v xml:space="preserve">KUNCI TANAM Yale 1 X slag </v>
+        <v>Kunci tanam KM</v>
       </c>
       <c r="E316" t="str">
         <v xml:space="preserve">bh </v>
@@ -7531,7 +7518,7 @@
         <v>KUNCI TANAM</v>
       </c>
       <c r="D317" t="str">
-        <v xml:space="preserve">KUNCI TANAM Yale 2 X slag </v>
+        <v>Kunci tanam biasa</v>
       </c>
       <c r="E317" t="str">
         <v xml:space="preserve">bh </v>
@@ -7606,7 +7593,7 @@
         <v xml:space="preserve">bh </v>
       </c>
       <c r="F320">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G320" t="str">
         <v/>
@@ -7781,16 +7768,16 @@
         <v>BAHAN SANITAIR</v>
       </c>
       <c r="C328" t="str">
-        <v xml:space="preserve">KLOSET DUDUK </v>
+        <v xml:space="preserve">CLOSET DUDUK </v>
       </c>
       <c r="D328" t="str">
-        <v xml:space="preserve">KLOSET DUDUK </v>
+        <v>Closet duduk</v>
       </c>
       <c r="E328" t="str">
-        <v xml:space="preserve">bh </v>
+        <v>Unit</v>
       </c>
       <c r="F328">
-        <v>1250000</v>
+        <v>0</v>
       </c>
       <c r="G328" t="str">
         <v/>
@@ -7804,16 +7791,16 @@
         <v>BAHAN SANITAIR</v>
       </c>
       <c r="C329" t="str">
-        <v xml:space="preserve">KLOSET JONGKOK </v>
+        <v xml:space="preserve">CLOSET JONGKOK </v>
       </c>
       <c r="D329" t="str">
-        <v xml:space="preserve">KLOSET JONGKOK </v>
+        <v>Closet Jongkok</v>
       </c>
       <c r="E329" t="str">
-        <v xml:space="preserve">bh </v>
+        <v>Unit</v>
       </c>
       <c r="F329">
-        <v>210000</v>
+        <v>0</v>
       </c>
       <c r="G329" t="str">
         <v/>
@@ -8057,13 +8044,13 @@
         <v>BAHAN SANITAIR</v>
       </c>
       <c r="C340" t="str">
-        <v xml:space="preserve">LAIN-LAIN </v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="D340" t="str">
         <v>Floor drain</v>
       </c>
       <c r="E340" t="str">
-        <v>bh</v>
+        <v>Unit</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -8080,10 +8067,10 @@
         <v>ALAT PENGIKAT KAYU</v>
       </c>
       <c r="C341" t="str">
-        <v xml:space="preserve"> PAKU - ukuran 1" s/d 4" </v>
+        <v xml:space="preserve"> PAKU</v>
       </c>
       <c r="D341" t="str">
-        <v xml:space="preserve"> PAKU - ukuran 1" s/d 4" </v>
+        <v>Paku biasa 2" - 5"</v>
       </c>
       <c r="E341" t="str">
         <v xml:space="preserve">kg </v>
@@ -8103,7 +8090,7 @@
         <v>ALAT PENGIKAT KAYU</v>
       </c>
       <c r="C342" t="str">
-        <v xml:space="preserve">PAKU - payung </v>
+        <v>PAKU</v>
       </c>
       <c r="D342" t="str">
         <v xml:space="preserve">PAKU - payung </v>
@@ -8126,7 +8113,7 @@
         <v>ALAT PENGIKAT KAYU</v>
       </c>
       <c r="C343" t="str">
-        <v xml:space="preserve">PAKU - sekrup </v>
+        <v>PAKU</v>
       </c>
       <c r="D343" t="str">
         <v xml:space="preserve">PAKU - sekrup </v>
@@ -8149,7 +8136,7 @@
         <v>ALAT PENGIKAT KAYU</v>
       </c>
       <c r="C344" t="str">
-        <v xml:space="preserve">PAKU - beton </v>
+        <v>PAKU</v>
       </c>
       <c r="D344" t="str">
         <v xml:space="preserve">PAKU - beton </v>
@@ -8241,7 +8228,7 @@
         <v>ALAT PENGIKAT KAYU</v>
       </c>
       <c r="C348" t="str">
-        <v xml:space="preserve">Tali Ijuk </v>
+        <v>IJUK</v>
       </c>
       <c r="D348" t="str">
         <v xml:space="preserve">Tali Ijuk </v>
@@ -8727,10 +8714,10 @@
         <v xml:space="preserve">Sliding Pintu  J4 </v>
       </c>
       <c r="D369" t="str">
-        <v xml:space="preserve">Sliding Pintu  J4 </v>
+        <v>Rel Pintu sorong</v>
       </c>
       <c r="E369" t="str">
-        <v xml:space="preserve">bh </v>
+        <v>set</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -8750,10 +8737,10 @@
         <v xml:space="preserve">Naco per Daun </v>
       </c>
       <c r="D370" t="str">
-        <v xml:space="preserve">Naco per Daun </v>
+        <v>Jendela nako (rangka+kaca 5 mm)</v>
       </c>
       <c r="E370" t="str">
-        <v xml:space="preserve">bh </v>
+        <v>m2</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -8770,10 +8757,10 @@
         <v>LAIN-LAIN</v>
       </c>
       <c r="C371" t="str">
-        <v xml:space="preserve">Rolling door Besi </v>
+        <v xml:space="preserve">Pintu gulung besi </v>
       </c>
       <c r="D371" t="str">
-        <v xml:space="preserve">Rolling door Besi </v>
+        <v xml:space="preserve">Pintu gulung besi </v>
       </c>
       <c r="E371" t="str">
         <v xml:space="preserve">m2 </v>
@@ -9233,10 +9220,10 @@
         <v xml:space="preserve">PAGAR  BRC. </v>
       </c>
       <c r="D391" t="str">
-        <v xml:space="preserve">PAGAR  BRC. Pagar BRC 90 A2 </v>
+        <v>Kawat jaring</v>
       </c>
       <c r="E391" t="str">
-        <v xml:space="preserve">/lb </v>
+        <v>lbr</v>
       </c>
       <c r="F391">
         <v>0</v>
@@ -9420,7 +9407,7 @@
         <v xml:space="preserve">Air </v>
       </c>
       <c r="E399" t="str">
-        <v>m3</v>
+        <v>Liter</v>
       </c>
       <c r="F399">
         <v>0</v>
@@ -9440,7 +9427,7 @@
         <v xml:space="preserve">LAIN-LAIN </v>
       </c>
       <c r="D400" t="str">
-        <v xml:space="preserve">Koas Alang-alang </v>
+        <v xml:space="preserve">Alang-alang </v>
       </c>
       <c r="E400" t="str">
         <v>ikat</v>
@@ -9561,7 +9548,7 @@
         <v>OH</v>
       </c>
       <c r="F405">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="G405" t="str">
         <v/>
@@ -9584,7 +9571,7 @@
         <v>OH</v>
       </c>
       <c r="F406">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="G406" t="str">
         <v/>
@@ -9607,7 +9594,7 @@
         <v>OH</v>
       </c>
       <c r="F407">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="G407" t="str">
         <v/>
@@ -9630,7 +9617,7 @@
         <v>OH</v>
       </c>
       <c r="F408">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="G408" t="str">
         <v/>
@@ -9653,7 +9640,7 @@
         <v>OH</v>
       </c>
       <c r="F409">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="G409" t="str">
         <v/>
@@ -9676,7 +9663,7 @@
         <v>OH</v>
       </c>
       <c r="F410">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="G410" t="str">
         <v/>
@@ -9699,7 +9686,7 @@
         <v>OH</v>
       </c>
       <c r="F411">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="G411" t="str">
         <v/>
@@ -9722,7 +9709,7 @@
         <v>OH</v>
       </c>
       <c r="F412">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="G412" t="str">
         <v/>
@@ -9860,7 +9847,7 @@
         <v>OH</v>
       </c>
       <c r="F418">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="G418" t="str">
         <v/>
@@ -10222,7 +10209,7 @@
         <v>PERALATAN</v>
       </c>
       <c r="D434" t="str">
-        <v>Dump Truck 3 ton</v>
+        <v>Dump Truck</v>
       </c>
       <c r="E434" t="str">
         <v>Jam</v>
@@ -10929,10 +10916,10 @@
         <v>457</v>
       </c>
       <c r="B465" t="str">
-        <v>BAHAN CETAK</v>
+        <v>BAHAN BETON</v>
       </c>
       <c r="C465" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BETON</v>
       </c>
       <c r="D465" t="str">
         <v>Kolom Beton Pracetak</v>
@@ -10975,10 +10962,10 @@
         <v>459</v>
       </c>
       <c r="B467" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN DASAR</v>
       </c>
       <c r="C467" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN DASAR</v>
       </c>
       <c r="D467" t="str">
         <v>Kapur Padam</v>
@@ -10998,10 +10985,10 @@
         <v>460</v>
       </c>
       <c r="B468" t="str">
-        <v>LAIN-LAIN</v>
+        <v>ALAT PENGIKAT KAYU</v>
       </c>
       <c r="C468" t="str">
-        <v>LAIN-LAIN</v>
+        <v>IJUK</v>
       </c>
       <c r="D468" t="str">
         <v>Ijuk</v>
@@ -11021,13 +11008,13 @@
         <v>461</v>
       </c>
       <c r="B469" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN DASAR</v>
       </c>
       <c r="C469" t="str">
-        <v>LAIN-LAIN</v>
+        <v>SIRTU</v>
       </c>
       <c r="D469" t="str">
-        <v>SIrtu</v>
+        <v>Sirtu</v>
       </c>
       <c r="E469" t="str">
         <v>m3</v>
@@ -11136,10 +11123,10 @@
         <v>466</v>
       </c>
       <c r="B474" t="str">
-        <v>LAIN-LAIN</v>
+        <v>TENAGA KERJA</v>
       </c>
       <c r="C474" t="str">
-        <v>LAIN-LAIN</v>
+        <v>TENAGA KERJA</v>
       </c>
       <c r="D474" t="str">
         <v>Tukang Vibrator</v>
@@ -11159,10 +11146,10 @@
         <v>467</v>
       </c>
       <c r="B475" t="str">
-        <v>LAIN-LAIN</v>
+        <v>TENAGA KERJA</v>
       </c>
       <c r="C475" t="str">
-        <v>LAIN-LAIN</v>
+        <v>TENAGA KERJA</v>
       </c>
       <c r="D475" t="str">
         <v>Tukang Ereksi</v>
@@ -11182,16 +11169,16 @@
         <v>468</v>
       </c>
       <c r="B476" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PERALATAN</v>
       </c>
       <c r="C476" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PERALATAN</v>
       </c>
       <c r="D476" t="str">
-        <v>Pipe Support</v>
+        <v>Sewa Pipe Support</v>
       </c>
       <c r="E476" t="str">
-        <v>bh/hr</v>
+        <v>buah hari</v>
       </c>
       <c r="F476">
         <v>0</v>
@@ -11205,16 +11192,16 @@
         <v>469</v>
       </c>
       <c r="B477" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PERALATAN</v>
       </c>
       <c r="C477" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PERALATAN</v>
       </c>
       <c r="D477" t="str">
-        <v>Scaffolding</v>
+        <v>Sewa Scaffolding</v>
       </c>
       <c r="E477" t="str">
-        <v>Jam</v>
+        <v>unit hari</v>
       </c>
       <c r="F477">
         <v>0</v>
@@ -11251,10 +11238,10 @@
         <v>471</v>
       </c>
       <c r="B479" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN DASAR</v>
       </c>
       <c r="C479" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PORTLAND CEMENT</v>
       </c>
       <c r="D479" t="str">
         <v>Semen Grout</v>
@@ -11300,7 +11287,7 @@
         <v>BAHAN BESI</v>
       </c>
       <c r="C481" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BESI BAJA</v>
       </c>
       <c r="D481" t="str">
         <v>Besi baja IWF</v>
@@ -11398,7 +11385,7 @@
         <v>Skrup fixer</v>
       </c>
       <c r="E485" t="str">
-        <v>bh</v>
+        <v>buah</v>
       </c>
       <c r="F485">
         <v>0</v>
@@ -11481,10 +11468,10 @@
         <v>481</v>
       </c>
       <c r="B489" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN KACA</v>
       </c>
       <c r="C489" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN KACA</v>
       </c>
       <c r="D489" t="str">
         <v>Profil kaca</v>
@@ -11573,10 +11560,10 @@
         <v>485</v>
       </c>
       <c r="B493" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PAVING BLOCK</v>
       </c>
       <c r="C493" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BATA ROOSTER</v>
       </c>
       <c r="D493" t="str">
         <v>Bata Rooster</v>
@@ -11596,10 +11583,10 @@
         <v>486</v>
       </c>
       <c r="B494" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PAVING BLOCK</v>
       </c>
       <c r="C494" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BATA BERONGGA</v>
       </c>
       <c r="D494" t="str">
         <v>Bata Berongga</v>
@@ -11743,7 +11730,7 @@
         <v>Dinabolt Ø 12 mm (10 s/d 15 cm)</v>
       </c>
       <c r="E500" t="str">
-        <v>bh</v>
+        <v>buah</v>
       </c>
       <c r="F500">
         <v>0</v>
@@ -11780,10 +11767,10 @@
         <v>494</v>
       </c>
       <c r="B502" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="C502" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BESI HOLLOW</v>
       </c>
       <c r="D502" t="str">
         <v>Besi Hollow (50x50x3) mm</v>
@@ -11826,10 +11813,10 @@
         <v>496</v>
       </c>
       <c r="B504" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PERALATAN</v>
       </c>
       <c r="C504" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PERALATAN</v>
       </c>
       <c r="D504" t="str">
         <v>Sewa alat</v>
@@ -11849,10 +11836,10 @@
         <v>497</v>
       </c>
       <c r="B505" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="C505" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KAWAT</v>
       </c>
       <c r="D505" t="str">
         <v>Kawat las</v>
@@ -11895,10 +11882,10 @@
         <v>499</v>
       </c>
       <c r="B507" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="C507" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="D507" t="str">
         <v>Besi Scuare tube</v>
@@ -11918,10 +11905,10 @@
         <v>500</v>
       </c>
       <c r="B508" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="C508" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="D508" t="str">
         <v>Besi List Kaca 1 x 1 cm</v>
@@ -11947,7 +11934,7 @@
         <v>LAIN-LAIN</v>
       </c>
       <c r="D509" t="str">
-        <v>Venetions Blinds atau Vertical Blinds (tirai)</v>
+        <v>Venetions Blinds dan Vertical Blinds (tirai)</v>
       </c>
       <c r="E509" t="str">
         <v>m2</v>
@@ -11964,10 +11951,10 @@
         <v>502</v>
       </c>
       <c r="B510" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="C510" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="D510" t="str">
         <v>Rangka metal hollow 40.40.2 mm</v>
@@ -12056,10 +12043,10 @@
         <v>506</v>
       </c>
       <c r="B514" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN DASAR</v>
       </c>
       <c r="C514" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PORTLAND CEMENT</v>
       </c>
       <c r="D514" t="str">
         <v>Mortar Siap Pakai</v>
@@ -12154,7 +12141,7 @@
         <v>UBIN (TEGEL BIASA)</v>
       </c>
       <c r="D518" t="str">
-        <v xml:space="preserve">UBIN (TEGEL BIASA) PC polos 40 X 40 cm </v>
+        <v>Ubin abu-abu</v>
       </c>
       <c r="E518" t="str">
         <v>bh</v>
@@ -12818,7 +12805,7 @@
         <v>BAHAN PENTUTUP DINDING/LANTAI</v>
       </c>
       <c r="C547" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KERAMIK</v>
       </c>
       <c r="D547" t="str">
         <v>Keramik artistik 10 x 20 cm</v>
@@ -12841,7 +12828,7 @@
         <v>BAHAN PENTUTUP DINDING/LANTAI</v>
       </c>
       <c r="C548" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KERAMIK</v>
       </c>
       <c r="D548" t="str">
         <v>Keramik artistik 5 x 20 cm</v>
@@ -12870,7 +12857,7 @@
         <v>Paku 12 cm</v>
       </c>
       <c r="E549" t="str">
-        <v>bh</v>
+        <v>kg</v>
       </c>
       <c r="F549">
         <v>0</v>
@@ -12884,10 +12871,10 @@
         <v>542</v>
       </c>
       <c r="B550" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN DASAR</v>
       </c>
       <c r="C550" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BATU BATA</v>
       </c>
       <c r="D550" t="str">
         <v>Bata pelapis</v>
@@ -12916,7 +12903,7 @@
         <v>Wallpaper</v>
       </c>
       <c r="E551" t="str">
-        <v>m</v>
+        <v>m2</v>
       </c>
       <c r="F551">
         <v>0</v>
@@ -12930,10 +12917,10 @@
         <v>544</v>
       </c>
       <c r="B552" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PAVING BLOCK</v>
       </c>
       <c r="C552" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PAVING BLOCK</v>
       </c>
       <c r="D552" t="str">
         <v>Paving Block Tebal 6 cm</v>
@@ -12953,10 +12940,10 @@
         <v>545</v>
       </c>
       <c r="B553" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PAVING BLOCK</v>
       </c>
       <c r="C553" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PAVING BLOCK</v>
       </c>
       <c r="D553" t="str">
         <v>Paving Block Berwarna Tebal 6 Cm</v>
@@ -12976,10 +12963,10 @@
         <v>546</v>
       </c>
       <c r="B554" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PAVING BLOCK</v>
       </c>
       <c r="C554" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PAVING BLOCK</v>
       </c>
       <c r="D554" t="str">
         <v>Paving Block Tebal Berwarna 8 Cm</v>
@@ -12999,10 +12986,10 @@
         <v>547</v>
       </c>
       <c r="B555" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="C555" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KAWAT</v>
       </c>
       <c r="D555" t="str">
         <v>Kawat diameter 4 mm</v>
@@ -13068,10 +13055,10 @@
         <v>550</v>
       </c>
       <c r="B558" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C558" t="str">
-        <v>LAIN-LAIN</v>
+        <v>ASBES GELOMBANG</v>
       </c>
       <c r="D558" t="str">
         <v>Asbes gelombang</v>
@@ -13114,10 +13101,10 @@
         <v>552</v>
       </c>
       <c r="B560" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C560" t="str">
-        <v>LAIN-LAIN</v>
+        <v>NOK</v>
       </c>
       <c r="D560" t="str">
         <v>Bubung stel gelombang</v>
@@ -13137,10 +13124,10 @@
         <v>553</v>
       </c>
       <c r="B561" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C561" t="str">
-        <v>LAIN-LAIN</v>
+        <v>NOK</v>
       </c>
       <c r="D561" t="str">
         <v>Nok paten 92 cm</v>
@@ -13160,10 +13147,10 @@
         <v>554</v>
       </c>
       <c r="B562" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C562" t="str">
-        <v>LAIN-LAIN</v>
+        <v>GENTENG ASPAL</v>
       </c>
       <c r="D562" t="str">
         <v>Genteng aspal</v>
@@ -13206,10 +13193,10 @@
         <v>556</v>
       </c>
       <c r="B564" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C564" t="str">
-        <v>LAIN-LAIN</v>
+        <v>GENTENG METAL</v>
       </c>
       <c r="D564" t="str">
         <v>Genteng metal</v>
@@ -13229,10 +13216,10 @@
         <v>557</v>
       </c>
       <c r="B565" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C565" t="str">
-        <v>LAIN-LAIN</v>
+        <v>NOK</v>
       </c>
       <c r="D565" t="str">
         <v>Nok genteng aspal</v>
@@ -13252,10 +13239,10 @@
         <v>558</v>
       </c>
       <c r="B566" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C566" t="str">
-        <v>LAIN-LAIN</v>
+        <v>NOK</v>
       </c>
       <c r="D566" t="str">
         <v>Nok genteng metal</v>
@@ -13321,10 +13308,10 @@
         <v>561</v>
       </c>
       <c r="B569" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C569" t="str">
-        <v>LAIN-LAIN</v>
+        <v>NOK</v>
       </c>
       <c r="D569" t="str">
         <v>Nok standar 40 x 18</v>
@@ -13367,10 +13354,10 @@
         <v>563</v>
       </c>
       <c r="B571" t="str">
-        <v>LAIN-LAIN</v>
+        <v>ALAT-ALAT PENGUNCI &amp; PENGGANTUNG</v>
       </c>
       <c r="C571" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KUNCI TANAM</v>
       </c>
       <c r="D571" t="str">
         <v>Kunci tanam antik</v>
@@ -13390,10 +13377,10 @@
         <v>564</v>
       </c>
       <c r="B572" t="str">
-        <v>LAIN-LAIN</v>
+        <v>ALAT-ALAT PENGUNCI &amp; PENGGANTUNG</v>
       </c>
       <c r="C572" t="str">
-        <v>LAIN-LAIN</v>
+        <v>SPRING KNIP</v>
       </c>
       <c r="D572" t="str">
         <v>Spring knip</v>
@@ -13413,10 +13400,10 @@
         <v>565</v>
       </c>
       <c r="B573" t="str">
-        <v>LAIN-LAIN</v>
+        <v>ALAT-ALAT PENGUNCI &amp; PENGGANTUNG</v>
       </c>
       <c r="C573" t="str">
-        <v>LAIN-LAIN</v>
+        <v>DOOR CLOSER</v>
       </c>
       <c r="D573" t="str">
         <v>Door closer</v>
@@ -13436,10 +13423,10 @@
         <v>566</v>
       </c>
       <c r="B574" t="str">
-        <v>LAIN-LAIN</v>
+        <v>ALAT-ALAT PENGUNCI &amp; PENGGANTUNG</v>
       </c>
       <c r="C574" t="str">
-        <v>LAIN-LAIN</v>
+        <v>DOOR HOLDER</v>
       </c>
       <c r="D574" t="str">
         <v>Door holder</v>
@@ -13459,10 +13446,10 @@
         <v>567</v>
       </c>
       <c r="B575" t="str">
-        <v>LAIN-LAIN</v>
+        <v>ALAT-ALAT PENGUNCI &amp; PENGGANTUNG</v>
       </c>
       <c r="C575" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KUNCI LEMARI</v>
       </c>
       <c r="D575" t="str">
         <v>Kunci lemari</v>
@@ -13482,10 +13469,10 @@
         <v>568</v>
       </c>
       <c r="B576" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN KACA</v>
       </c>
       <c r="C576" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KACA BURAM</v>
       </c>
       <c r="D576" t="str">
         <v>Kaca buram 12 mm</v>
@@ -13505,10 +13492,10 @@
         <v>569</v>
       </c>
       <c r="B577" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN KACA</v>
       </c>
       <c r="C577" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KACA CERMIN</v>
       </c>
       <c r="D577" t="str">
         <v>Kaca cermin 8 mm</v>
@@ -13528,10 +13515,10 @@
         <v>570</v>
       </c>
       <c r="B578" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN KACA</v>
       </c>
       <c r="C578" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KACA WIREGLASSED</v>
       </c>
       <c r="D578" t="str">
         <v>Kaca wireglassed 5 mm</v>
@@ -13551,10 +13538,10 @@
         <v>571</v>
       </c>
       <c r="B579" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN KACA</v>
       </c>
       <c r="C579" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KACA PATRI</v>
       </c>
       <c r="D579" t="str">
         <v>Kaca patri 5 mm</v>
@@ -13574,10 +13561,10 @@
         <v>572</v>
       </c>
       <c r="B580" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN FINISHING</v>
       </c>
       <c r="C580" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KAYU</v>
       </c>
       <c r="D580" t="str">
         <v>Teak Oil</v>
@@ -13597,10 +13584,10 @@
         <v>573</v>
       </c>
       <c r="B581" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN FINISHING</v>
       </c>
       <c r="C581" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KAYU</v>
       </c>
       <c r="D581" t="str">
         <v>Vernis</v>
@@ -13620,10 +13607,10 @@
         <v>574</v>
       </c>
       <c r="B582" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN FINISHING</v>
       </c>
       <c r="C582" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BESI</v>
       </c>
       <c r="D582" t="str">
         <v>Menie A</v>
@@ -13643,10 +13630,10 @@
         <v>575</v>
       </c>
       <c r="B583" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN FINISHING</v>
       </c>
       <c r="C583" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BESI</v>
       </c>
       <c r="D583" t="str">
         <v>Menie B</v>
@@ -13666,10 +13653,10 @@
         <v>576</v>
       </c>
       <c r="B584" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN FINISHING</v>
       </c>
       <c r="C584" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KAYU</v>
       </c>
       <c r="D584" t="str">
         <v>Kwas</v>
@@ -13689,10 +13676,10 @@
         <v>577</v>
       </c>
       <c r="B585" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN FINISHING</v>
       </c>
       <c r="C585" t="str">
-        <v>LAIN-LAIN</v>
+        <v>CAT</v>
       </c>
       <c r="D585" t="str">
         <v>Cat antara</v>
@@ -13712,10 +13699,10 @@
         <v>578</v>
       </c>
       <c r="B586" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN FINISHING</v>
       </c>
       <c r="C586" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KAYU</v>
       </c>
       <c r="D586" t="str">
         <v>Wood filler</v>
@@ -13758,10 +13745,10 @@
         <v>580</v>
       </c>
       <c r="B588" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN FINISHING</v>
       </c>
       <c r="C588" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KAYU</v>
       </c>
       <c r="D588" t="str">
         <v>Sanding</v>
@@ -13781,10 +13768,10 @@
         <v>581</v>
       </c>
       <c r="B589" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN FINISHING</v>
       </c>
       <c r="C589" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KAYU</v>
       </c>
       <c r="D589" t="str">
         <v>Melamic</v>
@@ -13827,10 +13814,10 @@
         <v>583</v>
       </c>
       <c r="B591" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="C591" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="D591" t="str">
         <v>Unioir</v>
@@ -13850,16 +13837,16 @@
         <v>584</v>
       </c>
       <c r="B592" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="C592" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="D592" t="str">
         <v>Batchuip</v>
       </c>
       <c r="E592" t="str">
-        <v>bh</v>
+        <v>Unit</v>
       </c>
       <c r="F592">
         <v>0</v>
@@ -13873,10 +13860,10 @@
         <v>585</v>
       </c>
       <c r="B593" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="C593" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="D593" t="str">
         <v>Bak fiberglass</v>
@@ -13919,10 +13906,10 @@
         <v>587</v>
       </c>
       <c r="B595" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="C595" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="D595" t="str">
         <v>Baja tulangan</v>
@@ -13942,10 +13929,10 @@
         <v>588</v>
       </c>
       <c r="B596" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="C596" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="D596" t="str">
         <v>Bak cuci piring</v>
@@ -13965,10 +13952,10 @@
         <v>589</v>
       </c>
       <c r="B597" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="C597" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="D597" t="str">
         <v>Waterdrain</v>
@@ -14040,7 +14027,7 @@
         <v>PIPA GALVANIS</v>
       </c>
       <c r="D600" t="str">
-        <v>Pipa Medium  Galvanis 1"</v>
+        <v>Pipa Galvanis 1"</v>
       </c>
       <c r="E600" t="str">
         <v>m</v>
@@ -14063,7 +14050,7 @@
         <v>PIPA GALVANIS</v>
       </c>
       <c r="D601" t="str">
-        <v>Pipa Medium  Galvanis 1,50"</v>
+        <v>Pipa  galvanis 1 1/2"</v>
       </c>
       <c r="E601" t="str">
         <v>m</v>
@@ -14086,7 +14073,7 @@
         <v>PIPA GALVANIS</v>
       </c>
       <c r="D602" t="str">
-        <v>Pipa Medium  Galvanis 3"</v>
+        <v>Pipa Galvanis 3"</v>
       </c>
       <c r="E602" t="str">
         <v>m</v>
@@ -14109,7 +14096,7 @@
         <v>PIPA GALVANIS</v>
       </c>
       <c r="D603" t="str">
-        <v>Pipa Medium  Galvanis 4"</v>
+        <v>Pipa  Galvanis 4"</v>
       </c>
       <c r="E603" t="str">
         <v>m</v>
@@ -14152,7 +14139,7 @@
         <v>BAHAN PIPA</v>
       </c>
       <c r="C605" t="str">
-        <v>PIPA</v>
+        <v>PIPA TANAH</v>
       </c>
       <c r="D605" t="str">
         <v>Pipa tanah</v>
@@ -14175,7 +14162,7 @@
         <v>BAHAN PIPA</v>
       </c>
       <c r="C606" t="str">
-        <v>PIPA</v>
+        <v>PIPA TANAH</v>
       </c>
       <c r="D606" t="str">
         <v>Pipa tanah diameter 15 cm</v>
@@ -14195,13 +14182,13 @@
         <v>599</v>
       </c>
       <c r="B607" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PERALATAN</v>
       </c>
       <c r="C607" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PERALATAN</v>
       </c>
       <c r="D607" t="str">
-        <v>Tripot/Tackel &amp; handle crane 2 T</v>
+        <v>Sewa Tripot/Tackel &amp; handle crane 2 T</v>
       </c>
       <c r="E607" t="str">
         <v>hari</v>
@@ -14480,7 +14467,7 @@
         <v>Pipa HDPE Ø 63  mm</v>
       </c>
       <c r="E619" t="str">
-        <v>m</v>
+        <v>buah</v>
       </c>
       <c r="F619">
         <v>0</v>
@@ -14503,7 +14490,7 @@
         <v>Pipa HDPE Ø 100  mm</v>
       </c>
       <c r="E620" t="str">
-        <v>m</v>
+        <v>buah</v>
       </c>
       <c r="F620">
         <v>0</v>
@@ -14526,7 +14513,7 @@
         <v>Pipa HDPE Ø 125  mm</v>
       </c>
       <c r="E621" t="str">
-        <v>m</v>
+        <v>buah</v>
       </c>
       <c r="F621">
         <v>0</v>
@@ -14549,7 +14536,7 @@
         <v>Pipa HDPE Ø 150  mm</v>
       </c>
       <c r="E622" t="str">
-        <v>m</v>
+        <v>buah</v>
       </c>
       <c r="F622">
         <v>0</v>
@@ -14572,7 +14559,7 @@
         <v>Pipa HDPE Ø 200  mm</v>
       </c>
       <c r="E623" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F623">
         <v>0</v>
@@ -14595,7 +14582,7 @@
         <v>Pipa HDPE Ø 250  mm</v>
       </c>
       <c r="E624" t="str">
-        <v>m</v>
+        <v>buah</v>
       </c>
       <c r="F624">
         <v>0</v>
@@ -14618,7 +14605,7 @@
         <v>Pipa HDPE Ø 400  mm</v>
       </c>
       <c r="E625" t="str">
-        <v>m</v>
+        <v>buah</v>
       </c>
       <c r="F625">
         <v>0</v>
@@ -14641,7 +14628,7 @@
         <v>Pipa HDPE Ø 300  mm</v>
       </c>
       <c r="E626" t="str">
-        <v>m</v>
+        <v>buah</v>
       </c>
       <c r="F626">
         <v>0</v>
@@ -14664,7 +14651,7 @@
         <v>Pipa HDPE Ø 450  mm</v>
       </c>
       <c r="E627" t="str">
-        <v>m</v>
+        <v>buah</v>
       </c>
       <c r="F627">
         <v>0</v>
@@ -14687,7 +14674,7 @@
         <v>Pipa HDPE Ø 500  mm</v>
       </c>
       <c r="E628" t="str">
-        <v>m</v>
+        <v>buah</v>
       </c>
       <c r="F628">
         <v>0</v>
@@ -14710,7 +14697,7 @@
         <v>Pipa HDPE Ø 600  mm</v>
       </c>
       <c r="E629" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F629">
         <v>0</v>
@@ -14733,7 +14720,7 @@
         <v>Pipa HDPE Ø 800  mm</v>
       </c>
       <c r="E630" t="str">
-        <v>m</v>
+        <v>buah</v>
       </c>
       <c r="F630">
         <v>0</v>
@@ -14756,7 +14743,7 @@
         <v>Pipa HDPE Ø 900  mm</v>
       </c>
       <c r="E631" t="str">
-        <v>m</v>
+        <v>buah</v>
       </c>
       <c r="F631">
         <v>0</v>
@@ -14779,7 +14766,7 @@
         <v>Pipa HDPE Ø 1000  mm</v>
       </c>
       <c r="E632" t="str">
-        <v>m</v>
+        <v>buah</v>
       </c>
       <c r="F632">
         <v>0</v>
@@ -14802,7 +14789,7 @@
         <v>Pipa HDPE Ø 1100  mm</v>
       </c>
       <c r="E633" t="str">
-        <v>m</v>
+        <v>buah</v>
       </c>
       <c r="F633">
         <v>0</v>
@@ -14825,7 +14812,7 @@
         <v>Pipa HDPE Ø 1200  mm</v>
       </c>
       <c r="E634" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F634">
         <v>0</v>
@@ -14848,7 +14835,7 @@
         <v>Pipa GIP Ø 63 mm</v>
       </c>
       <c r="E635" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F635">
         <v>0</v>
@@ -14871,7 +14858,7 @@
         <v>Pipa GIP Ø 100 mm</v>
       </c>
       <c r="E636" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F636">
         <v>0</v>
@@ -14917,7 +14904,7 @@
         <v>Pipa GIP Ø 150 mm</v>
       </c>
       <c r="E638" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F638">
         <v>0</v>
@@ -14940,7 +14927,7 @@
         <v>Pipa GIP Ø 200 mm</v>
       </c>
       <c r="E639" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F639">
         <v>0</v>
@@ -14963,7 +14950,7 @@
         <v>Pipa GIP Ø 300 mm</v>
       </c>
       <c r="E640" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F640">
         <v>0</v>
@@ -14986,7 +14973,7 @@
         <v>Pipa GIP Ø 400 mm</v>
       </c>
       <c r="E641" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F641">
         <v>0</v>
@@ -15009,7 +14996,7 @@
         <v>Pipa GIP Ø 450 mm</v>
       </c>
       <c r="E642" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F642">
         <v>0</v>
@@ -15032,7 +15019,7 @@
         <v>Pipa GIP Ø 500 mm</v>
       </c>
       <c r="E643" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F643">
         <v>0</v>
@@ -15055,7 +15042,7 @@
         <v>Pipa GIP Ø 600 mm</v>
       </c>
       <c r="E644" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F644">
         <v>0</v>
@@ -15078,7 +15065,7 @@
         <v>Pipa GIP Ø 800 mm</v>
       </c>
       <c r="E645" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F645">
         <v>0</v>
@@ -15101,7 +15088,7 @@
         <v>Pipa GIP Ø 900 mm</v>
       </c>
       <c r="E646" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F646">
         <v>0</v>
@@ -15124,7 +15111,7 @@
         <v>Pipa GIP Ø 1000  mm</v>
       </c>
       <c r="E647" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F647">
         <v>0</v>
@@ -15147,7 +15134,7 @@
         <v>Pipa GIP Ø 1100  mm</v>
       </c>
       <c r="E648" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F648">
         <v>0</v>
@@ -15170,7 +15157,7 @@
         <v>Pipa GIP Ø 1200  mm</v>
       </c>
       <c r="E649" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F649">
         <v>0</v>
@@ -15193,7 +15180,7 @@
         <v>Pipa DCI Ø 100 mm</v>
       </c>
       <c r="E650" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F650">
         <v>0</v>
@@ -15216,7 +15203,7 @@
         <v>Pipa DCI Ø 125 mm</v>
       </c>
       <c r="E651" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F651">
         <v>0</v>
@@ -15239,7 +15226,7 @@
         <v>Pipa DCI Ø 150 mm</v>
       </c>
       <c r="E652" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F652">
         <v>0</v>
@@ -15262,7 +15249,7 @@
         <v>Pipa DCI Ø 200 mm</v>
       </c>
       <c r="E653" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F653">
         <v>0</v>
@@ -15285,7 +15272,7 @@
         <v>Pipa DCI Ø 250 mm</v>
       </c>
       <c r="E654" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F654">
         <v>0</v>
@@ -15308,7 +15295,7 @@
         <v>Pipa DCI Ø 300 mm</v>
       </c>
       <c r="E655" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F655">
         <v>0</v>
@@ -15331,7 +15318,7 @@
         <v>Pipa DCI Ø 400 mm</v>
       </c>
       <c r="E656" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F656">
         <v>0</v>
@@ -15354,7 +15341,7 @@
         <v>Pipa DCI Ø 450 mm</v>
       </c>
       <c r="E657" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F657">
         <v>0</v>
@@ -15377,7 +15364,7 @@
         <v>Pipa DCI Ø 500 mm</v>
       </c>
       <c r="E658" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F658">
         <v>0</v>
@@ -15400,7 +15387,7 @@
         <v>Pipa DCI Ø 600 mm</v>
       </c>
       <c r="E659" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F659">
         <v>0</v>
@@ -15423,7 +15410,7 @@
         <v>Pipa DCI Ø 800 mm</v>
       </c>
       <c r="E660" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F660">
         <v>0</v>
@@ -15446,7 +15433,7 @@
         <v>Pipa DCI Ø 900 mm</v>
       </c>
       <c r="E661" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F661">
         <v>0</v>
@@ -15469,7 +15456,7 @@
         <v>Pipa DCI Ø 1000  mm</v>
       </c>
       <c r="E662" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F662">
         <v>0</v>
@@ -15492,7 +15479,7 @@
         <v>Pipa DCI Ø 1100  mm</v>
       </c>
       <c r="E663" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F663">
         <v>0</v>
@@ -15515,7 +15502,7 @@
         <v>Pipa DCI Ø 1200  mm</v>
       </c>
       <c r="E664" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F664">
         <v>0</v>
@@ -15538,7 +15525,7 @@
         <v>Pipa baja Ø 100 mm</v>
       </c>
       <c r="E665" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F665">
         <v>0</v>
@@ -15561,7 +15548,7 @@
         <v>Pipa baja Ø 125 mm</v>
       </c>
       <c r="E666" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F666">
         <v>0</v>
@@ -15584,7 +15571,7 @@
         <v>Pipa baja Ø 150 mm</v>
       </c>
       <c r="E667" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F667">
         <v>0</v>
@@ -15607,7 +15594,7 @@
         <v>Pipa baja Ø 200 mm</v>
       </c>
       <c r="E668" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F668">
         <v>0</v>
@@ -15630,7 +15617,7 @@
         <v>Pipa baja Ø 250 mm</v>
       </c>
       <c r="E669" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F669">
         <v>0</v>
@@ -15653,7 +15640,7 @@
         <v>Pipa baja Ø 300 mm</v>
       </c>
       <c r="E670" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F670">
         <v>0</v>
@@ -15676,7 +15663,7 @@
         <v>Pipa baja Ø 450 mm</v>
       </c>
       <c r="E671" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F671">
         <v>0</v>
@@ -15699,7 +15686,7 @@
         <v>Pipa baja Ø 400 mm</v>
       </c>
       <c r="E672" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F672">
         <v>0</v>
@@ -15722,7 +15709,7 @@
         <v>Pipa baja Ø 500 mm</v>
       </c>
       <c r="E673" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F673">
         <v>0</v>
@@ -15745,7 +15732,7 @@
         <v>Pipa baja Ø 600 mm</v>
       </c>
       <c r="E674" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F674">
         <v>0</v>
@@ -15768,7 +15755,7 @@
         <v>Pipa baja Ø 800 mm</v>
       </c>
       <c r="E675" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F675">
         <v>0</v>
@@ -15791,7 +15778,7 @@
         <v>Pipa baja Ø 900 mm</v>
       </c>
       <c r="E676" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F676">
         <v>0</v>
@@ -15814,7 +15801,7 @@
         <v>Pipa baja Ø 1000  mm</v>
       </c>
       <c r="E677" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F677">
         <v>0</v>
@@ -15837,7 +15824,7 @@
         <v>Pipa baja Ø 1100  mm</v>
       </c>
       <c r="E678" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F678">
         <v>0</v>
@@ -15860,7 +15847,7 @@
         <v>Pipa baja Ø 1200  mm</v>
       </c>
       <c r="E679" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F679">
         <v>0</v>
@@ -15883,7 +15870,7 @@
         <v>Pipa baja Ø 63 mm</v>
       </c>
       <c r="E680" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F680">
         <v>0</v>
@@ -15897,10 +15884,10 @@
         <v>676</v>
       </c>
       <c r="B681" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN DASAR</v>
       </c>
       <c r="C681" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BATU</v>
       </c>
       <c r="D681" t="str">
         <v>Batu Split Pecah Mesin 1/2</v>
@@ -15920,10 +15907,10 @@
         <v>677</v>
       </c>
       <c r="B682" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN DASAR</v>
       </c>
       <c r="C682" t="str">
-        <v>LAIN-LAIN</v>
+        <v>TANAH</v>
       </c>
       <c r="D682" t="str">
         <v>Tanah Urug</v>
@@ -15943,10 +15930,10 @@
         <v>678</v>
       </c>
       <c r="B683" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="C683" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BESI BETON</v>
       </c>
       <c r="D683" t="str">
         <v>Besi Beton U-24</v>
@@ -15989,7 +15976,7 @@
         <v>680</v>
       </c>
       <c r="B685" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C685" t="str">
         <v>LAIN-LAIN</v>
@@ -16012,10 +15999,10 @@
         <v>681</v>
       </c>
       <c r="B686" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN KAYU</v>
       </c>
       <c r="C686" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KAYU KLAS I</v>
       </c>
       <c r="D686" t="str">
         <v>Kayu klas I</v>
@@ -16035,10 +16022,10 @@
         <v>682</v>
       </c>
       <c r="B687" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN KAYU</v>
       </c>
       <c r="C687" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KAYU KLAS IV</v>
       </c>
       <c r="D687" t="str">
         <v>Kayu klas IV</v>
@@ -16196,10 +16183,10 @@
         <v>689</v>
       </c>
       <c r="B694" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN PENTUTUP DINDING/LANTAI</v>
       </c>
       <c r="C694" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PLINT KERAMIK</v>
       </c>
       <c r="D694" t="str">
         <v>Plint Keramik 10 x 30 cm</v>
@@ -16219,10 +16206,10 @@
         <v>690</v>
       </c>
       <c r="B695" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C695" t="str">
-        <v>LAIN-LAIN</v>
+        <v>SENG PLAT</v>
       </c>
       <c r="D695" t="str">
         <v>SENG PLAT BJLS 0,30 lebar 90 cm</v>
@@ -16242,10 +16229,10 @@
         <v>691</v>
       </c>
       <c r="B696" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN KACA</v>
       </c>
       <c r="C696" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KACA POLOS</v>
       </c>
       <c r="D696" t="str">
         <v>Kaca Polos 8 mm</v>
@@ -16265,7 +16252,7 @@
         <v>692</v>
       </c>
       <c r="B697" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="C697" t="str">
         <v>LAIN-LAIN</v>
@@ -16288,7 +16275,7 @@
         <v>693</v>
       </c>
       <c r="B698" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="C698" t="str">
         <v>LAIN-LAIN</v>
@@ -16311,7 +16298,7 @@
         <v>694</v>
       </c>
       <c r="B699" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="C699" t="str">
         <v>LAIN-LAIN</v>
@@ -16334,7 +16321,7 @@
         <v>695</v>
       </c>
       <c r="B700" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="C700" t="str">
         <v>LAIN-LAIN</v>
@@ -16357,7 +16344,7 @@
         <v>696</v>
       </c>
       <c r="B701" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="C701" t="str">
         <v>LAIN-LAIN</v>
@@ -16380,10 +16367,10 @@
         <v>697</v>
       </c>
       <c r="B702" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN LANGIT-LANGIT</v>
       </c>
       <c r="C702" t="str">
-        <v>LAIN-LAIN</v>
+        <v>GYPSUM</v>
       </c>
       <c r="D702" t="str">
         <v>List profil gypsum 5 cm</v>
@@ -16403,10 +16390,10 @@
         <v>698</v>
       </c>
       <c r="B703" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN PENUTUP ATAP</v>
       </c>
       <c r="C703" t="str">
-        <v>LAIN-LAIN</v>
+        <v>PLAFOND</v>
       </c>
       <c r="D703" t="str">
         <v>Rangka plafond metal furing</v>
@@ -16426,7 +16413,7 @@
         <v>699</v>
       </c>
       <c r="B704" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="C704" t="str">
         <v>LAIN-LAIN</v>
@@ -16449,7 +16436,7 @@
         <v>700</v>
       </c>
       <c r="B705" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="C705" t="str">
         <v>LAIN-LAIN</v>
@@ -16472,7 +16459,7 @@
         <v>701</v>
       </c>
       <c r="B706" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN FINISHING</v>
       </c>
       <c r="C706" t="str">
         <v>LAIN-LAIN</v>
@@ -16495,7 +16482,7 @@
         <v>702</v>
       </c>
       <c r="B707" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN FINISHING</v>
       </c>
       <c r="C707" t="str">
         <v>LAIN-LAIN</v>
@@ -16518,7 +16505,7 @@
         <v>703</v>
       </c>
       <c r="B708" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN FINISHING</v>
       </c>
       <c r="C708" t="str">
         <v>LAIN-LAIN</v>
@@ -16541,7 +16528,7 @@
         <v>704</v>
       </c>
       <c r="B709" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN SANITAIR</v>
       </c>
       <c r="C709" t="str">
         <v>LAIN-LAIN</v>
@@ -16564,10 +16551,10 @@
         <v>705</v>
       </c>
       <c r="B710" t="str">
-        <v>LAIN-LAIN</v>
+        <v>POMPA AIR</v>
       </c>
       <c r="C710" t="str">
-        <v>LAIN-LAIN</v>
+        <v>POMPA LISTRIK</v>
       </c>
       <c r="D710" t="str">
         <v>Mesin Jet Pump Kapasitas 250 Watt</v>
@@ -16659,7 +16646,7 @@
         <v>BAHAN INSTALASI LISTRIK</v>
       </c>
       <c r="C714" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KABEL LISTRIK</v>
       </c>
       <c r="D714" t="str">
         <v>KABEL LISTRIK NYM 2 X 2,5 mm2</v>
@@ -16682,7 +16669,7 @@
         <v>BAHAN INSTALASI LISTRIK</v>
       </c>
       <c r="C715" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KABEL LISTRIK</v>
       </c>
       <c r="D715" t="str">
         <v>KABEL LISTRIK NYM 3 X 2,5 mm2</v>
@@ -16705,7 +16692,7 @@
         <v>BAHAN INSTALASI LISTRIK</v>
       </c>
       <c r="C716" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KABEL TELEPON</v>
       </c>
       <c r="D716" t="str">
         <v>Kabel telephone 4 x 0.5 mm</v>
@@ -16751,7 +16738,7 @@
         <v>BAHAN INSTALASI LISTRIK</v>
       </c>
       <c r="C718" t="str">
-        <v>LAIN-LAIN</v>
+        <v>SAKLAR</v>
       </c>
       <c r="D718" t="str">
         <v>Saklar tunggal</v>
@@ -16774,7 +16761,7 @@
         <v>BAHAN INSTALASI LISTRIK</v>
       </c>
       <c r="C719" t="str">
-        <v>LAIN-LAIN</v>
+        <v>SAKLAR</v>
       </c>
       <c r="D719" t="str">
         <v>Saklar ganda</v>
@@ -16866,7 +16853,7 @@
         <v>BAHAN INSTALASI LISTRIK</v>
       </c>
       <c r="C723" t="str">
-        <v>LAIN-LAIN</v>
+        <v>FITTING</v>
       </c>
       <c r="D723" t="str">
         <v>Fitting plafond + lampu SL</v>
@@ -16889,7 +16876,7 @@
         <v>BAHAN INSTALASI LISTRIK</v>
       </c>
       <c r="C724" t="str">
-        <v>LAIN-LAIN</v>
+        <v>LAMPU</v>
       </c>
       <c r="D724" t="str">
         <v>Lampu TL 2 x 18 watt grille</v>
@@ -16912,7 +16899,7 @@
         <v>BAHAN INSTALASI LISTRIK</v>
       </c>
       <c r="C725" t="str">
-        <v>LAIN-LAIN</v>
+        <v>LAMPU</v>
       </c>
       <c r="D725" t="str">
         <v>Lampu TL 2 x 36 watt grille</v>
@@ -16932,10 +16919,10 @@
         <v>721</v>
       </c>
       <c r="B726" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="C726" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BESI TEMPA</v>
       </c>
       <c r="D726" t="str">
         <v>Besi tempa</v>
@@ -17033,7 +17020,7 @@
         <v>Pipa GIP Ø 250 mm</v>
       </c>
       <c r="E730" t="str">
-        <v>m</v>
+        <v>bh</v>
       </c>
       <c r="F730">
         <v>0</v>
@@ -17392,10 +17379,10 @@
         <v>741</v>
       </c>
       <c r="B746" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>BAHAN PIPA</v>
       </c>
       <c r="C746" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>TEE</v>
       </c>
       <c r="D746" t="str">
         <v>Tee Ø 150 mm</v>
@@ -17415,10 +17402,10 @@
         <v>742</v>
       </c>
       <c r="B747" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>BAHAN PIPA</v>
       </c>
       <c r="C747" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>TEE</v>
       </c>
       <c r="D747" t="str">
         <v>Tee Ø 200 mm</v>
@@ -17438,10 +17425,10 @@
         <v>743</v>
       </c>
       <c r="B748" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>BAHAN PIPA</v>
       </c>
       <c r="C748" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>TEE</v>
       </c>
       <c r="D748" t="str">
         <v>Tee Ø 250 mm</v>
@@ -17461,10 +17448,10 @@
         <v>744</v>
       </c>
       <c r="B749" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>BAHAN PIPA</v>
       </c>
       <c r="C749" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>TEE</v>
       </c>
       <c r="D749" t="str">
         <v>Tee Ø 300 mm</v>
@@ -17530,10 +17517,10 @@
         <v>747</v>
       </c>
       <c r="B752" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>BAHAN PIPA</v>
       </c>
       <c r="C752" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>TEE</v>
       </c>
       <c r="D752" t="str">
         <v>Tee Ø 500 mm</v>
@@ -17553,10 +17540,10 @@
         <v>748</v>
       </c>
       <c r="B753" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>BAHAN PIPA</v>
       </c>
       <c r="C753" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>TEE</v>
       </c>
       <c r="D753" t="str">
         <v>Tee Ø 600 mm</v>
@@ -17576,10 +17563,10 @@
         <v>749</v>
       </c>
       <c r="B754" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>BAHAN PIPA</v>
       </c>
       <c r="C754" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>TEE</v>
       </c>
       <c r="D754" t="str">
         <v>Tee Ø 700 mm</v>
@@ -17599,10 +17586,10 @@
         <v>750</v>
       </c>
       <c r="B755" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>BAHAN PIPA</v>
       </c>
       <c r="C755" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>TEE</v>
       </c>
       <c r="D755" t="str">
         <v>Tee Ø 800 mm</v>
@@ -17622,10 +17609,10 @@
         <v>751</v>
       </c>
       <c r="B756" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>BAHAN PIPA</v>
       </c>
       <c r="C756" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>TEE</v>
       </c>
       <c r="D756" t="str">
         <v>Tee Ø 900 mm</v>
@@ -17645,10 +17632,10 @@
         <v>752</v>
       </c>
       <c r="B757" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>BAHAN PIPA</v>
       </c>
       <c r="C757" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>TEE</v>
       </c>
       <c r="D757" t="str">
         <v>Tee Ø 1000 mm</v>
@@ -17668,10 +17655,10 @@
         <v>753</v>
       </c>
       <c r="B758" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>BAHAN PIPA</v>
       </c>
       <c r="C758" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>TEE</v>
       </c>
       <c r="D758" t="str">
         <v>Tee Ø 1100 mm</v>
@@ -17691,10 +17678,10 @@
         <v>754</v>
       </c>
       <c r="B759" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>BAHAN PIPA</v>
       </c>
       <c r="C759" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>TEE</v>
       </c>
       <c r="D759" t="str">
         <v>Tee Ø 1200 mm</v>
@@ -17714,10 +17701,10 @@
         <v>755</v>
       </c>
       <c r="B760" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>LAIN-LAIN</v>
       </c>
       <c r="C760" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>LAIN-LAIN</v>
       </c>
       <c r="D760" t="str">
         <v>Genset 1500  watt</v>
@@ -17737,10 +17724,10 @@
         <v>756</v>
       </c>
       <c r="B761" t="str">
-        <v>LAIN-LAIN</v>
+        <v>POMPA AIR</v>
       </c>
       <c r="C761" t="str">
-        <v>LAIN-LAIN</v>
+        <v>POMPA LISTRIK</v>
       </c>
       <c r="D761" t="str">
         <v>Pompa  Submersible 3m3/h</v>
@@ -18082,10 +18069,10 @@
         <v>771</v>
       </c>
       <c r="B776" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>BAHAN PIPA</v>
       </c>
       <c r="C776" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>LAIN-LAIN</v>
       </c>
       <c r="D776" t="str">
         <v>Pipa listrik 5/8</v>
@@ -18223,7 +18210,7 @@
         <v>BAHAN INSTALASI LISTRIK</v>
       </c>
       <c r="C782" t="str">
-        <v>BAHAN INSTALASI LISTRIK</v>
+        <v>FITING</v>
       </c>
       <c r="D782" t="str">
         <v>Fitting</v>
@@ -18634,10 +18621,10 @@
         <v>796</v>
       </c>
       <c r="B800" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN KAYU</v>
       </c>
       <c r="C800" t="str">
-        <v>LAIN-LAIN</v>
+        <v>KAYU PERANCAH</v>
       </c>
       <c r="D800" t="str">
         <v>Kayu Perancah</v>
@@ -18703,7 +18690,7 @@
         <v>799</v>
       </c>
       <c r="B803" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN PIPA</v>
       </c>
       <c r="C803" t="str">
         <v>LAIN-LAIN</v>
@@ -19002,10 +18989,10 @@
         <v>812</v>
       </c>
       <c r="B816" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="C816" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAJA TULANGAN</v>
       </c>
       <c r="D816" t="str">
         <v>Baja tulangan (polos) U24</v>
@@ -19025,10 +19012,10 @@
         <v>813</v>
       </c>
       <c r="B817" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="C817" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAJA TULANGAN</v>
       </c>
       <c r="D817" t="str">
         <v>Baja tulangan (ulir) D32</v>
@@ -19209,10 +19196,10 @@
         <v>821</v>
       </c>
       <c r="B825" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="C825" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAJA STRUKTUR</v>
       </c>
       <c r="D825" t="str">
         <v>Baja Struktur</v>
@@ -19347,10 +19334,10 @@
         <v>827</v>
       </c>
       <c r="B831" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN PENTUTUP DINDING/LANTAI</v>
       </c>
       <c r="C831" t="str">
-        <v>LAIN-LAIN</v>
+        <v>MARMER</v>
       </c>
       <c r="D831" t="str">
         <v>Marmer ukuran 10x10 cm Tulisan graphir</v>
@@ -19393,10 +19380,10 @@
         <v>829</v>
       </c>
       <c r="B833" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN PENTUTUP DINDING/LANTAI</v>
       </c>
       <c r="C833" t="str">
-        <v>LAIN-LAIN</v>
+        <v>MARMER</v>
       </c>
       <c r="D833" t="str">
         <v>Marmer ukuran 12x12 cm Tulisan graphir</v>
@@ -19468,10 +19455,10 @@
         <v>LAIN-LAIN</v>
       </c>
       <c r="D836" t="str">
-        <v>Bahan Pengaman Tebing Galian, kayu</v>
+        <v>Bahan Pengaman Tebing Galian</v>
       </c>
       <c r="E836" t="str">
-        <v>Ls</v>
+        <v>m3</v>
       </c>
       <c r="F836">
         <v>0</v>
@@ -19577,7 +19564,7 @@
         <v>837</v>
       </c>
       <c r="B841" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN KAYU</v>
       </c>
       <c r="C841" t="str">
         <v>LAIN-LAIN</v>
@@ -19807,7 +19794,7 @@
         <v>847</v>
       </c>
       <c r="B851" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="C851" t="str">
         <v>LAIN-LAIN</v>
@@ -19830,10 +19817,10 @@
         <v>848</v>
       </c>
       <c r="B852" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAHAN BESI</v>
       </c>
       <c r="C852" t="str">
-        <v>LAIN-LAIN</v>
+        <v>BAJA TULANGAN</v>
       </c>
       <c r="D852" t="str">
         <v>Baja Tulangan Polos/Dowel D32</v>
@@ -19922,7 +19909,7 @@
         <v>852</v>
       </c>
       <c r="B856" t="str">
-        <v>BAHAN DASARA</v>
+        <v>BAHAN DASAR</v>
       </c>
       <c r="C856" t="str">
         <v>AGREGAT</v>
@@ -20124,26 +20111,4770 @@
         <v/>
       </c>
     </row>
+    <row r="865">
+      <c r="A865">
+        <v>862</v>
+      </c>
+      <c r="B865" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C865" t="str">
+        <v>BATU</v>
+      </c>
+      <c r="D865" t="str">
+        <v>Koral Beton  (m3)</v>
+      </c>
+      <c r="E865" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F865">
+        <v>0</v>
+      </c>
+      <c r="G865" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866">
+        <v>864</v>
+      </c>
+      <c r="B866" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C866" t="str">
+        <v>KERIKIL</v>
+      </c>
+      <c r="D866" t="str">
+        <v>KERIKIL Biasa (m3)</v>
+      </c>
+      <c r="E866" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F866">
+        <v>0</v>
+      </c>
+      <c r="G866" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867">
+        <v>865</v>
+      </c>
+      <c r="B867" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C867" t="str">
+        <v>PASIR</v>
+      </c>
+      <c r="D867" t="str">
+        <v>PASIR Urug</v>
+      </c>
+      <c r="E867" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F867">
+        <v>0</v>
+      </c>
+      <c r="G867" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868">
+        <v>866</v>
+      </c>
+      <c r="B868" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C868" t="str">
+        <v>PASIR</v>
+      </c>
+      <c r="D868" t="str">
+        <v>PASIR Pasang</v>
+      </c>
+      <c r="E868" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F868">
+        <v>0</v>
+      </c>
+      <c r="G868" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869">
+        <v>867</v>
+      </c>
+      <c r="B869" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C869" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D869" t="str">
+        <v>Air (m3)</v>
+      </c>
+      <c r="E869" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F869">
+        <v>0</v>
+      </c>
+      <c r="G869" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870">
+        <v>868</v>
+      </c>
+      <c r="B870" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C870" t="str">
+        <v>KERIKIL</v>
+      </c>
+      <c r="D870" t="str">
+        <v>KERIKIL Beton 0.5/1 (m3)</v>
+      </c>
+      <c r="E870" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F870">
+        <v>0</v>
+      </c>
+      <c r="G870" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871">
+        <v>869</v>
+      </c>
+      <c r="B871" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C871" t="str">
+        <v>PASIR</v>
+      </c>
+      <c r="D871" t="str">
+        <v>Pasir Beton</v>
+      </c>
+      <c r="E871" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F871">
+        <v>0</v>
+      </c>
+      <c r="G871" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872">
+        <v>869</v>
+      </c>
+      <c r="B872" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C872" t="str">
+        <v>PASIR</v>
+      </c>
+      <c r="D872" t="str">
+        <v>Pasir Beton</v>
+      </c>
+      <c r="E872" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F872">
+        <v>0</v>
+      </c>
+      <c r="G872" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873">
+        <v>870</v>
+      </c>
+      <c r="B873" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="C873" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="D873" t="str">
+        <v>Pan Mixer</v>
+      </c>
+      <c r="E873" t="str">
+        <v>jam</v>
+      </c>
+      <c r="F873">
+        <v>0</v>
+      </c>
+      <c r="G873" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874">
+        <v>871</v>
+      </c>
+      <c r="B874" t="str">
+        <v>BAHAN BESI</v>
+      </c>
+      <c r="C874" t="str">
+        <v>BAJA STRUKTUR</v>
+      </c>
+      <c r="D874" t="str">
+        <v>Baja Struktur Titik Leleh 3500 kg/cm2</v>
+      </c>
+      <c r="E874" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F874">
+        <v>0</v>
+      </c>
+      <c r="G874" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875">
+        <v>872</v>
+      </c>
+      <c r="B875" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="C875" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="D875" t="str">
+        <v>Tronton</v>
+      </c>
+      <c r="E875" t="str">
+        <v>jam</v>
+      </c>
+      <c r="F875">
+        <v>0</v>
+      </c>
+      <c r="G875" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876">
+        <v>873</v>
+      </c>
+      <c r="B876" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C876" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D876" t="str">
+        <v>Casing</v>
+      </c>
+      <c r="E876" t="str">
+        <v>m2</v>
+      </c>
+      <c r="F876">
+        <v>0</v>
+      </c>
+      <c r="G876" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877">
+        <v>874</v>
+      </c>
+      <c r="B877" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="C877" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="D877" t="str">
+        <v>Bore Pile</v>
+      </c>
+      <c r="E877" t="str">
+        <v>jam</v>
+      </c>
+      <c r="F877">
+        <v>0</v>
+      </c>
+      <c r="G877" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878">
+        <v>875</v>
+      </c>
+      <c r="B878" t="str">
+        <v>AGGREGAT</v>
+      </c>
+      <c r="C878" t="str">
+        <v>AGGREGAT</v>
+      </c>
+      <c r="D878" t="str">
+        <v>Beton K.175</v>
+      </c>
+      <c r="E878" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F878">
+        <v>0</v>
+      </c>
+      <c r="G878" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879">
+        <v>876</v>
+      </c>
+      <c r="B879" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C879" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D879" t="str">
+        <v>Patok Beton K.175</v>
+      </c>
+      <c r="E879" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F879">
+        <v>0</v>
+      </c>
+      <c r="G879" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880">
+        <v>877</v>
+      </c>
+      <c r="B880" t="str">
+        <v>BAHAN PENGIKAT KAYU</v>
+      </c>
+      <c r="C880" t="str">
+        <v>BAUT</v>
+      </c>
+      <c r="D880" t="str">
+        <v>Baut</v>
+      </c>
+      <c r="E880" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F880">
+        <v>0</v>
+      </c>
+      <c r="G880" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881">
+        <v>878</v>
+      </c>
+      <c r="B881" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C881" t="str">
+        <v>TANAH</v>
+      </c>
+      <c r="D881" t="str">
+        <v>Tanah Liat</v>
+      </c>
+      <c r="E881" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F881">
+        <v>0</v>
+      </c>
+      <c r="G881" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882">
+        <v>879</v>
+      </c>
+      <c r="B882" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C882" t="str">
+        <v>KERIKIL</v>
+      </c>
+      <c r="D882" t="str">
+        <v>Kerikil (Maks 30 mm)</v>
+      </c>
+      <c r="E882" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F882">
+        <v>0</v>
+      </c>
+      <c r="G882" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883">
+        <v>880</v>
+      </c>
+      <c r="B883" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C883" t="str">
+        <v>KERIKIL</v>
+      </c>
+      <c r="D883" t="str">
+        <v>Kerikil (Maks 30 mm) (m3)</v>
+      </c>
+      <c r="E883" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F883">
+        <v>0</v>
+      </c>
+      <c r="G883" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884">
+        <v>881</v>
+      </c>
+      <c r="B884" t="str">
+        <v>BAHAN PENGIKAT KAYU</v>
+      </c>
+      <c r="C884" t="str">
+        <v>PAKU</v>
+      </c>
+      <c r="D884" t="str">
+        <v>Paku 5-10 cm</v>
+      </c>
+      <c r="E884" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F884">
+        <v>0</v>
+      </c>
+      <c r="G884" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885">
+        <v>882</v>
+      </c>
+      <c r="B885" t="str">
+        <v>BAHAN PENGIKAT KAYU</v>
+      </c>
+      <c r="C885" t="str">
+        <v>PAKU</v>
+      </c>
+      <c r="D885" t="str">
+        <v>Paku 5-7 cm</v>
+      </c>
+      <c r="E885" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F885">
+        <v>0</v>
+      </c>
+      <c r="G885" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886">
+        <v>883</v>
+      </c>
+      <c r="B886" t="str">
+        <v>BAHAN BESI</v>
+      </c>
+      <c r="C886" t="str">
+        <v>BESI SIKU</v>
+      </c>
+      <c r="D886" t="str">
+        <v>Besi siku L 30.30.3</v>
+      </c>
+      <c r="E886" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F886">
+        <v>0</v>
+      </c>
+      <c r="G886" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887">
+        <v>884</v>
+      </c>
+      <c r="B887" t="str">
+        <v>BAHAN BESI</v>
+      </c>
+      <c r="C887" t="str">
+        <v>BESI</v>
+      </c>
+      <c r="D887" t="str">
+        <v>Besi pelat baja</v>
+      </c>
+      <c r="E887" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F887">
+        <v>0</v>
+      </c>
+      <c r="G887" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888">
+        <v>885</v>
+      </c>
+      <c r="B888" t="str">
+        <v>BAHAN PENGIKAT KAYU</v>
+      </c>
+      <c r="C888" t="str">
+        <v>PAKU</v>
+      </c>
+      <c r="D888" t="str">
+        <v>Paku 1 - 2.5 cm</v>
+      </c>
+      <c r="E888" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F888">
+        <v>0</v>
+      </c>
+      <c r="G888" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889">
+        <v>886</v>
+      </c>
+      <c r="B889" t="str">
+        <v>BAHAN BESI</v>
+      </c>
+      <c r="C889" t="str">
+        <v>BAJA RINGAN</v>
+      </c>
+      <c r="D889" t="str">
+        <v>Baja ringan canai dingin C75</v>
+      </c>
+      <c r="E889" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F889">
+        <v>0</v>
+      </c>
+      <c r="G889" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890">
+        <v>887</v>
+      </c>
+      <c r="B890" t="str">
+        <v>BAHAN BESI</v>
+      </c>
+      <c r="C890" t="str">
+        <v>BESI</v>
+      </c>
+      <c r="D890" t="str">
+        <v>Besi angker diameter 8</v>
+      </c>
+      <c r="E890" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F890">
+        <v>0</v>
+      </c>
+      <c r="G890" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891">
+        <v>888</v>
+      </c>
+      <c r="B891" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C891" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D891" t="str">
+        <v>Lem</v>
+      </c>
+      <c r="E891" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F891">
+        <v>0</v>
+      </c>
+      <c r="G891" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892">
+        <v>889</v>
+      </c>
+      <c r="B892" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C892" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D892" t="str">
+        <v>Sealant</v>
+      </c>
+      <c r="E892" t="str">
+        <v>Kg</v>
+      </c>
+      <c r="F892">
+        <v>0</v>
+      </c>
+      <c r="G892" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893">
+        <v>890</v>
+      </c>
+      <c r="B893" t="str">
+        <v>BAHAN KAYU</v>
+      </c>
+      <c r="C893" t="str">
+        <v>KAYU</v>
+      </c>
+      <c r="D893" t="str">
+        <v>Papan kayu kelas I</v>
+      </c>
+      <c r="E893" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F893">
+        <v>0</v>
+      </c>
+      <c r="G893" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894">
+        <v>891</v>
+      </c>
+      <c r="B894" t="str">
+        <v>BAHAN PENGIKAT KAYU</v>
+      </c>
+      <c r="C894" t="str">
+        <v>PAKU</v>
+      </c>
+      <c r="D894" t="str">
+        <v>Paku/Skrup 5 cm</v>
+      </c>
+      <c r="E894" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F894">
+        <v>0</v>
+      </c>
+      <c r="G894" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895">
+        <v>892</v>
+      </c>
+      <c r="B895" t="str">
+        <v>PAVING BLOK</v>
+      </c>
+      <c r="C895" t="str">
+        <v>PAVING BLOK</v>
+      </c>
+      <c r="D895" t="str">
+        <v>Paving Block Tebal 8 cm natural</v>
+      </c>
+      <c r="E895" t="str">
+        <v>m2</v>
+      </c>
+      <c r="F895">
+        <v>0</v>
+      </c>
+      <c r="G895" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896">
+        <v>893</v>
+      </c>
+      <c r="B896" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C896" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D896" t="str">
+        <v>Cat penutup</v>
+      </c>
+      <c r="E896" t="str">
+        <v>Kg</v>
+      </c>
+      <c r="F896">
+        <v>0</v>
+      </c>
+      <c r="G896" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897">
+        <v>894</v>
+      </c>
+      <c r="B897" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C897" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D897" t="str">
+        <v>Politur</v>
+      </c>
+      <c r="E897" t="str">
+        <v>ltr</v>
+      </c>
+      <c r="F897">
+        <v>0</v>
+      </c>
+      <c r="G897" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898">
+        <v>895</v>
+      </c>
+      <c r="B898" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C898" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D898" t="str">
+        <v>Dempul</v>
+      </c>
+      <c r="E898" t="str">
+        <v>Kg</v>
+      </c>
+      <c r="F898">
+        <v>0</v>
+      </c>
+      <c r="G898" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899">
+        <v>896</v>
+      </c>
+      <c r="B899" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C899" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D899" t="str">
+        <v>Perancah kayu</v>
+      </c>
+      <c r="E899" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F899">
+        <v>0</v>
+      </c>
+      <c r="G899" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900">
+        <v>897</v>
+      </c>
+      <c r="B900" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C900" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D900" t="str">
+        <v>Cat</v>
+      </c>
+      <c r="E900" t="str">
+        <v>Kg</v>
+      </c>
+      <c r="F900">
+        <v>0</v>
+      </c>
+      <c r="G900" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901">
+        <v>898</v>
+      </c>
+      <c r="B901" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C901" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D901" t="str">
+        <v>Pengencer</v>
+      </c>
+      <c r="E901" t="str">
+        <v>L</v>
+      </c>
+      <c r="F901">
+        <v>0</v>
+      </c>
+      <c r="G901" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902">
+        <v>899</v>
+      </c>
+      <c r="B902" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C902" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D902" t="str">
+        <v>Thinner</v>
+      </c>
+      <c r="E902" t="str">
+        <v>L</v>
+      </c>
+      <c r="F902">
+        <v>0</v>
+      </c>
+      <c r="G902" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903">
+        <v>900</v>
+      </c>
+      <c r="B903" t="str">
+        <v>BAHAN PENGIKAT KAYU</v>
+      </c>
+      <c r="C903" t="str">
+        <v>PAKU</v>
+      </c>
+      <c r="D903" t="str">
+        <v>Paku tripleks</v>
+      </c>
+      <c r="E903" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F903">
+        <v>0</v>
+      </c>
+      <c r="G903" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904">
+        <v>901</v>
+      </c>
+      <c r="B904" t="str">
+        <v>BAHAN PENUTUP ATAP</v>
+      </c>
+      <c r="C904" t="str">
+        <v>ASBES</v>
+      </c>
+      <c r="D904" t="str">
+        <v>Asbes semen</v>
+      </c>
+      <c r="E904" t="str">
+        <v>m2</v>
+      </c>
+      <c r="F904">
+        <v>0</v>
+      </c>
+      <c r="G904" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905">
+        <v>902</v>
+      </c>
+      <c r="B905" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C905" t="str">
+        <v>GENTENG</v>
+      </c>
+      <c r="D905" t="str">
+        <v>Genteng bubung</v>
+      </c>
+      <c r="E905" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F905">
+        <v>0</v>
+      </c>
+      <c r="G905" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906">
+        <v>903</v>
+      </c>
+      <c r="B906" t="str">
+        <v>BAHAN PENGIKAT KAYU</v>
+      </c>
+      <c r="C906" t="str">
+        <v>PAKU</v>
+      </c>
+      <c r="D906" t="str">
+        <v>Paku 0.5" - 1"</v>
+      </c>
+      <c r="E906" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F906">
+        <v>0</v>
+      </c>
+      <c r="G906" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907">
+        <v>904</v>
+      </c>
+      <c r="B907" t="str">
+        <v>BAHAN PENGIKAT KAYU</v>
+      </c>
+      <c r="C907" t="str">
+        <v>PAKU</v>
+      </c>
+      <c r="D907" t="str">
+        <v>Paku skrup 3.5"</v>
+      </c>
+      <c r="E907" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F907">
+        <v>0</v>
+      </c>
+      <c r="G907" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908">
+        <v>905</v>
+      </c>
+      <c r="B908" t="str">
+        <v>BAHAN PENUTUP ATAP</v>
+      </c>
+      <c r="C908" t="str">
+        <v>NOK</v>
+      </c>
+      <c r="D908" t="str">
+        <v>Nok genteng beton</v>
+      </c>
+      <c r="E908" t="str">
+        <v>bn</v>
+      </c>
+      <c r="F908">
+        <v>0</v>
+      </c>
+      <c r="G908" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909">
+        <v>906</v>
+      </c>
+      <c r="B909" t="str">
+        <v>BAHAN PENGIKAT KAYU</v>
+      </c>
+      <c r="C909" t="str">
+        <v>PAKU</v>
+      </c>
+      <c r="D909" t="str">
+        <v>Paku 10 cm</v>
+      </c>
+      <c r="E909" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F909">
+        <v>0</v>
+      </c>
+      <c r="G909" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910">
+        <v>907</v>
+      </c>
+      <c r="B910" t="str">
+        <v>BAHAN KAYU</v>
+      </c>
+      <c r="C910" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D910" t="str">
+        <v>Kaso-kaso 5x7 cm</v>
+      </c>
+      <c r="E910" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F910">
+        <v>0</v>
+      </c>
+      <c r="G910" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911">
+        <v>908</v>
+      </c>
+      <c r="B911" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C911" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D911" t="str">
+        <v>Reng</v>
+      </c>
+      <c r="E911" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F911">
+        <v>0</v>
+      </c>
+      <c r="G911" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912">
+        <v>909</v>
+      </c>
+      <c r="B912" t="str">
+        <v>ALAT-ALAT PENGUNCI &amp; PENGGANTUNG</v>
+      </c>
+      <c r="C912" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D912" t="str">
+        <v>Kunci silinder</v>
+      </c>
+      <c r="E912" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F912">
+        <v>0</v>
+      </c>
+      <c r="G912" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913">
+        <v>910</v>
+      </c>
+      <c r="B913" t="str">
+        <v>ALAT-ALAT PENGUNCI &amp; PENGGANTUNG</v>
+      </c>
+      <c r="C913" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D913" t="str">
+        <v>Kunci slot</v>
+      </c>
+      <c r="E913" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F913">
+        <v>0</v>
+      </c>
+      <c r="G913" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914">
+        <v>911</v>
+      </c>
+      <c r="B914" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C914" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D914" t="str">
+        <v>Perlengkapan</v>
+      </c>
+      <c r="E914" t="str">
+        <v>%</v>
+      </c>
+      <c r="F914">
+        <v>0</v>
+      </c>
+      <c r="G914" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915">
+        <v>912</v>
+      </c>
+      <c r="B915" t="str">
+        <v>BAHAN SANITAIR</v>
+      </c>
+      <c r="C915" t="str">
+        <v>SANITAIR</v>
+      </c>
+      <c r="D915" t="str">
+        <v>Wastafel</v>
+      </c>
+      <c r="E915" t="str">
+        <v>Unit</v>
+      </c>
+      <c r="F915">
+        <v>0</v>
+      </c>
+      <c r="G915" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916">
+        <v>913</v>
+      </c>
+      <c r="B916" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C916" t="str">
+        <v>BATA</v>
+      </c>
+      <c r="D916" t="str">
+        <v>Bata merah</v>
+      </c>
+      <c r="E916" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F916">
+        <v>0</v>
+      </c>
+      <c r="G916" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917">
+        <v>914</v>
+      </c>
+      <c r="B917" t="str">
+        <v>BAHAN PENUTUP DINDING/LANTAI</v>
+      </c>
+      <c r="C917" t="str">
+        <v>PORSELEN</v>
+      </c>
+      <c r="D917" t="str">
+        <v>Porselen 11x11</v>
+      </c>
+      <c r="E917" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F917">
+        <v>0</v>
+      </c>
+      <c r="G917" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918">
+        <v>915</v>
+      </c>
+      <c r="B918" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C918" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D918" t="str">
+        <v>Beton 1:2:3</v>
+      </c>
+      <c r="E918" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F918">
+        <v>0</v>
+      </c>
+      <c r="G918" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919">
+        <v>916</v>
+      </c>
+      <c r="B919" t="str">
+        <v>BAHAN KAYU</v>
+      </c>
+      <c r="C919" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D919" t="str">
+        <v>Kayu bekisting</v>
+      </c>
+      <c r="E919" t="str">
+        <v>m2</v>
+      </c>
+      <c r="F919">
+        <v>0</v>
+      </c>
+      <c r="G919" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920">
+        <v>917</v>
+      </c>
+      <c r="B920" t="str">
+        <v>BAHAN PENUTUP DINDING/LANTAI</v>
+      </c>
+      <c r="C920" t="str">
+        <v>PORSELEN</v>
+      </c>
+      <c r="D920" t="str">
+        <v>Ubin porselen</v>
+      </c>
+      <c r="E920" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F920">
+        <v>0</v>
+      </c>
+      <c r="G920" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921">
+        <v>918</v>
+      </c>
+      <c r="B921" t="str">
+        <v>BAHAN SANITAIR</v>
+      </c>
+      <c r="C921" t="str">
+        <v>SANITAIR</v>
+      </c>
+      <c r="D921" t="str">
+        <v>Kran Air</v>
+      </c>
+      <c r="E921" t="str">
+        <v>M</v>
+      </c>
+      <c r="F921">
+        <v>0</v>
+      </c>
+      <c r="G921" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922">
+        <v>919</v>
+      </c>
+      <c r="B922" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C922" t="str">
+        <v>PIPA GALVANIS</v>
+      </c>
+      <c r="D922" t="str">
+        <v>Pipa galvanis 3/4"</v>
+      </c>
+      <c r="E922" t="str">
+        <v>M</v>
+      </c>
+      <c r="F922">
+        <v>0</v>
+      </c>
+      <c r="G922" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923">
+        <v>920</v>
+      </c>
+      <c r="B923" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C923" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D923" t="str">
+        <v>Pipa PVC 1/2"</v>
+      </c>
+      <c r="E923" t="str">
+        <v>M</v>
+      </c>
+      <c r="F923">
+        <v>0</v>
+      </c>
+      <c r="G923" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924">
+        <v>921</v>
+      </c>
+      <c r="B924" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C924" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D924" t="str">
+        <v>Pipa PVC 1"</v>
+      </c>
+      <c r="E924" t="str">
+        <v>M</v>
+      </c>
+      <c r="F924">
+        <v>0</v>
+      </c>
+      <c r="G924" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925">
+        <v>922</v>
+      </c>
+      <c r="B925" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C925" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D925" t="str">
+        <v>Pipa PVC 1 1/2"</v>
+      </c>
+      <c r="E925" t="str">
+        <v>M</v>
+      </c>
+      <c r="F925">
+        <v>0</v>
+      </c>
+      <c r="G925" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926">
+        <v>923</v>
+      </c>
+      <c r="B926" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C926" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D926" t="str">
+        <v>Pipa PVC 2"</v>
+      </c>
+      <c r="E926" t="str">
+        <v>M</v>
+      </c>
+      <c r="F926">
+        <v>0</v>
+      </c>
+      <c r="G926" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927">
+        <v>924</v>
+      </c>
+      <c r="B927" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C927" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D927" t="str">
+        <v>Pipa PVC 3"</v>
+      </c>
+      <c r="E927" t="str">
+        <v>M</v>
+      </c>
+      <c r="F927">
+        <v>0</v>
+      </c>
+      <c r="G927" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928">
+        <v>925</v>
+      </c>
+      <c r="B928" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C928" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D928" t="str">
+        <v>Pipa PVC Ø 63 mm</v>
+      </c>
+      <c r="E928" t="str">
+        <v>m</v>
+      </c>
+      <c r="F928">
+        <v>0</v>
+      </c>
+      <c r="G928" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929">
+        <v>926</v>
+      </c>
+      <c r="B929" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C929" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D929" t="str">
+        <v>Pipa PVC Ø 90 mm</v>
+      </c>
+      <c r="E929" t="str">
+        <v>m</v>
+      </c>
+      <c r="F929">
+        <v>0</v>
+      </c>
+      <c r="G929" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930">
+        <v>927</v>
+      </c>
+      <c r="B930" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C930" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D930" t="str">
+        <v>Pipa PVC Ø 110 mm</v>
+      </c>
+      <c r="E930" t="str">
+        <v>m</v>
+      </c>
+      <c r="F930">
+        <v>0</v>
+      </c>
+      <c r="G930" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931">
+        <v>928</v>
+      </c>
+      <c r="B931" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C931" t="str">
+        <v>PIPA DCI</v>
+      </c>
+      <c r="D931" t="str">
+        <v>Pipa DCI Ø 100 mm</v>
+      </c>
+      <c r="E931" t="str">
+        <v>m</v>
+      </c>
+      <c r="F931">
+        <v>0</v>
+      </c>
+      <c r="G931" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932">
+        <v>929</v>
+      </c>
+      <c r="B932" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C932" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D932" t="str">
+        <v>Pipa PVC Ø 200 mm</v>
+      </c>
+      <c r="E932" t="str">
+        <v>m</v>
+      </c>
+      <c r="F932">
+        <v>0</v>
+      </c>
+      <c r="G932" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933">
+        <v>930</v>
+      </c>
+      <c r="B933" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C933" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D933" t="str">
+        <v>Pipa PVC Ø 250 mm</v>
+      </c>
+      <c r="E933" t="str">
+        <v>m</v>
+      </c>
+      <c r="F933">
+        <v>0</v>
+      </c>
+      <c r="G933" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934">
+        <v>931</v>
+      </c>
+      <c r="B934" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C934" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D934" t="str">
+        <v>Pipa HDPE Ø 63 mm</v>
+      </c>
+      <c r="E934" t="str">
+        <v>m</v>
+      </c>
+      <c r="F934">
+        <v>0</v>
+      </c>
+      <c r="G934" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935">
+        <v>932</v>
+      </c>
+      <c r="B935" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C935" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D935" t="str">
+        <v>Pipa HDPE Ø 100 mm</v>
+      </c>
+      <c r="E935" t="str">
+        <v>m</v>
+      </c>
+      <c r="F935">
+        <v>0</v>
+      </c>
+      <c r="G935" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936">
+        <v>933</v>
+      </c>
+      <c r="B936" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C936" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D936" t="str">
+        <v>Pipa HDPE Ø 125 mm</v>
+      </c>
+      <c r="E936" t="str">
+        <v>m</v>
+      </c>
+      <c r="F936">
+        <v>0</v>
+      </c>
+      <c r="G936" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937">
+        <v>934</v>
+      </c>
+      <c r="B937" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C937" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D937" t="str">
+        <v>Pipa HDPE Ø 150 mm</v>
+      </c>
+      <c r="E937" t="str">
+        <v>m</v>
+      </c>
+      <c r="F937">
+        <v>0</v>
+      </c>
+      <c r="G937" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938">
+        <v>935</v>
+      </c>
+      <c r="B938" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C938" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D938" t="str">
+        <v>Pipa HDPE Ø 200 mm</v>
+      </c>
+      <c r="E938" t="str">
+        <v>m</v>
+      </c>
+      <c r="F938">
+        <v>0</v>
+      </c>
+      <c r="G938" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939">
+        <v>936</v>
+      </c>
+      <c r="B939" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C939" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D939" t="str">
+        <v>Pipa HDPE Ø 250 mm</v>
+      </c>
+      <c r="E939" t="str">
+        <v>m</v>
+      </c>
+      <c r="F939">
+        <v>0</v>
+      </c>
+      <c r="G939" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940">
+        <v>937</v>
+      </c>
+      <c r="B940" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C940" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D940" t="str">
+        <v>Pipa HDPE Ø 300 mm</v>
+      </c>
+      <c r="E940" t="str">
+        <v>m</v>
+      </c>
+      <c r="F940">
+        <v>0</v>
+      </c>
+      <c r="G940" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941">
+        <v>938</v>
+      </c>
+      <c r="B941" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C941" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D941" t="str">
+        <v>Pipa HDPE Ø 400 mm</v>
+      </c>
+      <c r="E941" t="str">
+        <v>m</v>
+      </c>
+      <c r="F941">
+        <v>0</v>
+      </c>
+      <c r="G941" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942">
+        <v>939</v>
+      </c>
+      <c r="B942" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C942" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D942" t="str">
+        <v>Pipa HDPE Ø 450 mm</v>
+      </c>
+      <c r="E942" t="str">
+        <v>m</v>
+      </c>
+      <c r="F942">
+        <v>0</v>
+      </c>
+      <c r="G942" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943">
+        <v>940</v>
+      </c>
+      <c r="B943" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C943" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D943" t="str">
+        <v>Pipa HDPE Ø 500 mm</v>
+      </c>
+      <c r="E943" t="str">
+        <v>m</v>
+      </c>
+      <c r="F943">
+        <v>0</v>
+      </c>
+      <c r="G943" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944">
+        <v>941</v>
+      </c>
+      <c r="B944" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C944" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D944" t="str">
+        <v>Pipa HDPE Ø 600 mm</v>
+      </c>
+      <c r="E944" t="str">
+        <v>m</v>
+      </c>
+      <c r="F944">
+        <v>0</v>
+      </c>
+      <c r="G944" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945">
+        <v>942</v>
+      </c>
+      <c r="B945" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C945" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D945" t="str">
+        <v>Pipa HDPE Ø 800 mm</v>
+      </c>
+      <c r="E945" t="str">
+        <v>m</v>
+      </c>
+      <c r="F945">
+        <v>0</v>
+      </c>
+      <c r="G945" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946">
+        <v>943</v>
+      </c>
+      <c r="B946" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C946" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D946" t="str">
+        <v>Pipa HDPE Ø 900 mm</v>
+      </c>
+      <c r="E946" t="str">
+        <v>m</v>
+      </c>
+      <c r="F946">
+        <v>0</v>
+      </c>
+      <c r="G946" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947">
+        <v>944</v>
+      </c>
+      <c r="B947" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C947" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D947" t="str">
+        <v>Pipa HDPE Ø 1000 mm</v>
+      </c>
+      <c r="E947" t="str">
+        <v>m</v>
+      </c>
+      <c r="F947">
+        <v>0</v>
+      </c>
+      <c r="G947" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948">
+        <v>945</v>
+      </c>
+      <c r="B948" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C948" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D948" t="str">
+        <v>Pipa HDPE Ø 1100 mm</v>
+      </c>
+      <c r="E948" t="str">
+        <v>m</v>
+      </c>
+      <c r="F948">
+        <v>0</v>
+      </c>
+      <c r="G948" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949">
+        <v>946</v>
+      </c>
+      <c r="B949" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C949" t="str">
+        <v>PIPA HDPE</v>
+      </c>
+      <c r="D949" t="str">
+        <v>Pipa HDPE Ø 1200 mm</v>
+      </c>
+      <c r="E949" t="str">
+        <v>m</v>
+      </c>
+      <c r="F949">
+        <v>0</v>
+      </c>
+      <c r="G949" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950">
+        <v>947</v>
+      </c>
+      <c r="B950" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C950" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D950" t="str">
+        <v>Pipa GIP Ø 63 mm</v>
+      </c>
+      <c r="E950" t="str">
+        <v>m</v>
+      </c>
+      <c r="F950">
+        <v>0</v>
+      </c>
+      <c r="G950" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951">
+        <v>948</v>
+      </c>
+      <c r="B951" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C951" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D951" t="str">
+        <v>Pipa GIP Ø 100 mm</v>
+      </c>
+      <c r="E951" t="str">
+        <v>m</v>
+      </c>
+      <c r="F951">
+        <v>0</v>
+      </c>
+      <c r="G951" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952">
+        <v>949</v>
+      </c>
+      <c r="B952" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C952" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D952" t="str">
+        <v>Pipa GIP Ø 125 mm</v>
+      </c>
+      <c r="E952" t="str">
+        <v>m</v>
+      </c>
+      <c r="F952">
+        <v>0</v>
+      </c>
+      <c r="G952" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953">
+        <v>950</v>
+      </c>
+      <c r="B953" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C953" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D953" t="str">
+        <v xml:space="preserve"> Pipa  GIP Ø 150 mm</v>
+      </c>
+      <c r="E953" t="str">
+        <v>m</v>
+      </c>
+      <c r="F953">
+        <v>0</v>
+      </c>
+      <c r="G953" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954">
+        <v>951</v>
+      </c>
+      <c r="B954" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C954" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D954" t="str">
+        <v>Pipa  GIP Ø 200 mm</v>
+      </c>
+      <c r="E954" t="str">
+        <v>m</v>
+      </c>
+      <c r="F954">
+        <v>0</v>
+      </c>
+      <c r="G954" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955">
+        <v>952</v>
+      </c>
+      <c r="B955" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C955" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D955" t="str">
+        <v>Pipa  GIP Ø 250 mm</v>
+      </c>
+      <c r="E955" t="str">
+        <v>m</v>
+      </c>
+      <c r="F955">
+        <v>0</v>
+      </c>
+      <c r="G955" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956">
+        <v>953</v>
+      </c>
+      <c r="B956" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C956" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D956" t="str">
+        <v>Pipa  GIP Ø 300 mm</v>
+      </c>
+      <c r="E956" t="str">
+        <v>m</v>
+      </c>
+      <c r="F956">
+        <v>0</v>
+      </c>
+      <c r="G956" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957">
+        <v>954</v>
+      </c>
+      <c r="B957" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C957" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D957" t="str">
+        <v>Pipa  GIP Ø 400 mm</v>
+      </c>
+      <c r="E957" t="str">
+        <v>m</v>
+      </c>
+      <c r="F957">
+        <v>0</v>
+      </c>
+      <c r="G957" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958">
+        <v>955</v>
+      </c>
+      <c r="B958" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C958" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D958" t="str">
+        <v>Pipa  GIP Ø 450 mm</v>
+      </c>
+      <c r="E958" t="str">
+        <v>m</v>
+      </c>
+      <c r="F958">
+        <v>0</v>
+      </c>
+      <c r="G958" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959">
+        <v>956</v>
+      </c>
+      <c r="B959" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C959" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D959" t="str">
+        <v>Pipa  GIP Ø 500 mm</v>
+      </c>
+      <c r="E959" t="str">
+        <v>m</v>
+      </c>
+      <c r="F959">
+        <v>0</v>
+      </c>
+      <c r="G959" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960">
+        <v>957</v>
+      </c>
+      <c r="B960" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C960" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D960" t="str">
+        <v xml:space="preserve"> Pipa  GIP Ø 600 mm</v>
+      </c>
+      <c r="E960" t="str">
+        <v>m</v>
+      </c>
+      <c r="F960">
+        <v>0</v>
+      </c>
+      <c r="G960" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961">
+        <v>958</v>
+      </c>
+      <c r="B961" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C961" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D961" t="str">
+        <v>Pipa  GIP Ø 800 mm</v>
+      </c>
+      <c r="E961" t="str">
+        <v>m</v>
+      </c>
+      <c r="F961">
+        <v>0</v>
+      </c>
+      <c r="G961" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962">
+        <v>959</v>
+      </c>
+      <c r="B962" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C962" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D962" t="str">
+        <v>Pipa  GIP Ø 900 mm</v>
+      </c>
+      <c r="E962" t="str">
+        <v>m</v>
+      </c>
+      <c r="F962">
+        <v>0</v>
+      </c>
+      <c r="G962" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963">
+        <v>960</v>
+      </c>
+      <c r="B963" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C963" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D963" t="str">
+        <v>Pipa  GIP Ø 1000 mm</v>
+      </c>
+      <c r="E963" t="str">
+        <v>m</v>
+      </c>
+      <c r="F963">
+        <v>0</v>
+      </c>
+      <c r="G963" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964">
+        <v>961</v>
+      </c>
+      <c r="B964" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C964" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D964" t="str">
+        <v>Pipa  GIP Ø 1100 mm</v>
+      </c>
+      <c r="E964" t="str">
+        <v>m</v>
+      </c>
+      <c r="F964">
+        <v>0</v>
+      </c>
+      <c r="G964" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965">
+        <v>962</v>
+      </c>
+      <c r="B965" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C965" t="str">
+        <v>PIPA GIP</v>
+      </c>
+      <c r="D965" t="str">
+        <v>Pipa  GIP Ø 1200 mm</v>
+      </c>
+      <c r="E965" t="str">
+        <v>m</v>
+      </c>
+      <c r="F965">
+        <v>0</v>
+      </c>
+      <c r="G965" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966">
+        <v>963</v>
+      </c>
+      <c r="B966" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C966" t="str">
+        <v>PIPA DCI</v>
+      </c>
+      <c r="D966" t="str">
+        <v>Pipa  DCI Ø 125 mm</v>
+      </c>
+      <c r="E966" t="str">
+        <v>m</v>
+      </c>
+      <c r="F966">
+        <v>0</v>
+      </c>
+      <c r="G966" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967">
+        <v>964</v>
+      </c>
+      <c r="B967" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C967" t="str">
+        <v>PIPA DCI</v>
+      </c>
+      <c r="D967" t="str">
+        <v>Pipa  DCI Ø 150 mm</v>
+      </c>
+      <c r="E967" t="str">
+        <v>m</v>
+      </c>
+      <c r="F967">
+        <v>0</v>
+      </c>
+      <c r="G967" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968">
+        <v>965</v>
+      </c>
+      <c r="B968" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C968" t="str">
+        <v>PIPA DCI</v>
+      </c>
+      <c r="D968" t="str">
+        <v>Pipa  DCI Ø 200 mm</v>
+      </c>
+      <c r="E968" t="str">
+        <v>m</v>
+      </c>
+      <c r="F968">
+        <v>0</v>
+      </c>
+      <c r="G968" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969">
+        <v>966</v>
+      </c>
+      <c r="B969" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C969" t="str">
+        <v>PIPA DCI</v>
+      </c>
+      <c r="D969" t="str">
+        <v>Pipa  DCI Ø 250 mm</v>
+      </c>
+      <c r="E969" t="str">
+        <v>m</v>
+      </c>
+      <c r="F969">
+        <v>0</v>
+      </c>
+      <c r="G969" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970">
+        <v>967</v>
+      </c>
+      <c r="B970" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C970" t="str">
+        <v>PIPA DCI</v>
+      </c>
+      <c r="D970" t="str">
+        <v>Pipa  DCI Ø 300 mm</v>
+      </c>
+      <c r="E970" t="str">
+        <v>m</v>
+      </c>
+      <c r="F970">
+        <v>0</v>
+      </c>
+      <c r="G970" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971">
+        <v>968</v>
+      </c>
+      <c r="B971" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C971" t="str">
+        <v>PIPA DCI</v>
+      </c>
+      <c r="D971" t="str">
+        <v>Pipa  DCI Ø 400 mm</v>
+      </c>
+      <c r="E971" t="str">
+        <v>m</v>
+      </c>
+      <c r="F971">
+        <v>0</v>
+      </c>
+      <c r="G971" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972">
+        <v>969</v>
+      </c>
+      <c r="B972" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C972" t="str">
+        <v>PIPA DCI</v>
+      </c>
+      <c r="D972" t="str">
+        <v>Pipa  DCI Ø 450 mm</v>
+      </c>
+      <c r="E972" t="str">
+        <v>m</v>
+      </c>
+      <c r="F972">
+        <v>0</v>
+      </c>
+      <c r="G972" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973">
+        <v>970</v>
+      </c>
+      <c r="B973" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C973" t="str">
+        <v>PIPA DCI</v>
+      </c>
+      <c r="D973" t="str">
+        <v>Pipa  DCI Ø 500 mm</v>
+      </c>
+      <c r="E973" t="str">
+        <v>m</v>
+      </c>
+      <c r="F973">
+        <v>0</v>
+      </c>
+      <c r="G973" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974">
+        <v>971</v>
+      </c>
+      <c r="B974" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C974" t="str">
+        <v>PIPA DCI</v>
+      </c>
+      <c r="D974" t="str">
+        <v>Pipa  DCI Ø 600 mm</v>
+      </c>
+      <c r="E974" t="str">
+        <v>m</v>
+      </c>
+      <c r="F974">
+        <v>0</v>
+      </c>
+      <c r="G974" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975">
+        <v>972</v>
+      </c>
+      <c r="B975" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C975" t="str">
+        <v>PIPA DCI</v>
+      </c>
+      <c r="D975" t="str">
+        <v>Pipa  DCI Ø 800 mm</v>
+      </c>
+      <c r="E975" t="str">
+        <v>m</v>
+      </c>
+      <c r="F975">
+        <v>0</v>
+      </c>
+      <c r="G975" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976">
+        <v>973</v>
+      </c>
+      <c r="B976" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C976" t="str">
+        <v>PIPA DCI</v>
+      </c>
+      <c r="D976" t="str">
+        <v>Pipa  DCI Ø 900 mm</v>
+      </c>
+      <c r="E976" t="str">
+        <v>m</v>
+      </c>
+      <c r="F976">
+        <v>0</v>
+      </c>
+      <c r="G976" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977">
+        <v>974</v>
+      </c>
+      <c r="B977" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C977" t="str">
+        <v>PIPA DCI</v>
+      </c>
+      <c r="D977" t="str">
+        <v>Pipa  DCI Ø 1000 mm</v>
+      </c>
+      <c r="E977" t="str">
+        <v>m</v>
+      </c>
+      <c r="F977">
+        <v>0</v>
+      </c>
+      <c r="G977" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978">
+        <v>975</v>
+      </c>
+      <c r="B978" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C978" t="str">
+        <v>PIPA DCI</v>
+      </c>
+      <c r="D978" t="str">
+        <v>Pipa  DCI Ø 1100 mm</v>
+      </c>
+      <c r="E978" t="str">
+        <v>m</v>
+      </c>
+      <c r="F978">
+        <v>0</v>
+      </c>
+      <c r="G978" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979">
+        <v>976</v>
+      </c>
+      <c r="B979" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C979" t="str">
+        <v>PIPA DCI</v>
+      </c>
+      <c r="D979" t="str">
+        <v>Pipa  DCI Ø 1200 mm</v>
+      </c>
+      <c r="E979" t="str">
+        <v>m</v>
+      </c>
+      <c r="F979">
+        <v>0</v>
+      </c>
+      <c r="G979" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980">
+        <v>977</v>
+      </c>
+      <c r="B980" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="C980" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="D980" t="str">
+        <v>Sewa excavator type 225 kapasitas 0.5 - 1.0 m3</v>
+      </c>
+      <c r="E980" t="str">
+        <v>hari</v>
+      </c>
+      <c r="F980">
+        <v>0</v>
+      </c>
+      <c r="G980" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981">
+        <v>978</v>
+      </c>
+      <c r="B981" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C981" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D981" t="str">
+        <v>Pipa baja Ø 63 mm</v>
+      </c>
+      <c r="E981" t="str">
+        <v>m</v>
+      </c>
+      <c r="F981">
+        <v>0</v>
+      </c>
+      <c r="G981" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982">
+        <v>979</v>
+      </c>
+      <c r="B982" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C982" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D982" t="str">
+        <v>Pipa  Baja Ø 100 mm</v>
+      </c>
+      <c r="E982" t="str">
+        <v>m</v>
+      </c>
+      <c r="F982">
+        <v>0</v>
+      </c>
+      <c r="G982" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983">
+        <v>980</v>
+      </c>
+      <c r="B983" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C983" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D983" t="str">
+        <v>Pipa  Baja Ø 125 mm</v>
+      </c>
+      <c r="E983" t="str">
+        <v>m</v>
+      </c>
+      <c r="F983">
+        <v>0</v>
+      </c>
+      <c r="G983" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984">
+        <v>981</v>
+      </c>
+      <c r="B984" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C984" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D984" t="str">
+        <v>Pipa  Baja Ø 150 mm</v>
+      </c>
+      <c r="E984" t="str">
+        <v>m</v>
+      </c>
+      <c r="F984">
+        <v>0</v>
+      </c>
+      <c r="G984" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985">
+        <v>982</v>
+      </c>
+      <c r="B985" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C985" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D985" t="str">
+        <v>Pipa  Baja Ø 200 mm</v>
+      </c>
+      <c r="E985" t="str">
+        <v>m</v>
+      </c>
+      <c r="F985">
+        <v>0</v>
+      </c>
+      <c r="G985" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986">
+        <v>983</v>
+      </c>
+      <c r="B986" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C986" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D986" t="str">
+        <v>Pipa  Baja Ø 250 mm</v>
+      </c>
+      <c r="E986" t="str">
+        <v>m</v>
+      </c>
+      <c r="F986">
+        <v>0</v>
+      </c>
+      <c r="G986" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987">
+        <v>984</v>
+      </c>
+      <c r="B987" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C987" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D987" t="str">
+        <v>Pipa  Baja Ø 300 mm</v>
+      </c>
+      <c r="E987" t="str">
+        <v>m</v>
+      </c>
+      <c r="F987">
+        <v>0</v>
+      </c>
+      <c r="G987" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988">
+        <v>985</v>
+      </c>
+      <c r="B988" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C988" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D988" t="str">
+        <v>Pipa  Baja Ø 400 mm</v>
+      </c>
+      <c r="E988" t="str">
+        <v>m</v>
+      </c>
+      <c r="F988">
+        <v>0</v>
+      </c>
+      <c r="G988" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989">
+        <v>986</v>
+      </c>
+      <c r="B989" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C989" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D989" t="str">
+        <v>Pipa  Baja Ø 450 mm</v>
+      </c>
+      <c r="E989" t="str">
+        <v>m</v>
+      </c>
+      <c r="F989">
+        <v>0</v>
+      </c>
+      <c r="G989" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990">
+        <v>987</v>
+      </c>
+      <c r="B990" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C990" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D990" t="str">
+        <v>Pipa  Baja Ø 500 mm</v>
+      </c>
+      <c r="E990" t="str">
+        <v>m</v>
+      </c>
+      <c r="F990">
+        <v>0</v>
+      </c>
+      <c r="G990" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991">
+        <v>988</v>
+      </c>
+      <c r="B991" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C991" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D991" t="str">
+        <v>Pipa  Baja Ø 800 mm</v>
+      </c>
+      <c r="E991" t="str">
+        <v>m</v>
+      </c>
+      <c r="F991">
+        <v>0</v>
+      </c>
+      <c r="G991" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992">
+        <v>989</v>
+      </c>
+      <c r="B992" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C992" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D992" t="str">
+        <v>Pipa  Baja Ø 1000 mm</v>
+      </c>
+      <c r="E992" t="str">
+        <v>m</v>
+      </c>
+      <c r="F992">
+        <v>0</v>
+      </c>
+      <c r="G992" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993">
+        <v>990</v>
+      </c>
+      <c r="B993" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C993" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D993" t="str">
+        <v>Pipa  Baja Ø 1100 mm</v>
+      </c>
+      <c r="E993" t="str">
+        <v>m</v>
+      </c>
+      <c r="F993">
+        <v>0</v>
+      </c>
+      <c r="G993" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994">
+        <v>991</v>
+      </c>
+      <c r="B994" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C994" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D994" t="str">
+        <v>Pipa  Baja Ø 1200 mm</v>
+      </c>
+      <c r="E994" t="str">
+        <v>m</v>
+      </c>
+      <c r="F994">
+        <v>0</v>
+      </c>
+      <c r="G994" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995">
+        <v>992</v>
+      </c>
+      <c r="B995" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C995" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D995" t="str">
+        <v>Pipa  Baja Ø 600 mm</v>
+      </c>
+      <c r="E995" t="str">
+        <v>m</v>
+      </c>
+      <c r="F995">
+        <v>0</v>
+      </c>
+      <c r="G995" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996">
+        <v>993</v>
+      </c>
+      <c r="B996" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C996" t="str">
+        <v>PIPA BAJA</v>
+      </c>
+      <c r="D996" t="str">
+        <v>Pipa  Baja Ø 900 mm</v>
+      </c>
+      <c r="E996" t="str">
+        <v>m</v>
+      </c>
+      <c r="F996">
+        <v>0</v>
+      </c>
+      <c r="G996" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997">
+        <v>994</v>
+      </c>
+      <c r="B997" t="str">
+        <v>BAHAN KAYU</v>
+      </c>
+      <c r="C997" t="str">
+        <v>KAYU</v>
+      </c>
+      <c r="D997" t="str">
+        <v xml:space="preserve">Kayu </v>
+      </c>
+      <c r="E997" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F997">
+        <v>0</v>
+      </c>
+      <c r="G997" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998">
+        <v>995</v>
+      </c>
+      <c r="B998" t="str">
+        <v>BAHAN PENGIKAT KAYU</v>
+      </c>
+      <c r="C998" t="str">
+        <v>PAKU</v>
+      </c>
+      <c r="D998" t="str">
+        <v>Paku biasa</v>
+      </c>
+      <c r="E998" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F998">
+        <v>0</v>
+      </c>
+      <c r="G998" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999">
+        <v>996</v>
+      </c>
+      <c r="B999" t="str">
+        <v>BAHAN KAYU</v>
+      </c>
+      <c r="C999" t="str">
+        <v>KAYU</v>
+      </c>
+      <c r="D999" t="str">
+        <v>Kayu papan kelas III</v>
+      </c>
+      <c r="E999" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F999">
+        <v>0</v>
+      </c>
+      <c r="G999" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000">
+        <v>997</v>
+      </c>
+      <c r="B1000" t="str">
+        <v>BAHAN KAYU</v>
+      </c>
+      <c r="C1000" t="str">
+        <v>KAYU</v>
+      </c>
+      <c r="D1000" t="str">
+        <v>Kayu balok 5/7 kelas III</v>
+      </c>
+      <c r="E1000" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1000">
+        <v>0</v>
+      </c>
+      <c r="G1000" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001">
+        <v>998</v>
+      </c>
+      <c r="B1001" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C1001" t="str">
+        <v>BATU</v>
+      </c>
+      <c r="D1001" t="str">
+        <v>Batu pecah</v>
+      </c>
+      <c r="E1001" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1001">
+        <v>0</v>
+      </c>
+      <c r="G1001" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002">
+        <v>999</v>
+      </c>
+      <c r="B1002" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C1002" t="str">
+        <v>KERIKIL</v>
+      </c>
+      <c r="D1002" t="str">
+        <v>Kerikil (2cm/3cm)</v>
+      </c>
+      <c r="E1002" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1002">
+        <v>0</v>
+      </c>
+      <c r="G1002" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003">
+        <v>1000</v>
+      </c>
+      <c r="B1003" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1003" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1003" t="str">
+        <v>Jaring kawat baja dilas</v>
+      </c>
+      <c r="E1003" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F1003">
+        <v>0</v>
+      </c>
+      <c r="G1003" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004">
+        <v>1001</v>
+      </c>
+      <c r="B1004" t="str">
+        <v>BAHAN KAYU</v>
+      </c>
+      <c r="C1004" t="str">
+        <v>KAYU</v>
+      </c>
+      <c r="D1004" t="str">
+        <v>Kayu kelas III</v>
+      </c>
+      <c r="E1004" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1004">
+        <v>0</v>
+      </c>
+      <c r="G1004" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005">
+        <v>1002</v>
+      </c>
+      <c r="B1005" t="str">
+        <v>BAHAN KAYU</v>
+      </c>
+      <c r="C1005" t="str">
+        <v>KAYU</v>
+      </c>
+      <c r="D1005" t="str">
+        <v>Balok kayu kelas II</v>
+      </c>
+      <c r="E1005" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1005">
+        <v>0</v>
+      </c>
+      <c r="G1005" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006">
+        <v>1003</v>
+      </c>
+      <c r="B1006" t="str">
+        <v>BAHAN PENGIKAT KAYU</v>
+      </c>
+      <c r="C1006" t="str">
+        <v>PAKU</v>
+      </c>
+      <c r="D1006" t="str">
+        <v>Paku 5-12 cm</v>
+      </c>
+      <c r="E1006" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F1006">
+        <v>0</v>
+      </c>
+      <c r="G1006" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007">
+        <v>1004</v>
+      </c>
+      <c r="B1007" t="str">
+        <v>BAHAN KAYU</v>
+      </c>
+      <c r="C1007" t="str">
+        <v>KAYU</v>
+      </c>
+      <c r="D1007" t="str">
+        <v>Kayu kelas III (papan)</v>
+      </c>
+      <c r="E1007" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1007">
+        <v>0</v>
+      </c>
+      <c r="G1007" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008">
+        <v>1005</v>
+      </c>
+      <c r="B1008" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1008" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1008" t="str">
+        <v>Minyak bekisting</v>
+      </c>
+      <c r="E1008" t="str">
+        <v>Liter</v>
+      </c>
+      <c r="F1008">
+        <v>0</v>
+      </c>
+      <c r="G1008" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009">
+        <v>1006</v>
+      </c>
+      <c r="B1009" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1009" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1009" t="str">
+        <v>Air Test (air bersih)</v>
+      </c>
+      <c r="E1009" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1009">
+        <v>0</v>
+      </c>
+      <c r="G1009" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010">
+        <v>1007</v>
+      </c>
+      <c r="B1010" t="str">
+        <v>BAHAN KAYU</v>
+      </c>
+      <c r="C1010" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1010" t="str">
+        <v>Kayu Kaso 5/7 (lebar 5 cm, tinggi 7cm)</v>
+      </c>
+      <c r="E1010" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1010">
+        <v>0</v>
+      </c>
+      <c r="G1010" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011">
+        <v>1008</v>
+      </c>
+      <c r="B1011" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1011" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1011" t="str">
+        <v>Pipa PVC Ø 63 mm</v>
+      </c>
+      <c r="E1011" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1011">
+        <v>0</v>
+      </c>
+      <c r="G1011" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012">
+        <v>1009</v>
+      </c>
+      <c r="B1012" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1012" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1012" t="str">
+        <v>Pipa PVC Ø 90 mm</v>
+      </c>
+      <c r="E1012" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1012">
+        <v>0</v>
+      </c>
+      <c r="G1012" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013">
+        <v>1010</v>
+      </c>
+      <c r="B1013" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1013" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1013" t="str">
+        <v>Pipa PVC Ø 110 mm</v>
+      </c>
+      <c r="E1013" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1013">
+        <v>0</v>
+      </c>
+      <c r="G1013" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014">
+        <v>1011</v>
+      </c>
+      <c r="B1014" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1014" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1014" t="str">
+        <v>Pipa PVC Ø 150 mm</v>
+      </c>
+      <c r="E1014" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1014">
+        <v>0</v>
+      </c>
+      <c r="G1014" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015">
+        <v>1012</v>
+      </c>
+      <c r="B1015" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1015" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1015" t="str">
+        <v>Pipa PVC Ø 200 mm</v>
+      </c>
+      <c r="E1015" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1015">
+        <v>0</v>
+      </c>
+      <c r="G1015" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016">
+        <v>1013</v>
+      </c>
+      <c r="B1016" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1016" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1016" t="str">
+        <v>Pipa PVC Ø 250 mm</v>
+      </c>
+      <c r="E1016" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1016">
+        <v>0</v>
+      </c>
+      <c r="G1016" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017">
+        <v>1014</v>
+      </c>
+      <c r="B1017" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1017" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1017" t="str">
+        <v>Pipa PVC Ø 250 mm</v>
+      </c>
+      <c r="E1017" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1017">
+        <v>0</v>
+      </c>
+      <c r="G1017" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018">
+        <v>1015</v>
+      </c>
+      <c r="B1018" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1018" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1018" t="str">
+        <v>Pipa PVC Ø 300 mm</v>
+      </c>
+      <c r="E1018" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1018">
+        <v>0</v>
+      </c>
+      <c r="G1018" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019">
+        <v>1016</v>
+      </c>
+      <c r="B1019" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1019" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1019" t="str">
+        <v>Pipa PVC Ø 400 mm</v>
+      </c>
+      <c r="E1019" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1019">
+        <v>0</v>
+      </c>
+      <c r="G1019" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020">
+        <v>1017</v>
+      </c>
+      <c r="B1020" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="C1020" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="D1020" t="str">
+        <v>sewa crane</v>
+      </c>
+      <c r="E1020" t="str">
+        <v>unit hari</v>
+      </c>
+      <c r="F1020">
+        <v>0</v>
+      </c>
+      <c r="G1020" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021">
+        <v>1018</v>
+      </c>
+      <c r="B1021" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1021" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1021" t="str">
+        <v>Pipa PVC Ø 450 mm</v>
+      </c>
+      <c r="E1021" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1021">
+        <v>0</v>
+      </c>
+      <c r="G1021" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022">
+        <v>1019</v>
+      </c>
+      <c r="B1022" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1022" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1022" t="str">
+        <v>Pipa PVC Ø 500 mm</v>
+      </c>
+      <c r="E1022" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1022">
+        <v>0</v>
+      </c>
+      <c r="G1022" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023">
+        <v>1020</v>
+      </c>
+      <c r="B1023" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1023" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1023" t="str">
+        <v>Pipa PVC Ø 600 mm</v>
+      </c>
+      <c r="E1023" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1023">
+        <v>0</v>
+      </c>
+      <c r="G1023" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024">
+        <v>1021</v>
+      </c>
+      <c r="B1024" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1024" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1024" t="str">
+        <v>Pipa PVC Ø 800 mm</v>
+      </c>
+      <c r="E1024" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1024">
+        <v>0</v>
+      </c>
+      <c r="G1024" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025">
+        <v>1022</v>
+      </c>
+      <c r="B1025" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1025" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1025" t="str">
+        <v>Pipa PVC Ø 900 mm</v>
+      </c>
+      <c r="E1025" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1025">
+        <v>0</v>
+      </c>
+      <c r="G1025" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026">
+        <v>1023</v>
+      </c>
+      <c r="B1026" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1026" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1026" t="str">
+        <v>Pipa PVC Ø 1000 mm</v>
+      </c>
+      <c r="E1026" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1026">
+        <v>0</v>
+      </c>
+      <c r="G1026" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027">
+        <v>1024</v>
+      </c>
+      <c r="B1027" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1027" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1027" t="str">
+        <v>Pipa PVC Ø 1100 mm</v>
+      </c>
+      <c r="E1027" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1027">
+        <v>0</v>
+      </c>
+      <c r="G1027" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028">
+        <v>1025</v>
+      </c>
+      <c r="B1028" t="str">
+        <v>BAHAN PIPA</v>
+      </c>
+      <c r="C1028" t="str">
+        <v>PIPA PVC</v>
+      </c>
+      <c r="D1028" t="str">
+        <v>Pipa PVC Ø 1200 mm</v>
+      </c>
+      <c r="E1028" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1028">
+        <v>0</v>
+      </c>
+      <c r="G1028" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029">
+        <v>1027</v>
+      </c>
+      <c r="B1029" t="str">
+        <v>BAHAN BESI</v>
+      </c>
+      <c r="C1029" t="str">
+        <v>BAJA STRIP</v>
+      </c>
+      <c r="D1029" t="str">
+        <v>Baja Strip (0,2x2) cm</v>
+      </c>
+      <c r="E1029" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F1029">
+        <v>0</v>
+      </c>
+      <c r="G1029" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030">
+        <v>1028</v>
+      </c>
+      <c r="B1030" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1030" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1030" t="str">
+        <v>paku skrup 1 cm - 2,5 cm</v>
+      </c>
+      <c r="E1030" t="str">
+        <v>buah</v>
+      </c>
+      <c r="F1030">
+        <v>0</v>
+      </c>
+      <c r="G1030" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031">
+        <v>1029</v>
+      </c>
+      <c r="B1031" t="str">
+        <v>BAHAN PENUTUP ATAP</v>
+      </c>
+      <c r="C1031" t="str">
+        <v>SENG PLAT</v>
+      </c>
+      <c r="D1031" t="str">
+        <v>Seng pelat</v>
+      </c>
+      <c r="E1031" t="str">
+        <v>m</v>
+      </c>
+      <c r="F1031">
+        <v>0</v>
+      </c>
+      <c r="G1031" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032">
+        <v>1030</v>
+      </c>
+      <c r="B1032" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="C1032" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="D1032" t="str">
+        <v>Beton Mixer</v>
+      </c>
+      <c r="E1032" t="str">
+        <v>Jam</v>
+      </c>
+      <c r="F1032">
+        <v>0</v>
+      </c>
+      <c r="G1032" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033">
+        <v>1031</v>
+      </c>
+      <c r="B1033" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="C1033" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="D1033" t="str">
+        <v>Rock Drill Breaker</v>
+      </c>
+      <c r="E1033" t="str">
+        <v>Jam</v>
+      </c>
+      <c r="F1033">
+        <v>0</v>
+      </c>
+      <c r="G1033" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034">
+        <v>1032</v>
+      </c>
+      <c r="B1034" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="C1034" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="D1034" t="str">
+        <v>Cold milling</v>
+      </c>
+      <c r="E1034" t="str">
+        <v>Jam</v>
+      </c>
+      <c r="F1034">
+        <v>0</v>
+      </c>
+      <c r="G1034" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035">
+        <v>1033</v>
+      </c>
+      <c r="B1035" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="C1035" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="D1035" t="str">
+        <v>Sheepfoot Roller</v>
+      </c>
+      <c r="E1035" t="str">
+        <v>Jam</v>
+      </c>
+      <c r="F1035">
+        <v>0</v>
+      </c>
+      <c r="G1035" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036">
+        <v>1034</v>
+      </c>
+      <c r="B1036" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1036" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1036" t="str">
+        <v>Geotekstile Filter Kelas 2</v>
+      </c>
+      <c r="E1036" t="str">
+        <v>m2</v>
+      </c>
+      <c r="F1036">
+        <v>0</v>
+      </c>
+      <c r="G1036" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037">
+        <v>1035</v>
+      </c>
+      <c r="B1037" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C1037" t="str">
+        <v>AGREGAT</v>
+      </c>
+      <c r="D1037" t="str">
+        <v>Agr. Base Kelas S</v>
+      </c>
+      <c r="E1037" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1037">
+        <v>0</v>
+      </c>
+      <c r="G1037" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038">
+        <v>1036</v>
+      </c>
+      <c r="B1038" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="C1038" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="D1038" t="str">
+        <v>Power Broom</v>
+      </c>
+      <c r="E1038" t="str">
+        <v>Jam</v>
+      </c>
+      <c r="F1038">
+        <v>0</v>
+      </c>
+      <c r="G1038" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039">
+        <v>1037</v>
+      </c>
+      <c r="B1039" t="str">
+        <v>BAHAN DASAR</v>
+      </c>
+      <c r="C1039" t="str">
+        <v>AGREGAT</v>
+      </c>
+      <c r="D1039" t="str">
+        <v>Agregat Pecah Mesin 20-30 mm</v>
+      </c>
+      <c r="E1039" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1039">
+        <v>0</v>
+      </c>
+      <c r="G1039" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040">
+        <v>1038</v>
+      </c>
+      <c r="B1040" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1040" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1040" t="str">
+        <v>Bahan anti pengelupasan</v>
+      </c>
+      <c r="E1040" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F1040">
+        <v>70000</v>
+      </c>
+      <c r="G1040" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041">
+        <v>1039</v>
+      </c>
+      <c r="B1041" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1041" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1041" t="str">
+        <v>CPMH</v>
+      </c>
+      <c r="E1041" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1041">
+        <v>0</v>
+      </c>
+      <c r="G1041" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042">
+        <v>1040</v>
+      </c>
+      <c r="B1042" t="str">
+        <v>BAHAN BESI</v>
+      </c>
+      <c r="C1042" t="str">
+        <v>BAJA TULANGAN</v>
+      </c>
+      <c r="D1042" t="str">
+        <v>Baja Tulangan Polos BjTP 280</v>
+      </c>
+      <c r="E1042" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F1042">
+        <v>0</v>
+      </c>
+      <c r="G1042" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043">
+        <v>1041</v>
+      </c>
+      <c r="B1043" t="str">
+        <v>BAHAN BESI</v>
+      </c>
+      <c r="C1043" t="str">
+        <v>BAJA TULANGAN</v>
+      </c>
+      <c r="D1043" t="str">
+        <v>Baja tulangan sirip BjTS 280</v>
+      </c>
+      <c r="E1043" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F1043">
+        <v>0</v>
+      </c>
+      <c r="G1043" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044">
+        <v>1042</v>
+      </c>
+      <c r="B1044" t="str">
+        <v>BAHAN BESI</v>
+      </c>
+      <c r="C1044" t="str">
+        <v>BAJA STRUKTUR</v>
+      </c>
+      <c r="D1044" t="str">
+        <v>Baja struktur BJ 37 (Titik leleh 240 MPa)</v>
+      </c>
+      <c r="E1044" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F1044">
+        <v>0</v>
+      </c>
+      <c r="G1044" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045">
+        <v>1043</v>
+      </c>
+      <c r="B1045" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1045" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1045" t="str">
+        <v>Beton memadat sendiri 20 MPa</v>
+      </c>
+      <c r="E1045" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1045">
+        <v>0</v>
+      </c>
+      <c r="G1045" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046">
+        <v>1044</v>
+      </c>
+      <c r="B1046" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="C1046" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="D1046" t="str">
+        <v>Thermoplastic spreading machine</v>
+      </c>
+      <c r="E1046" t="str">
+        <v>Jam</v>
+      </c>
+      <c r="F1046">
+        <v>0</v>
+      </c>
+      <c r="G1046" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047">
+        <v>1045</v>
+      </c>
+      <c r="B1047" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1047" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1047" t="str">
+        <v>Beton fc 20 Mpa</v>
+      </c>
+      <c r="E1047" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1047">
+        <v>0</v>
+      </c>
+      <c r="G1047" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048">
+        <v>1046</v>
+      </c>
+      <c r="B1048" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1048" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1048" t="str">
+        <v>Beton 15 MPa</v>
+      </c>
+      <c r="E1048" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1048">
+        <v>0</v>
+      </c>
+      <c r="G1048" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049">
+        <v>1047</v>
+      </c>
+      <c r="B1049" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1049" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1049" t="str">
+        <v>Paku jalan tidak memantul</v>
+      </c>
+      <c r="E1049" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F1049">
+        <v>0</v>
+      </c>
+      <c r="G1049" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050">
+        <v>1048</v>
+      </c>
+      <c r="B1050" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1050" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1050" t="str">
+        <v>Beton fc' 15 MPa</v>
+      </c>
+      <c r="E1050" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1050">
+        <v>0</v>
+      </c>
+      <c r="G1050" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051">
+        <v>1049</v>
+      </c>
+      <c r="B1051" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1051" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1051" t="str">
+        <v>Paku jalan memantul bujur sangkar</v>
+      </c>
+      <c r="E1051" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F1051">
+        <v>0</v>
+      </c>
+      <c r="G1051" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052">
+        <v>1050</v>
+      </c>
+      <c r="B1052" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1052" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1052" t="str">
+        <v>Paku jalan memantul persegi panjang</v>
+      </c>
+      <c r="E1052" t="str">
+        <v>m3</v>
+      </c>
+      <c r="F1052">
+        <v>0</v>
+      </c>
+      <c r="G1052" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053">
+        <v>1051</v>
+      </c>
+      <c r="B1053" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1053" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1053" t="str">
+        <v>Paku jalan memantul bulat</v>
+      </c>
+      <c r="E1053" t="str">
+        <v>bh</v>
+      </c>
+      <c r="F1053">
+        <v>0</v>
+      </c>
+      <c r="G1053" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054">
+        <v>1052</v>
+      </c>
+      <c r="B1054" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1054" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1054" t="str">
+        <v>Mata kucing</v>
+      </c>
+      <c r="E1054" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F1054">
+        <v>0</v>
+      </c>
+      <c r="G1054" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055">
+        <v>1053</v>
+      </c>
+      <c r="B1055" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1055" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1055" t="str">
+        <v>Bahan lainnya</v>
+      </c>
+      <c r="E1055" t="str">
+        <v>Ls</v>
+      </c>
+      <c r="F1055">
+        <v>0</v>
+      </c>
+      <c r="G1055" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056">
+        <v>1054</v>
+      </c>
+      <c r="B1056" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="C1056" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="D1056" t="str">
+        <v>Mini Excavator</v>
+      </c>
+      <c r="E1056" t="str">
+        <v>Jam</v>
+      </c>
+      <c r="F1056">
+        <v>0</v>
+      </c>
+      <c r="G1056" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057">
+        <v>1055</v>
+      </c>
+      <c r="B1057" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="C1057" t="str">
+        <v>PERALATAN</v>
+      </c>
+      <c r="D1057" t="str">
+        <v>Mesin pemotong rumput</v>
+      </c>
+      <c r="E1057" t="str">
+        <v>Jam</v>
+      </c>
+      <c r="F1057">
+        <v>0</v>
+      </c>
+      <c r="G1057" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058">
+        <v>1056</v>
+      </c>
+      <c r="B1058" t="str">
+        <v/>
+      </c>
+      <c r="C1058" t="str">
+        <v/>
+      </c>
+      <c r="D1058" t="str">
+        <v>Sewa Tanah</v>
+      </c>
+      <c r="E1058" t="str">
+        <v>m2</v>
+      </c>
+      <c r="F1058">
+        <v>0</v>
+      </c>
+      <c r="G1058" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059">
+        <v>1057</v>
+      </c>
+      <c r="B1059" t="str">
+        <v/>
+      </c>
+      <c r="C1059" t="str">
+        <v/>
+      </c>
+      <c r="D1059" t="str">
+        <v>Periksa Lembar 1.2-2</v>
+      </c>
+      <c r="E1059" t="str">
+        <v/>
+      </c>
+      <c r="F1059">
+        <v>0</v>
+      </c>
+      <c r="G1059" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060">
+        <v>1058</v>
+      </c>
+      <c r="B1060" t="str">
+        <v/>
+      </c>
+      <c r="C1060" t="str">
+        <v/>
+      </c>
+      <c r="D1060" t="str">
+        <v>Kantor Lapangan dan Fasilitas</v>
+      </c>
+      <c r="E1060" t="str">
+        <v/>
+      </c>
+      <c r="F1060">
+        <v>0</v>
+      </c>
+      <c r="G1060" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061">
+        <v>1059</v>
+      </c>
+      <c r="B1061" t="str">
+        <v/>
+      </c>
+      <c r="C1061" t="str">
+        <v/>
+      </c>
+      <c r="D1061" t="str">
+        <v>Mobilisasi Fasilitas Laboratorium</v>
+      </c>
+      <c r="E1061" t="str">
+        <v>set</v>
+      </c>
+      <c r="F1061">
+        <v>0</v>
+      </c>
+      <c r="G1061" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062">
+        <v>1060</v>
+      </c>
+      <c r="B1062" t="str">
+        <v/>
+      </c>
+      <c r="C1062" t="str">
+        <v/>
+      </c>
+      <c r="D1062" t="str">
+        <v>Mobilisasi Personil</v>
+      </c>
+      <c r="E1062" t="str">
+        <v/>
+      </c>
+      <c r="F1062">
+        <v>0</v>
+      </c>
+      <c r="G1062" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063">
+        <v>1061</v>
+      </c>
+      <c r="B1063" t="str">
+        <v/>
+      </c>
+      <c r="C1063" t="str">
+        <v/>
+      </c>
+      <c r="D1063" t="str">
+        <v>Manajemen dan Keselamatan Lalu Lintas</v>
+      </c>
+      <c r="E1063" t="str">
+        <v>Ls</v>
+      </c>
+      <c r="F1063">
+        <v>0</v>
+      </c>
+      <c r="G1063" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064">
+        <v>1062</v>
+      </c>
+      <c r="B1064" t="str">
+        <v/>
+      </c>
+      <c r="C1064" t="str">
+        <v/>
+      </c>
+      <c r="D1064" t="str">
+        <v>Demobilisasi</v>
+      </c>
+      <c r="E1064" t="str">
+        <v>Ls</v>
+      </c>
+      <c r="F1064">
+        <v>0</v>
+      </c>
+      <c r="G1064" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065">
+        <v>1063</v>
+      </c>
+      <c r="B1065" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1065" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1065" t="str">
+        <v>Polytene 125 mikron</v>
+      </c>
+      <c r="E1065" t="str">
+        <v>kg</v>
+      </c>
+      <c r="F1065">
+        <v>0</v>
+      </c>
+      <c r="G1065" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066">
+        <v>1064</v>
+      </c>
+      <c r="B1066" t="str">
+        <v/>
+      </c>
+      <c r="C1066" t="str">
+        <v/>
+      </c>
+      <c r="D1066" t="str">
+        <v>Concrete Mixing Plant</v>
+      </c>
+      <c r="E1066" t="str">
+        <v>Jam</v>
+      </c>
+      <c r="F1066">
+        <v>0</v>
+      </c>
+      <c r="G1066" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067">
+        <v>1065</v>
+      </c>
+      <c r="B1067" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="C1067" t="str">
+        <v>LAIN-LAIN</v>
+      </c>
+      <c r="D1067" t="str">
+        <v>Alat Penghampar Beton</v>
+      </c>
+      <c r="E1067" t="str">
+        <v>Jam</v>
+      </c>
+      <c r="F1067">
+        <v>0</v>
+      </c>
+      <c r="G1067" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068">
+        <v>1066</v>
+      </c>
+      <c r="B1068" t="str">
+        <v>TENAGA KERJA</v>
+      </c>
+      <c r="C1068" t="str">
+        <v>TENAGA KERJA</v>
+      </c>
+      <c r="D1068" t="str">
+        <v>PEKERJA</v>
+      </c>
+      <c r="E1068" t="str">
+        <v>Jam</v>
+      </c>
+      <c r="F1068">
+        <v>0</v>
+      </c>
+      <c r="G1068" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069">
+        <v>1067</v>
+      </c>
+      <c r="B1069" t="str">
+        <v>TENAGA KERJA</v>
+      </c>
+      <c r="C1069" t="str">
+        <v>TENAGA KERJA</v>
+      </c>
+      <c r="D1069" t="str">
+        <v>MANDOR</v>
+      </c>
+      <c r="E1069" t="str">
+        <v>Jam</v>
+      </c>
+      <c r="F1069">
+        <v>0</v>
+      </c>
+      <c r="G1069" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070">
+        <v>1068</v>
+      </c>
+      <c r="B1070" t="str">
+        <v>TENAGA KERJA</v>
+      </c>
+      <c r="C1070" t="str">
+        <v>TENAGA KERJA</v>
+      </c>
+      <c r="D1070" t="str">
+        <v>TUKANG BATU</v>
+      </c>
+      <c r="E1070" t="str">
+        <v>Jam</v>
+      </c>
+      <c r="F1070">
+        <v>0</v>
+      </c>
+      <c r="G1070" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071">
+        <v>1069</v>
+      </c>
+      <c r="B1071" t="str">
+        <v>TENAGA KERJA</v>
+      </c>
+      <c r="C1071" t="str">
+        <v>TENAGA KERJA</v>
+      </c>
+      <c r="D1071" t="str">
+        <v>TUKANG</v>
+      </c>
+      <c r="E1071" t="str">
+        <v>Jam</v>
+      </c>
+      <c r="F1071">
+        <v>0</v>
+      </c>
+      <c r="G1071" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="I328:I329"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I239:I242"/>
-    <mergeCell ref="I251:I254"/>
-    <mergeCell ref="I259:I262"/>
-    <mergeCell ref="I276:I279"/>
-    <mergeCell ref="I314:I317"/>
-  </mergeCells>
-  <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.7480314960629921" bottom="0.7480314960629921" header="0.31496062992125984" footer="0.31496062992125984"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I864"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G1071"/>
   </ignoredErrors>
 </worksheet>
 </file>